--- a/DDAf_2025_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E3F43A9-CA4C-4D4E-9430-ED3AE529B15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74521A7D-293F-4865-BECE-CB7AFA40D85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B977B6D6-D07C-4A3A-B536-F3C577ADB096}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{41F9A30C-38D8-4129-BD15-98B85AE1BFC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -636,13 +636,13 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Figures up to 2024 are estimates. For 2025 onwards, they are projections.</t>
   </si>
   <si>
-    <t>Source: Author's calculation based on IMF World Economic Outlook Database April 2025 and World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division.</t>
+    <t>Source: Author's calculation based on IMF World Economic Outlook Database October 2025 and World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division.</t>
   </si>
   <si>
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
@@ -1552,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2802DBE1-6985-424B-B280-59C0266EB0F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA02C164-3165-4F74-823D-98AF3727953D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1560,35 +1560,35 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" style="81" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" style="81" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="43" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="34" max="43" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.1796875" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1635,7 +1635,7 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
     </row>
-    <row r="2" spans="1:44" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
@@ -1876,34 +1876,34 @@
         <v>0.99528099999999997</v>
       </c>
       <c r="AJ3" s="12">
-        <v>-2.062773</v>
+        <v>-1.8086850000000001</v>
       </c>
       <c r="AK3" s="12">
-        <v>1.370026</v>
+        <v>1.292983</v>
       </c>
       <c r="AL3" s="12">
-        <v>-0.65307400000000004</v>
+        <v>-0.92811399999999999</v>
       </c>
       <c r="AM3" s="12">
-        <v>-0.90720500000000004</v>
+        <v>-0.90439400000000003</v>
       </c>
       <c r="AN3" s="12">
-        <v>-0.44894600000000001</v>
+        <v>-0.46411400000000003</v>
       </c>
       <c r="AO3" s="12">
-        <v>-7.9966999999999996E-2</v>
+        <v>-9.8215999999999998E-2</v>
       </c>
       <c r="AP3" s="12">
-        <v>4.8633000000000003E-2</v>
+        <v>3.7832999999999999E-2</v>
       </c>
       <c r="AQ3" s="12">
-        <v>0.19109699999999999</v>
+        <v>0.187968</v>
       </c>
       <c r="AR3" s="13">
-        <v>-0.240064</v>
+        <v>-0.24895900000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
@@ -2016,28 +2016,28 @@
         <v>-4.5634550000000003</v>
       </c>
       <c r="AL4" s="16">
-        <v>-1.9579040000000001</v>
+        <v>-2.4621740000000001</v>
       </c>
       <c r="AM4" s="16">
-        <v>0.65533200000000003</v>
+        <v>0.66691500000000004</v>
       </c>
       <c r="AN4" s="16">
-        <v>1.504448</v>
+        <v>2.9619119999999999</v>
       </c>
       <c r="AO4" s="16">
-        <v>3.4191129999999998</v>
+        <v>3.397132</v>
       </c>
       <c r="AP4" s="16">
-        <v>3.3860169999999998</v>
+        <v>3.338152</v>
       </c>
       <c r="AQ4" s="16">
-        <v>3.023015</v>
+        <v>3.4322460000000001</v>
       </c>
       <c r="AR4" s="17">
-        <v>2.3914620000000002</v>
+        <v>2.7537539999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
@@ -2117,61 +2117,61 @@
         <v>3.29806</v>
       </c>
       <c r="AA5" s="19">
-        <v>0.36288100000000001</v>
+        <v>0.87365599999999999</v>
       </c>
       <c r="AB5" s="19">
-        <v>1.644876</v>
+        <v>1.4654450000000001</v>
       </c>
       <c r="AC5" s="19">
-        <v>0.47399799999999997</v>
+        <v>4.0658370000000001</v>
       </c>
       <c r="AD5" s="19">
-        <v>1.261244</v>
+        <v>0.696017</v>
       </c>
       <c r="AE5" s="19">
-        <v>1.4399660000000001</v>
+        <v>-0.66400599999999999</v>
       </c>
       <c r="AF5" s="19">
-        <v>1.7395499999999999</v>
+        <v>5.0987960000000001</v>
       </c>
       <c r="AG5" s="19">
-        <v>-2.6206140000000002</v>
+        <v>-3.9094669999999998</v>
       </c>
       <c r="AH5" s="19">
-        <v>9.4115629999999992</v>
+        <v>2.2459600000000002</v>
       </c>
       <c r="AI5" s="19">
-        <v>-0.53943399999999997</v>
+        <v>9.7838999999999995E-2</v>
       </c>
       <c r="AJ5" s="19">
-        <v>4.0447629999999997</v>
+        <v>2.4701629999999999</v>
       </c>
       <c r="AK5" s="19">
-        <v>2.6259730000000001</v>
+        <v>1.7744899999999999</v>
       </c>
       <c r="AL5" s="19">
-        <v>4.0068900000000003</v>
+        <v>3.230918</v>
       </c>
       <c r="AM5" s="19">
-        <v>3.8005049999999998</v>
+        <v>3.4744869999999999</v>
       </c>
       <c r="AN5" s="19">
-        <v>2.8628010000000002</v>
+        <v>2.5064099999999998</v>
       </c>
       <c r="AO5" s="19">
-        <v>2.3435619999999999</v>
+        <v>2.1034380000000001</v>
       </c>
       <c r="AP5" s="19">
-        <v>2.0778310000000002</v>
+        <v>1.8798859999999999</v>
       </c>
       <c r="AQ5" s="19">
-        <v>1.5035210000000001</v>
+        <v>1.807301</v>
       </c>
       <c r="AR5" s="20">
-        <v>2.514707</v>
+        <v>2.3524889999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
@@ -2278,34 +2278,34 @@
         <v>0.88203500000000001</v>
       </c>
       <c r="AJ6" s="19">
-        <v>0.86082499999999995</v>
+        <v>0.96489199999999997</v>
       </c>
       <c r="AK6" s="19">
-        <v>1.480226</v>
+        <v>1.052422</v>
       </c>
       <c r="AL6" s="19">
-        <v>0.40401599999999999</v>
+        <v>0.31812600000000002</v>
       </c>
       <c r="AM6" s="19">
-        <v>0.33980300000000002</v>
+        <v>3.0717999999999999E-2</v>
       </c>
       <c r="AN6" s="19">
-        <v>-7.8004000000000004E-2</v>
+        <v>-0.25297700000000001</v>
       </c>
       <c r="AO6" s="19">
-        <v>0.32233800000000001</v>
+        <v>0.34501199999999999</v>
       </c>
       <c r="AP6" s="19">
-        <v>0.40241300000000002</v>
+        <v>0.45215899999999998</v>
       </c>
       <c r="AQ6" s="19">
-        <v>0.60304000000000002</v>
+        <v>0.47495399999999999</v>
       </c>
       <c r="AR6" s="20">
-        <v>0.31767299999999998</v>
+        <v>0.20957999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
@@ -2418,28 +2418,28 @@
         <v>-0.78929099999999996</v>
       </c>
       <c r="AL7" s="19">
-        <v>0.88719800000000004</v>
+        <v>-0.18798400000000001</v>
       </c>
       <c r="AM7" s="19">
-        <v>1.693522</v>
+        <v>0.16926099999999999</v>
       </c>
       <c r="AN7" s="19">
-        <v>1.9031610000000001</v>
+        <v>0.55374800000000002</v>
       </c>
       <c r="AO7" s="19">
-        <v>2.0312830000000002</v>
+        <v>0.74145099999999997</v>
       </c>
       <c r="AP7" s="19">
-        <v>2.0479880000000001</v>
+        <v>0.865035</v>
       </c>
       <c r="AQ7" s="19">
-        <v>2.077385</v>
+        <v>0.89409099999999997</v>
       </c>
       <c r="AR7" s="20">
-        <v>1.950569</v>
+        <v>0.64436499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -2546,34 +2546,34 @@
         <v>1.3333390000000001</v>
       </c>
       <c r="AJ8" s="19">
-        <v>2.3682720000000002</v>
+        <v>2.4115989999999998</v>
       </c>
       <c r="AK8" s="19">
-        <v>-1.0794010000000001</v>
+        <v>-0.79099699999999995</v>
       </c>
       <c r="AL8" s="19">
-        <v>-0.35313</v>
+        <v>-0.39615600000000001</v>
       </c>
       <c r="AM8" s="19">
-        <v>0.67550500000000002</v>
+        <v>0.64366000000000001</v>
       </c>
       <c r="AN8" s="19">
-        <v>1.4281569999999999</v>
+        <v>1.4287380000000001</v>
       </c>
       <c r="AO8" s="19">
-        <v>1.1649069999999999</v>
+        <v>1.1703440000000001</v>
       </c>
       <c r="AP8" s="19">
-        <v>6.3443560000000003</v>
+        <v>6.2862470000000004</v>
       </c>
       <c r="AQ8" s="19">
-        <v>8.490926</v>
+        <v>8.4111630000000002</v>
       </c>
       <c r="AR8" s="20">
-        <v>3.5723950000000002</v>
+        <v>3.5405220000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>57</v>
       </c>
@@ -2686,28 +2686,28 @@
         <v>1.4171260000000001</v>
       </c>
       <c r="AL9" s="19">
-        <v>1.679996</v>
+        <v>1.4961580000000001</v>
       </c>
       <c r="AM9" s="19">
-        <v>1.7180789999999999</v>
+        <v>1.853202</v>
       </c>
       <c r="AN9" s="19">
-        <v>0.97123899999999996</v>
+        <v>1.007735</v>
       </c>
       <c r="AO9" s="19">
-        <v>1.113958</v>
+        <v>1.1702349999999999</v>
       </c>
       <c r="AP9" s="19">
-        <v>1.230909</v>
+        <v>1.2281040000000001</v>
       </c>
       <c r="AQ9" s="19">
-        <v>1.1786030000000001</v>
+        <v>1.2202280000000001</v>
       </c>
       <c r="AR9" s="20">
-        <v>1.2422420000000001</v>
+        <v>1.2954870000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
@@ -2808,40 +2808,40 @@
         <v>-7.6787409999999996</v>
       </c>
       <c r="AH10" s="19">
-        <v>3.350549</v>
+        <v>3.2556250000000002</v>
       </c>
       <c r="AI10" s="19">
-        <v>0.48060900000000001</v>
+        <v>0.62523300000000004</v>
       </c>
       <c r="AJ10" s="19">
-        <v>-0.63003799999999999</v>
+        <v>-0.52386200000000005</v>
       </c>
       <c r="AK10" s="19">
-        <v>-0.66909399999999997</v>
+        <v>-0.71353</v>
       </c>
       <c r="AL10" s="19">
-        <v>-0.17546300000000001</v>
+        <v>-7.2370000000000004E-3</v>
       </c>
       <c r="AM10" s="19">
-        <v>0.19711200000000001</v>
+        <v>6.0314E-2</v>
       </c>
       <c r="AN10" s="19">
-        <v>0.58019500000000002</v>
+        <v>0.45344200000000001</v>
       </c>
       <c r="AO10" s="19">
-        <v>0.66495700000000002</v>
+        <v>0.65631499999999998</v>
       </c>
       <c r="AP10" s="19">
-        <v>0.77696299999999996</v>
+        <v>0.81493400000000005</v>
       </c>
       <c r="AQ10" s="19">
-        <v>0.83454899999999999</v>
+        <v>0.85668</v>
       </c>
       <c r="AR10" s="20">
-        <v>0.61050400000000005</v>
+        <v>0.56791599999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
@@ -2954,28 +2954,28 @@
         <v>1.1583870000000001</v>
       </c>
       <c r="AL11" s="16">
-        <v>3.2974969999999999</v>
+        <v>2.952798</v>
       </c>
       <c r="AM11" s="16">
-        <v>3.9331550000000002</v>
+        <v>3.500203</v>
       </c>
       <c r="AN11" s="16">
-        <v>3.5653049999999999</v>
+        <v>3.701495</v>
       </c>
       <c r="AO11" s="16">
-        <v>2.3963960000000002</v>
+        <v>2.385224</v>
       </c>
       <c r="AP11" s="16">
-        <v>2.135281</v>
+        <v>2.1373350000000002</v>
       </c>
       <c r="AQ11" s="16">
-        <v>2.1008439999999999</v>
+        <v>2.1060940000000001</v>
       </c>
       <c r="AR11" s="17">
-        <v>2.8233229999999998</v>
+        <v>2.7637489999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>64</v>
       </c>
@@ -3043,28 +3043,28 @@
         <v>5.8954409999999999</v>
       </c>
       <c r="W12" s="24">
-        <v>18.037389000000001</v>
+        <v>18.037375999999998</v>
       </c>
       <c r="X12" s="24">
-        <v>12.189382999999999</v>
+        <v>12.189360000000001</v>
       </c>
       <c r="Y12" s="24">
-        <v>14.772665</v>
+        <v>14.772492</v>
       </c>
       <c r="Z12" s="24">
-        <v>0.64130600000000004</v>
+        <v>0.64129700000000001</v>
       </c>
       <c r="AA12" s="24">
-        <v>1.0063599999999999</v>
+        <v>1.0063420000000001</v>
       </c>
       <c r="AB12" s="24">
-        <v>0.48963400000000001</v>
+        <v>0.48962499999999998</v>
       </c>
       <c r="AC12" s="24">
-        <v>-0.63497199999999998</v>
+        <v>-0.63497800000000004</v>
       </c>
       <c r="AD12" s="24">
-        <v>3.6956889999999998</v>
+        <v>3.6958639999999998</v>
       </c>
       <c r="AE12" s="24">
         <v>3.459492</v>
@@ -3079,169 +3079,169 @@
         <v>6.6119110000000001</v>
       </c>
       <c r="AI12" s="24">
-        <v>4.3436599999999999</v>
+        <v>4.3436669999999999</v>
       </c>
       <c r="AJ12" s="24">
-        <v>3.5848650000000002</v>
+        <v>3.5848640000000001</v>
       </c>
       <c r="AK12" s="24">
-        <v>0.226802</v>
+        <v>-5.3092E-2</v>
       </c>
       <c r="AL12" s="24">
-        <v>4.0424740000000003</v>
+        <v>4.0614990000000004</v>
       </c>
       <c r="AM12" s="24">
-        <v>2.6842820000000001</v>
+        <v>2.6042040000000002</v>
       </c>
       <c r="AN12" s="24">
-        <v>1.7046049999999999</v>
+        <v>1.721805</v>
       </c>
       <c r="AO12" s="24">
-        <v>1.546508</v>
+        <v>1.5822149999999999</v>
       </c>
       <c r="AP12" s="24">
-        <v>1.6221859999999999</v>
+        <v>1.5518000000000001</v>
       </c>
       <c r="AQ12" s="24">
-        <v>1.632668</v>
+        <v>1.6293409999999999</v>
       </c>
       <c r="AR12" s="25">
-        <v>1.837162</v>
+        <v>1.8170999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="28">
-        <v>-2.8430149999999998</v>
+        <v>-2.8445860000000001</v>
       </c>
       <c r="D13" s="29">
-        <v>-1.783563</v>
+        <v>-1.7837270000000001</v>
       </c>
       <c r="E13" s="29">
-        <v>-2.7706279999999999</v>
+        <v>-2.7712400000000001</v>
       </c>
       <c r="F13" s="29">
-        <v>0.207007</v>
+        <v>0.206904</v>
       </c>
       <c r="G13" s="29">
-        <v>0.96638199999999996</v>
+        <v>0.96651200000000004</v>
       </c>
       <c r="H13" s="29">
-        <v>2.0873110000000001</v>
+        <v>2.087221</v>
       </c>
       <c r="I13" s="29">
-        <v>3.1347520000000002</v>
+        <v>3.1349900000000002</v>
       </c>
       <c r="J13" s="29">
-        <v>1.552128</v>
+        <v>1.5522069999999999</v>
       </c>
       <c r="K13" s="29">
-        <v>-0.75455799999999995</v>
+        <v>-0.75479099999999999</v>
       </c>
       <c r="L13" s="29">
-        <v>0.64335799999999999</v>
+        <v>0.54715800000000003</v>
       </c>
       <c r="M13" s="29">
-        <v>1.598268</v>
+        <v>1.4120969999999999</v>
       </c>
       <c r="N13" s="29">
-        <v>1.046278</v>
+        <v>0.96916899999999995</v>
       </c>
       <c r="O13" s="29">
-        <v>2.7824399999999998</v>
+        <v>2.5228100000000002</v>
       </c>
       <c r="P13" s="29">
-        <v>0.62369200000000002</v>
+        <v>0.29996499999999998</v>
       </c>
       <c r="Q13" s="29">
-        <v>3.2110120000000002</v>
+        <v>3.0345499999999999</v>
       </c>
       <c r="R13" s="29">
-        <v>4.1881079999999997</v>
+        <v>4.004372</v>
       </c>
       <c r="S13" s="29">
-        <v>4.3217049999999997</v>
+        <v>4.1995230000000001</v>
       </c>
       <c r="T13" s="29">
-        <v>4.3883450000000002</v>
+        <v>4.2777909999999997</v>
       </c>
       <c r="U13" s="29">
-        <v>2.1702539999999999</v>
+        <v>1.985725</v>
       </c>
       <c r="V13" s="29">
-        <v>-2.3622649999999998</v>
+        <v>-2.2898909999999999</v>
       </c>
       <c r="W13" s="29">
-        <v>2.2678669999999999</v>
+        <v>2.4368319999999999</v>
       </c>
       <c r="X13" s="29">
-        <v>1.5499940000000001</v>
+        <v>1.6741490000000001</v>
       </c>
       <c r="Y13" s="29">
-        <v>1.9381079999999999</v>
+        <v>2.1027640000000001</v>
       </c>
       <c r="Z13" s="29">
-        <v>0.98235099999999997</v>
+        <v>0.96343999999999996</v>
       </c>
       <c r="AA13" s="29">
-        <v>0.20983199999999999</v>
+        <v>0.21001</v>
       </c>
       <c r="AB13" s="29">
-        <v>-1.119067</v>
+        <v>-1.1146739999999999</v>
       </c>
       <c r="AC13" s="29">
-        <v>-1.4916020000000001</v>
+        <v>-1.4632879999999999</v>
       </c>
       <c r="AD13" s="29">
-        <v>-0.80831600000000003</v>
+        <v>-0.75817599999999996</v>
       </c>
       <c r="AE13" s="29">
-        <v>-0.89630900000000002</v>
+        <v>-0.86137399999999997</v>
       </c>
       <c r="AF13" s="29">
-        <v>-2.1689850000000002</v>
+        <v>-2.2649110000000001</v>
       </c>
       <c r="AG13" s="29">
-        <v>-7.6144850000000002</v>
+        <v>-7.6717149999999998</v>
       </c>
       <c r="AH13" s="29">
-        <v>2.2813059999999998</v>
+        <v>2.2447650000000001</v>
       </c>
       <c r="AI13" s="29">
-        <v>0.66232400000000002</v>
+        <v>0.81340400000000002</v>
       </c>
       <c r="AJ13" s="29">
-        <v>-0.652945</v>
+        <v>-0.47335700000000003</v>
       </c>
       <c r="AK13" s="29">
-        <v>-0.48885899999999999</v>
+        <v>-0.54149700000000001</v>
       </c>
       <c r="AL13" s="29">
-        <v>-0.20583699999999999</v>
+        <v>-0.15474599999999999</v>
       </c>
       <c r="AM13" s="29">
-        <v>4.4186000000000003E-2</v>
+        <v>-4.3684000000000001E-2</v>
       </c>
       <c r="AN13" s="29">
-        <v>0.31691999999999998</v>
+        <v>0.28683799999999998</v>
       </c>
       <c r="AO13" s="29">
-        <v>0.42600700000000002</v>
+        <v>0.406889</v>
       </c>
       <c r="AP13" s="29">
-        <v>0.70410499999999998</v>
+        <v>0.698245</v>
       </c>
       <c r="AQ13" s="29">
-        <v>0.85781399999999997</v>
+        <v>0.86497199999999996</v>
       </c>
       <c r="AR13" s="30">
-        <v>0.46939599999999998</v>
+        <v>0.44214799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>67</v>
       </c>
@@ -3351,31 +3351,31 @@
         <v>-0.10310900000000001</v>
       </c>
       <c r="AK14" s="19">
-        <v>0.89024999999999999</v>
+        <v>0.90716399999999997</v>
       </c>
       <c r="AL14" s="19">
-        <v>-0.55644000000000005</v>
+        <v>1.915467</v>
       </c>
       <c r="AM14" s="19">
-        <v>0.226578</v>
+        <v>1.6545879999999999</v>
       </c>
       <c r="AN14" s="19">
-        <v>0.41528100000000001</v>
+        <v>1.774419</v>
       </c>
       <c r="AO14" s="19">
-        <v>0.663439</v>
+        <v>1.7590600000000001</v>
       </c>
       <c r="AP14" s="19">
-        <v>0.855576</v>
+        <v>1.980165</v>
       </c>
       <c r="AQ14" s="19">
-        <v>1.151467</v>
+        <v>2.1469670000000001</v>
       </c>
       <c r="AR14" s="20">
-        <v>0.66194399999999998</v>
+        <v>1.862886</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>69</v>
       </c>
@@ -3482,34 +3482,34 @@
         <v>1.0451520000000001</v>
       </c>
       <c r="AJ15" s="19">
-        <v>0.52523600000000004</v>
+        <v>0.55553399999999997</v>
       </c>
       <c r="AK15" s="19">
-        <v>0.89177200000000001</v>
+        <v>0.790794</v>
       </c>
       <c r="AL15" s="19">
-        <v>0.99063599999999996</v>
+        <v>1.170866</v>
       </c>
       <c r="AM15" s="19">
-        <v>1.4334359999999999</v>
+        <v>1.488642</v>
       </c>
       <c r="AN15" s="19">
-        <v>1.8345039999999999</v>
+        <v>1.7737320000000001</v>
       </c>
       <c r="AO15" s="19">
-        <v>2.0951529999999998</v>
+        <v>1.9861629999999999</v>
       </c>
       <c r="AP15" s="19">
-        <v>2.103815</v>
+        <v>2.0458059999999998</v>
       </c>
       <c r="AQ15" s="19">
-        <v>2.1214590000000002</v>
+        <v>2.1453679999999999</v>
       </c>
       <c r="AR15" s="20">
-        <v>1.91733</v>
+        <v>1.8876740000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>71</v>
       </c>
@@ -3601,49 +3601,49 @@
         <v>2.786451</v>
       </c>
       <c r="AE16" s="19">
-        <v>2.0078260000000001</v>
+        <v>1.3988510000000001</v>
       </c>
       <c r="AF16" s="19">
-        <v>1.5949169999999999</v>
+        <v>2.7100040000000001</v>
       </c>
       <c r="AG16" s="19">
-        <v>-0.686083</v>
+        <v>-0.61599000000000004</v>
       </c>
       <c r="AH16" s="19">
-        <v>-0.70546500000000001</v>
+        <v>-1.951551</v>
       </c>
       <c r="AI16" s="19">
-        <v>0.74932100000000001</v>
+        <v>1.092336</v>
       </c>
       <c r="AJ16" s="19">
-        <v>-0.336482</v>
+        <v>-1.1452340000000001</v>
       </c>
       <c r="AK16" s="19">
-        <v>-1.5726249999999999</v>
+        <v>-1.4875290000000001</v>
       </c>
       <c r="AL16" s="19">
-        <v>-0.471308</v>
+        <v>-0.41350100000000001</v>
       </c>
       <c r="AM16" s="19">
-        <v>-0.21506500000000001</v>
+        <v>-9.3338000000000004E-2</v>
       </c>
       <c r="AN16" s="19">
-        <v>0.21106</v>
+        <v>0.29241899999999998</v>
       </c>
       <c r="AO16" s="19">
-        <v>0.47432000000000002</v>
+        <v>0.49262</v>
       </c>
       <c r="AP16" s="19">
-        <v>0.46569100000000002</v>
+        <v>0.48101500000000003</v>
       </c>
       <c r="AQ16" s="19">
-        <v>0.40612700000000002</v>
+        <v>0.74407000000000001</v>
       </c>
       <c r="AR16" s="20">
-        <v>0.26808999999999999</v>
+        <v>0.38297100000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>73</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>27.807307999999999</v>
       </c>
       <c r="R17" s="33">
-        <v>4.0276620000000003</v>
+        <v>3.2511990000000002</v>
       </c>
       <c r="S17" s="33">
         <v>-4.0329449999999998</v>
@@ -3717,67 +3717,67 @@
         <v>0.92702700000000005</v>
       </c>
       <c r="Y17" s="33">
-        <v>5.2885340000000003</v>
+        <v>5.1459869999999999</v>
       </c>
       <c r="Z17" s="33">
-        <v>-0.79762</v>
+        <v>-0.68452900000000005</v>
       </c>
       <c r="AA17" s="33">
-        <v>-1.516375</v>
+        <v>-1.273342</v>
       </c>
       <c r="AB17" s="33">
-        <v>7.3923000000000003E-2</v>
+        <v>-8.1711000000000006E-2</v>
       </c>
       <c r="AC17" s="33">
-        <v>-7.0922580000000002</v>
+        <v>-6.6278050000000004</v>
       </c>
       <c r="AD17" s="33">
-        <v>-4.8273780000000004</v>
+        <v>-5.2730629999999996</v>
       </c>
       <c r="AE17" s="33">
-        <v>2.2476959999999999</v>
+        <v>1.7618510000000001</v>
       </c>
       <c r="AF17" s="33">
-        <v>2.04928</v>
+        <v>2.519603</v>
       </c>
       <c r="AG17" s="33">
-        <v>-3.5279669999999999</v>
+        <v>-3.1003479999999999</v>
       </c>
       <c r="AH17" s="33">
-        <v>-3.1015739999999998</v>
+        <v>-1.4787650000000001</v>
       </c>
       <c r="AI17" s="33">
-        <v>0.57288499999999998</v>
+        <v>1.1121859999999999</v>
       </c>
       <c r="AJ17" s="33">
-        <v>-0.62330099999999999</v>
+        <v>0.28443099999999999</v>
       </c>
       <c r="AK17" s="33">
-        <v>-3.3865940000000001</v>
+        <v>-1.495822</v>
       </c>
       <c r="AL17" s="33">
-        <v>-1.6919200000000001</v>
+        <v>-0.125224</v>
       </c>
       <c r="AM17" s="33">
-        <v>0.50881799999999999</v>
+        <v>0.89234599999999997</v>
       </c>
       <c r="AN17" s="33">
-        <v>-0.25566899999999998</v>
+        <v>0.48375200000000002</v>
       </c>
       <c r="AO17" s="33">
-        <v>0.164715</v>
+        <v>0.69564499999999996</v>
       </c>
       <c r="AP17" s="33">
-        <v>-0.13530200000000001</v>
+        <v>0.99051699999999998</v>
       </c>
       <c r="AQ17" s="33">
-        <v>-8.2836999999999994E-2</v>
+        <v>1.1311560000000001</v>
       </c>
       <c r="AR17" s="34">
-        <v>3.9577000000000001E-2</v>
+        <v>0.83842700000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>75</v>
       </c>
@@ -3887,31 +3887,31 @@
         <v>-0.46046199999999998</v>
       </c>
       <c r="AK18" s="33">
-        <v>0.16442999999999999</v>
+        <v>-0.30768600000000002</v>
       </c>
       <c r="AL18" s="33">
-        <v>0.89753099999999997</v>
+        <v>0.25589299999999998</v>
       </c>
       <c r="AM18" s="33">
-        <v>0.78244599999999997</v>
+        <v>0.45861600000000002</v>
       </c>
       <c r="AN18" s="33">
-        <v>1.1363049999999999</v>
+        <v>0.85223899999999997</v>
       </c>
       <c r="AO18" s="33">
-        <v>1.4681029999999999</v>
+        <v>1.336514</v>
       </c>
       <c r="AP18" s="33">
-        <v>1.474982</v>
+        <v>1.301083</v>
       </c>
       <c r="AQ18" s="33">
-        <v>1.488138</v>
+        <v>1.2064889999999999</v>
       </c>
       <c r="AR18" s="34">
-        <v>1.2696149999999999</v>
+        <v>1.0304359999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>77</v>
       </c>
@@ -4018,34 +4018,34 @@
         <v>5.7551389999999998</v>
       </c>
       <c r="AJ19" s="16">
-        <v>5.0185769999999996</v>
+        <v>5.0039199999999999</v>
       </c>
       <c r="AK19" s="16">
-        <v>3.0853269999999999</v>
+        <v>3.065083</v>
       </c>
       <c r="AL19" s="16">
-        <v>1.392301</v>
+        <v>1.9621900000000001</v>
       </c>
       <c r="AM19" s="16">
-        <v>1.9016139999999999</v>
+        <v>2.0110950000000001</v>
       </c>
       <c r="AN19" s="16">
-        <v>2.1411720000000001</v>
+        <v>2.169575</v>
       </c>
       <c r="AO19" s="16">
-        <v>2.4641459999999999</v>
+        <v>2.254391</v>
       </c>
       <c r="AP19" s="16">
-        <v>2.3556010000000001</v>
+        <v>2.2924120000000001</v>
       </c>
       <c r="AQ19" s="16">
-        <v>2.057169</v>
+        <v>2.3447960000000001</v>
       </c>
       <c r="AR19" s="17">
-        <v>2.1837390000000001</v>
+        <v>2.2143869999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>79</v>
       </c>
@@ -4155,31 +4155,31 @@
         <v>-7.349844</v>
       </c>
       <c r="AK20" s="33">
-        <v>-0.55930999999999997</v>
+        <v>-1.5151380000000001</v>
       </c>
       <c r="AL20" s="33">
-        <v>-6.4735420000000001</v>
+        <v>-3.9553919999999998</v>
       </c>
       <c r="AM20" s="33">
-        <v>-2.3196490000000001</v>
+        <v>-1.8697820000000001</v>
       </c>
       <c r="AN20" s="33">
-        <v>-1.8386880000000001</v>
+        <v>-1.207079</v>
       </c>
       <c r="AO20" s="33">
-        <v>-1.559158</v>
+        <v>-0.89502099999999996</v>
       </c>
       <c r="AP20" s="33">
-        <v>-0.829067</v>
+        <v>-0.19678300000000001</v>
       </c>
       <c r="AQ20" s="33">
-        <v>0.406642</v>
+        <v>-7.9429E-2</v>
       </c>
       <c r="AR20" s="34">
-        <v>-1.232526</v>
+        <v>-0.85182999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>81</v>
       </c>
@@ -4289,31 +4289,31 @@
         <v>0.21782499999999999</v>
       </c>
       <c r="AK21" s="33">
-        <v>0.87478999999999996</v>
+        <v>1.1490499999999999</v>
       </c>
       <c r="AL21" s="33">
-        <v>0.62713699999999994</v>
+        <v>-0.25483499999999998</v>
       </c>
       <c r="AM21" s="33">
-        <v>0.499224</v>
+        <v>0.47163899999999997</v>
       </c>
       <c r="AN21" s="33">
-        <v>0.78469100000000003</v>
+        <v>0.71681799999999996</v>
       </c>
       <c r="AO21" s="33">
-        <v>0.78402899999999998</v>
+        <v>0.79458099999999998</v>
       </c>
       <c r="AP21" s="33">
-        <v>0.73387899999999995</v>
+        <v>0.838951</v>
       </c>
       <c r="AQ21" s="33">
-        <v>0.88302899999999995</v>
+        <v>0.85868800000000001</v>
       </c>
       <c r="AR21" s="34">
-        <v>0.73688900000000002</v>
+        <v>0.73603700000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>83</v>
       </c>
@@ -4408,31 +4408,31 @@
         <v>2.7805780000000002</v>
       </c>
       <c r="AF22" s="37">
-        <v>0.46803099999999997</v>
+        <v>0.48213499999999998</v>
       </c>
       <c r="AG22" s="37">
-        <v>0.692249</v>
+        <v>0.71665400000000001</v>
       </c>
       <c r="AH22" s="37">
-        <v>-0.17784</v>
+        <v>-0.17852999999999999</v>
       </c>
       <c r="AI22" s="37">
-        <v>-1.7233719999999999</v>
+        <v>-1.7540800000000001</v>
       </c>
       <c r="AJ22" s="37">
-        <v>-1.585639</v>
+        <v>-1.612841</v>
       </c>
       <c r="AK22" s="37">
-        <v>-1.098414</v>
+        <v>-0.89281500000000003</v>
       </c>
       <c r="AL22" s="37">
-        <v>1.09989</v>
+        <v>0.87929599999999997</v>
       </c>
       <c r="AM22" s="37">
-        <v>2.8016220000000001</v>
+        <v>2.6743260000000002</v>
       </c>
       <c r="AN22" s="37">
-        <v>2.0614340000000002</v>
+        <v>1.905923</v>
       </c>
       <c r="AO22" s="37">
         <v>1.5195019999999999</v>
@@ -4444,142 +4444,142 @@
         <v>1.5568610000000001</v>
       </c>
       <c r="AR22" s="38">
-        <v>1.8930830000000001</v>
+        <v>1.8367739999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="28">
-        <v>-6.309329</v>
+        <v>-6.3024050000000003</v>
       </c>
       <c r="D23" s="29">
-        <v>-5.4614240000000001</v>
+        <v>-5.45899</v>
       </c>
       <c r="E23" s="29">
-        <v>-7.6599510000000004</v>
+        <v>-7.6604469999999996</v>
       </c>
       <c r="F23" s="29">
-        <v>-7.8377879999999998</v>
+        <v>-7.8314209999999997</v>
       </c>
       <c r="G23" s="29">
-        <v>-5.1707669999999997</v>
+        <v>-5.1456280000000003</v>
       </c>
       <c r="H23" s="29">
-        <v>-1.168801</v>
+        <v>-1.1681569999999999</v>
       </c>
       <c r="I23" s="29">
-        <v>-0.50938300000000003</v>
+        <v>-0.522563</v>
       </c>
       <c r="J23" s="29">
-        <v>1.170776</v>
+        <v>1.1724349999999999</v>
       </c>
       <c r="K23" s="29">
-        <v>0.47464699999999999</v>
+        <v>0.47484700000000002</v>
       </c>
       <c r="L23" s="29">
-        <v>-3.73502</v>
+        <v>-3.7286779999999999</v>
       </c>
       <c r="M23" s="29">
-        <v>2.839677</v>
+        <v>2.8236029999999999</v>
       </c>
       <c r="N23" s="29">
-        <v>3.2480530000000001</v>
+        <v>3.2417669999999998</v>
       </c>
       <c r="O23" s="29">
-        <v>1.8527800000000001</v>
+        <v>1.8482369999999999</v>
       </c>
       <c r="P23" s="29">
-        <v>3.0548630000000001</v>
+        <v>3.0423939999999998</v>
       </c>
       <c r="Q23" s="29">
-        <v>7.8386570000000004</v>
+        <v>7.8234690000000002</v>
       </c>
       <c r="R23" s="29">
-        <v>2.673035</v>
+        <v>2.5767470000000001</v>
       </c>
       <c r="S23" s="29">
-        <v>0.38838699999999998</v>
+        <v>0.39326</v>
       </c>
       <c r="T23" s="29">
-        <v>2.8673329999999999</v>
+        <v>2.866053</v>
       </c>
       <c r="U23" s="29">
-        <v>2.787102</v>
+        <v>2.7850739999999998</v>
       </c>
       <c r="V23" s="29">
-        <v>-1.1548480000000001</v>
+        <v>-1.151311</v>
       </c>
       <c r="W23" s="29">
-        <v>1.6631119999999999</v>
+        <v>1.6554629999999999</v>
       </c>
       <c r="X23" s="29">
-        <v>1.974966</v>
+        <v>1.974186</v>
       </c>
       <c r="Y23" s="29">
-        <v>3.8010640000000002</v>
+        <v>3.7803710000000001</v>
       </c>
       <c r="Z23" s="29">
-        <v>0.53514200000000001</v>
+        <v>0.51833600000000002</v>
       </c>
       <c r="AA23" s="29">
-        <v>1.6662319999999999</v>
+        <v>1.6912590000000001</v>
       </c>
       <c r="AB23" s="29">
-        <v>-0.36044900000000002</v>
+        <v>-0.37701200000000001</v>
       </c>
       <c r="AC23" s="29">
-        <v>-3.1813959999999999</v>
+        <v>-3.1270730000000002</v>
       </c>
       <c r="AD23" s="29">
-        <v>-2.1436419999999998</v>
+        <v>-2.1855169999999999</v>
       </c>
       <c r="AE23" s="29">
-        <v>-0.58671600000000002</v>
+        <v>-0.64851300000000001</v>
       </c>
       <c r="AF23" s="29">
-        <v>-1.1789000000000001E-2</v>
+        <v>5.3102000000000003E-2</v>
       </c>
       <c r="AG23" s="29">
-        <v>-3.24932</v>
+        <v>-3.1777150000000001</v>
       </c>
       <c r="AH23" s="29">
-        <v>-1.177573</v>
+        <v>-1.0338940000000001</v>
       </c>
       <c r="AI23" s="29">
-        <v>2.087513</v>
+        <v>2.1960199999999999</v>
       </c>
       <c r="AJ23" s="29">
-        <v>1.0736680000000001</v>
+        <v>1.214801</v>
       </c>
       <c r="AK23" s="29">
-        <v>0.78810899999999995</v>
+        <v>0.90773800000000004</v>
       </c>
       <c r="AL23" s="29">
-        <v>0.13312199999999999</v>
+        <v>0.62146199999999996</v>
       </c>
       <c r="AM23" s="29">
-        <v>0.91524899999999998</v>
+        <v>1.0554559999999999</v>
       </c>
       <c r="AN23" s="29">
-        <v>1.144002</v>
+        <v>1.256143</v>
       </c>
       <c r="AO23" s="29">
-        <v>1.4301969999999999</v>
+        <v>1.4324170000000001</v>
       </c>
       <c r="AP23" s="29">
-        <v>1.418258</v>
+        <v>1.5450809999999999</v>
       </c>
       <c r="AQ23" s="29">
-        <v>1.418558</v>
+        <v>1.632188</v>
       </c>
       <c r="AR23" s="30">
-        <v>1.2650440000000001</v>
+        <v>1.3840460000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>86</v>
       </c>
@@ -4686,34 +4686,34 @@
         <v>0.63331000000000004</v>
       </c>
       <c r="AJ24" s="41">
-        <v>1.0332129999999999</v>
+        <v>1.0333939999999999</v>
       </c>
       <c r="AK24" s="41">
-        <v>1.4015070000000001</v>
+        <v>1.4021920000000001</v>
       </c>
       <c r="AL24" s="41">
-        <v>1.869537</v>
+        <v>1.8699140000000001</v>
       </c>
       <c r="AM24" s="41">
-        <v>2.448245</v>
+        <v>2.151694</v>
       </c>
       <c r="AN24" s="41">
-        <v>2.6334469999999999</v>
+        <v>2.4208880000000002</v>
       </c>
       <c r="AO24" s="41">
-        <v>2.486745</v>
+        <v>2.4836269999999998</v>
       </c>
       <c r="AP24" s="41">
-        <v>2.016689</v>
+        <v>2.0154719999999999</v>
       </c>
       <c r="AQ24" s="41">
-        <v>2.0408110000000002</v>
+        <v>2.0395910000000002</v>
       </c>
       <c r="AR24" s="42">
-        <v>2.3248820000000001</v>
+        <v>2.22207</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>88</v>
       </c>
@@ -4829,10 +4829,10 @@
         <v>4.6332440000000004</v>
       </c>
       <c r="AM25" s="19">
-        <v>4.1569849999999997</v>
+        <v>4.640555</v>
       </c>
       <c r="AN25" s="19">
-        <v>4.1490980000000004</v>
+        <v>4.6426959999999999</v>
       </c>
       <c r="AO25" s="19">
         <v>4.1653310000000001</v>
@@ -4844,10 +4844,10 @@
         <v>4.16249</v>
       </c>
       <c r="AR25" s="20">
-        <v>4.1545399999999999</v>
+        <v>4.3497019999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>90</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>92</v>
       </c>
@@ -5094,28 +5094,28 @@
         <v>5.2955990000000002</v>
       </c>
       <c r="AL27" s="19">
-        <v>3.9263479999999999</v>
+        <v>4.5231760000000003</v>
       </c>
       <c r="AM27" s="19">
-        <v>4.4624110000000003</v>
+        <v>4.467835</v>
       </c>
       <c r="AN27" s="19">
-        <v>5.1047339999999997</v>
+        <v>5.1090530000000003</v>
       </c>
       <c r="AO27" s="19">
-        <v>5.4329409999999996</v>
+        <v>5.4366099999999999</v>
       </c>
       <c r="AP27" s="19">
-        <v>5.2364639999999998</v>
+        <v>5.2380789999999999</v>
       </c>
       <c r="AQ27" s="19">
-        <v>5.0208690000000002</v>
+        <v>5.0208510000000004</v>
       </c>
       <c r="AR27" s="20">
-        <v>5.0509779999999997</v>
+        <v>5.0539820000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>94</v>
       </c>
@@ -5222,34 +5222,34 @@
         <v>2.8628149999999999</v>
       </c>
       <c r="AJ28" s="19">
-        <v>3.4833660000000002</v>
+        <v>3.6442540000000001</v>
       </c>
       <c r="AK28" s="19">
-        <v>2.4834559999999999</v>
+        <v>2.6946720000000002</v>
       </c>
       <c r="AL28" s="19">
-        <v>2.8070040000000001</v>
+        <v>2.8122319999999998</v>
       </c>
       <c r="AM28" s="19">
-        <v>2.914307</v>
+        <v>2.8815719999999998</v>
       </c>
       <c r="AN28" s="19">
-        <v>3.0699049999999999</v>
+        <v>3.071034</v>
       </c>
       <c r="AO28" s="19">
-        <v>3.1075200000000001</v>
+        <v>3.1056629999999998</v>
       </c>
       <c r="AP28" s="19">
-        <v>3.1108169999999999</v>
+        <v>3.1058249999999998</v>
       </c>
       <c r="AQ28" s="19">
-        <v>3.1641759999999999</v>
+        <v>3.1022609999999999</v>
       </c>
       <c r="AR28" s="20">
-        <v>3.0733100000000002</v>
+        <v>3.0532339999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>96</v>
       </c>
@@ -5362,28 +5362,28 @@
         <v>1.69312</v>
       </c>
       <c r="AL29" s="19">
-        <v>1.4773590000000001</v>
+        <v>1.388377</v>
       </c>
       <c r="AM29" s="19">
-        <v>1.7769649999999999</v>
+        <v>1.891446</v>
       </c>
       <c r="AN29" s="19">
-        <v>2.109969</v>
+        <v>2.508308</v>
       </c>
       <c r="AO29" s="19">
-        <v>2.4585159999999999</v>
+        <v>2.5472459999999999</v>
       </c>
       <c r="AP29" s="19">
-        <v>2.609772</v>
+        <v>2.6749700000000001</v>
       </c>
       <c r="AQ29" s="19">
-        <v>2.7316750000000001</v>
+        <v>2.7278630000000001</v>
       </c>
       <c r="AR29" s="20">
-        <v>2.3367830000000001</v>
+        <v>2.4695260000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>98</v>
       </c>
@@ -5487,37 +5487,37 @@
         <v>3.6947079999999999</v>
       </c>
       <c r="AI30" s="19">
-        <v>8.9975319999999996</v>
+        <v>8.9905790000000003</v>
       </c>
       <c r="AJ30" s="19">
-        <v>5.2028629999999998</v>
+        <v>5.2175079999999996</v>
       </c>
       <c r="AK30" s="19">
-        <v>4.899241</v>
+        <v>5.1247930000000004</v>
       </c>
       <c r="AL30" s="19">
-        <v>3.2346219999999999</v>
+        <v>3.4350779999999999</v>
       </c>
       <c r="AM30" s="19">
-        <v>3.262251</v>
+        <v>3.6632690000000001</v>
       </c>
       <c r="AN30" s="19">
-        <v>3.2798630000000002</v>
+        <v>3.6809500000000002</v>
       </c>
       <c r="AO30" s="19">
-        <v>3.2937609999999999</v>
+        <v>3.6949019999999999</v>
       </c>
       <c r="AP30" s="19">
-        <v>3.3087659999999999</v>
+        <v>3.709965</v>
       </c>
       <c r="AQ30" s="19">
-        <v>3.3172130000000002</v>
+        <v>3.718445</v>
       </c>
       <c r="AR30" s="20">
-        <v>3.2923689999999999</v>
+        <v>3.6935039999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>4.9747180000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>102</v>
       </c>
@@ -5761,31 +5761,31 @@
         <v>0.31798100000000001</v>
       </c>
       <c r="AK32" s="19">
-        <v>1.0515300000000001</v>
+        <v>1.0005139999999999</v>
       </c>
       <c r="AL32" s="19">
-        <v>1.6848529999999999</v>
+        <v>2.055933</v>
       </c>
       <c r="AM32" s="19">
-        <v>1.8241240000000001</v>
+        <v>1.533005</v>
       </c>
       <c r="AN32" s="19">
-        <v>2.0132140000000001</v>
+        <v>1.9058850000000001</v>
       </c>
       <c r="AO32" s="19">
-        <v>2.3004739999999999</v>
+        <v>2.2188859999999999</v>
       </c>
       <c r="AP32" s="19">
-        <v>2.6118399999999999</v>
+        <v>2.5699550000000002</v>
       </c>
       <c r="AQ32" s="19">
         <v>2.9810219999999998</v>
       </c>
       <c r="AR32" s="20">
-        <v>2.3452959999999998</v>
+        <v>2.2405089999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>104</v>
       </c>
@@ -5895,31 +5895,31 @@
         <v>1.0560620000000001</v>
       </c>
       <c r="AK33" s="19">
-        <v>0.440886</v>
+        <v>0.53746300000000002</v>
       </c>
       <c r="AL33" s="19">
-        <v>0.58397100000000002</v>
+        <v>-0.38318200000000002</v>
       </c>
       <c r="AM33" s="19">
-        <v>0.76173100000000005</v>
+        <v>-1.2614999999999999E-2</v>
       </c>
       <c r="AN33" s="19">
-        <v>0.85589300000000001</v>
+        <v>0.371475</v>
       </c>
       <c r="AO33" s="19">
-        <v>1.1965920000000001</v>
+        <v>0.71147000000000005</v>
       </c>
       <c r="AP33" s="19">
-        <v>1.4661219999999999</v>
+        <v>0.98063800000000001</v>
       </c>
       <c r="AQ33" s="19">
-        <v>1.4567829999999999</v>
+        <v>1.0684309999999999</v>
       </c>
       <c r="AR33" s="20">
-        <v>1.146995</v>
+        <v>0.62308200000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>106</v>
       </c>
@@ -6026,34 +6026,34 @@
         <v>-6.5224010000000003</v>
       </c>
       <c r="AJ34" s="33">
-        <v>-1.665853</v>
+        <v>-1.1649039999999999</v>
       </c>
       <c r="AK34" s="33">
-        <v>-30.394974999999999</v>
+        <v>-28.986004000000001</v>
       </c>
       <c r="AL34" s="33">
-        <v>-6.2402800000000003</v>
+        <v>21.833051000000001</v>
       </c>
       <c r="AM34" s="33">
-        <v>61.197546000000003</v>
+        <v>19.919288999999999</v>
       </c>
       <c r="AN34" s="33">
-        <v>3.64195</v>
+        <v>1.2839119999999999</v>
       </c>
       <c r="AO34" s="33">
-        <v>3.0219520000000002</v>
+        <v>1.6014619999999999</v>
       </c>
       <c r="AP34" s="33">
-        <v>2.7514409999999998</v>
+        <v>1.4681120000000001</v>
       </c>
       <c r="AQ34" s="33">
-        <v>2.8617089999999998</v>
+        <v>1.7876749999999999</v>
       </c>
       <c r="AR34" s="34">
-        <v>12.712761</v>
+        <v>4.9713659999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>108</v>
       </c>
@@ -6166,28 +6166,28 @@
         <v>-23.979863999999999</v>
       </c>
       <c r="AL35" s="19">
-        <v>-2.7186680000000001</v>
+        <v>0.80075600000000002</v>
       </c>
       <c r="AM35" s="19">
-        <v>5.5088030000000003</v>
+        <v>6.1546510000000003</v>
       </c>
       <c r="AN35" s="19">
-        <v>12.466944</v>
+        <v>11.849318999999999</v>
       </c>
       <c r="AO35" s="19">
-        <v>5.4914740000000002</v>
+        <v>6.8473300000000004</v>
       </c>
       <c r="AP35" s="19">
-        <v>3.374924</v>
+        <v>4.1398580000000003</v>
       </c>
       <c r="AQ35" s="19">
-        <v>2.1874400000000001</v>
+        <v>3.1453350000000002</v>
       </c>
       <c r="AR35" s="20">
-        <v>5.7471649999999999</v>
+        <v>6.3850300000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>110</v>
       </c>
@@ -6294,34 +6294,34 @@
         <v>1.6221429999999999</v>
       </c>
       <c r="AJ36" s="19">
-        <v>2.0582159999999998</v>
+        <v>2.1416080000000002</v>
       </c>
       <c r="AK36" s="19">
-        <v>2.448706</v>
+        <v>2.4752529999999999</v>
       </c>
       <c r="AL36" s="19">
-        <v>3.0354260000000002</v>
+        <v>3.0139670000000001</v>
       </c>
       <c r="AM36" s="19">
-        <v>3.3383060000000002</v>
+        <v>3.380989</v>
       </c>
       <c r="AN36" s="19">
-        <v>3.5695610000000002</v>
+        <v>3.6245949999999998</v>
       </c>
       <c r="AO36" s="19">
-        <v>3.5826889999999998</v>
+        <v>3.6378819999999998</v>
       </c>
       <c r="AP36" s="19">
-        <v>3.615116</v>
+        <v>3.6037650000000001</v>
       </c>
       <c r="AQ36" s="19">
-        <v>3.3876979999999999</v>
+        <v>3.4372500000000001</v>
       </c>
       <c r="AR36" s="20">
-        <v>3.4986120000000001</v>
+        <v>3.536842</v>
       </c>
     </row>
-    <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>112</v>
       </c>
@@ -6422,40 +6422,40 @@
         <v>-4.3906739999999997</v>
       </c>
       <c r="AH37" s="24">
-        <v>2.1735440000000001</v>
+        <v>2.172777</v>
       </c>
       <c r="AI37" s="24">
-        <v>3.0395110000000001</v>
+        <v>3.0395569999999998</v>
       </c>
       <c r="AJ37" s="24">
-        <v>2.0075980000000002</v>
+        <v>2.0083190000000002</v>
       </c>
       <c r="AK37" s="24">
-        <v>3.4055749999999998</v>
+        <v>3.404264</v>
       </c>
       <c r="AL37" s="24">
-        <v>3.289841</v>
+        <v>3.5697869999999998</v>
       </c>
       <c r="AM37" s="24">
-        <v>4.8235840000000003</v>
+        <v>4.7817939999999997</v>
       </c>
       <c r="AN37" s="24">
-        <v>5.4779730000000004</v>
+        <v>5.6207380000000002</v>
       </c>
       <c r="AO37" s="24">
-        <v>4.0949429999999998</v>
+        <v>4.2232260000000004</v>
       </c>
       <c r="AP37" s="24">
-        <v>3.81148</v>
+        <v>3.75691</v>
       </c>
       <c r="AQ37" s="24">
-        <v>3.4706730000000001</v>
+        <v>3.5714739999999998</v>
       </c>
       <c r="AR37" s="25">
-        <v>4.3332199999999998</v>
+        <v>4.388185</v>
       </c>
     </row>
-    <row r="38" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>114</v>
@@ -6527,67 +6527,67 @@
         <v>1.8999600000000001</v>
       </c>
       <c r="Y38" s="29">
-        <v>-2.3870680000000002</v>
+        <v>-2.3656670000000002</v>
       </c>
       <c r="Z38" s="29">
-        <v>2.256786</v>
+        <v>2.2453949999999998</v>
       </c>
       <c r="AA38" s="29">
-        <v>3.5746859999999998</v>
+        <v>3.5770420000000001</v>
       </c>
       <c r="AB38" s="29">
-        <v>3.554624</v>
+        <v>3.5576490000000001</v>
       </c>
       <c r="AC38" s="29">
-        <v>2.1979289999999998</v>
+        <v>2.204885</v>
       </c>
       <c r="AD38" s="29">
-        <v>2.6431450000000001</v>
+        <v>2.6469640000000001</v>
       </c>
       <c r="AE38" s="29">
-        <v>1.8402369999999999</v>
+        <v>1.838838</v>
       </c>
       <c r="AF38" s="29">
         <v>2.3739560000000002</v>
       </c>
       <c r="AG38" s="29">
-        <v>-2.0911590000000002</v>
+        <v>-2.0911659999999999</v>
       </c>
       <c r="AH38" s="29">
-        <v>2.634255</v>
+        <v>2.634188</v>
       </c>
       <c r="AI38" s="29">
-        <v>1.79752</v>
+        <v>1.797382</v>
       </c>
       <c r="AJ38" s="29">
-        <v>0.71877400000000002</v>
+        <v>0.776729</v>
       </c>
       <c r="AK38" s="29">
-        <v>1.2695190000000001</v>
+        <v>1.3369249999999999</v>
       </c>
       <c r="AL38" s="29">
-        <v>2.646652</v>
+        <v>3.2907459999999999</v>
       </c>
       <c r="AM38" s="29">
-        <v>4.269482</v>
+        <v>3.8980939999999999</v>
       </c>
       <c r="AN38" s="29">
-        <v>4.5980699999999999</v>
+        <v>4.5921120000000002</v>
       </c>
       <c r="AO38" s="29">
-        <v>4.0541359999999997</v>
+        <v>4.1832260000000003</v>
       </c>
       <c r="AP38" s="29">
-        <v>3.8336079999999999</v>
+        <v>3.876268</v>
       </c>
       <c r="AQ38" s="29">
-        <v>3.6325129999999999</v>
+        <v>3.7012610000000001</v>
       </c>
       <c r="AR38" s="30">
-        <v>4.0770179999999998</v>
+        <v>4.0497249999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>115</v>
       </c>
@@ -6631,97 +6631,97 @@
         <v>1.595178</v>
       </c>
       <c r="O39" s="45">
-        <v>4.0010969999999997</v>
+        <v>4.0070499999999996</v>
       </c>
       <c r="P39" s="45">
-        <v>5.0967789999999997</v>
+        <v>5.0933320000000002</v>
       </c>
       <c r="Q39" s="45">
-        <v>3.080978</v>
+        <v>3.0508609999999998</v>
       </c>
       <c r="R39" s="45">
-        <v>3.8303189999999998</v>
+        <v>3.8689019999999998</v>
       </c>
       <c r="S39" s="45">
-        <v>1.296017</v>
+        <v>1.3261890000000001</v>
       </c>
       <c r="T39" s="45">
-        <v>1.4283300000000001</v>
+        <v>1.3934679999999999</v>
       </c>
       <c r="U39" s="45">
-        <v>0.60571900000000001</v>
+        <v>0.652528</v>
       </c>
       <c r="V39" s="45">
-        <v>-0.76363199999999998</v>
+        <v>-0.72042099999999998</v>
       </c>
       <c r="W39" s="45">
-        <v>2.794165</v>
+        <v>2.7792189999999999</v>
       </c>
       <c r="X39" s="45">
-        <v>0.99680400000000002</v>
+        <v>1.003992</v>
       </c>
       <c r="Y39" s="45">
-        <v>0.41148000000000001</v>
+        <v>0.37956299999999998</v>
       </c>
       <c r="Z39" s="45">
-        <v>0.54569400000000001</v>
+        <v>0.54874400000000001</v>
       </c>
       <c r="AA39" s="45">
-        <v>1.9865950000000001</v>
+        <v>2.0000550000000001</v>
       </c>
       <c r="AB39" s="45">
-        <v>1.0621620000000001</v>
+        <v>1.099618</v>
       </c>
       <c r="AC39" s="45">
-        <v>1.769803</v>
+        <v>1.785941</v>
       </c>
       <c r="AD39" s="45">
-        <v>-0.51840900000000001</v>
+        <v>-0.54166700000000001</v>
       </c>
       <c r="AE39" s="45">
-        <v>-0.50696799999999997</v>
+        <v>-0.54601999999999995</v>
       </c>
       <c r="AF39" s="45">
-        <v>-0.90794200000000003</v>
+        <v>-0.93999299999999997</v>
       </c>
       <c r="AG39" s="45">
-        <v>-6.6296369999999998</v>
+        <v>-6.6124749999999999</v>
       </c>
       <c r="AH39" s="45">
-        <v>2.1375989999999998</v>
+        <v>2.1326360000000002</v>
       </c>
       <c r="AI39" s="45">
-        <v>2.0032019999999999</v>
+        <v>1.9682519999999999</v>
       </c>
       <c r="AJ39" s="45">
         <v>2.5512030000000001</v>
       </c>
       <c r="AK39" s="45">
-        <v>2.097877</v>
+        <v>2.2599649999999998</v>
       </c>
       <c r="AL39" s="45">
-        <v>2.1414140000000002</v>
+        <v>2.0039340000000001</v>
       </c>
       <c r="AM39" s="45">
-        <v>1.7321949999999999</v>
+        <v>1.5905899999999999</v>
       </c>
       <c r="AN39" s="45">
-        <v>1.6073569999999999</v>
+        <v>1.554584</v>
       </c>
       <c r="AO39" s="45">
-        <v>1.6601300000000001</v>
+        <v>1.6049420000000001</v>
       </c>
       <c r="AP39" s="45">
-        <v>1.3322529999999999</v>
+        <v>1.4214709999999999</v>
       </c>
       <c r="AQ39" s="45">
-        <v>1.3828069999999999</v>
+        <v>1.4645680000000001</v>
       </c>
       <c r="AR39" s="46">
-        <v>1.5428269999999999</v>
+        <v>1.5272060000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>117</v>
       </c>
@@ -6834,28 +6834,28 @@
         <v>0.63927400000000001</v>
       </c>
       <c r="AL40" s="19">
-        <v>2.1546400000000001</v>
+        <v>2.660088</v>
       </c>
       <c r="AM40" s="19">
-        <v>2.7815460000000001</v>
+        <v>2.9800119999999999</v>
       </c>
       <c r="AN40" s="19">
-        <v>3.2900109999999998</v>
+        <v>3.168215</v>
       </c>
       <c r="AO40" s="19">
-        <v>3.5817540000000001</v>
+        <v>3.4333100000000001</v>
       </c>
       <c r="AP40" s="19">
-        <v>3.7850959999999998</v>
+        <v>3.6267209999999999</v>
       </c>
       <c r="AQ40" s="19">
-        <v>4.0163289999999998</v>
+        <v>3.832497</v>
       </c>
       <c r="AR40" s="20">
-        <v>3.490062</v>
+        <v>3.4076970000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>119</v>
       </c>
@@ -6965,31 +6965,31 @@
         <v>8.9216650000000008</v>
       </c>
       <c r="AK41" s="33">
-        <v>-1.650199</v>
+        <v>0.87980800000000003</v>
       </c>
       <c r="AL41" s="33">
-        <v>16.084327999999999</v>
+        <v>14.360289</v>
       </c>
       <c r="AM41" s="33">
-        <v>3.1601050000000002</v>
+        <v>3.1064099999999999</v>
       </c>
       <c r="AN41" s="33">
-        <v>0.62346400000000002</v>
+        <v>1.1109579999999999</v>
       </c>
       <c r="AO41" s="33">
-        <v>0.679288</v>
+        <v>0.57150000000000001</v>
       </c>
       <c r="AP41" s="33">
-        <v>0.89695499999999995</v>
+        <v>0.81642499999999996</v>
       </c>
       <c r="AQ41" s="33">
-        <v>1.1466810000000001</v>
+        <v>1.124714</v>
       </c>
       <c r="AR41" s="34">
-        <v>1.296905</v>
+        <v>1.3420030000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>121</v>
       </c>
@@ -7096,34 +7096,34 @@
         <v>3.712656</v>
       </c>
       <c r="AJ42" s="33">
-        <v>3.3942549999999998</v>
+        <v>3.6874910000000001</v>
       </c>
       <c r="AK42" s="33">
-        <v>1.593666</v>
+        <v>3.285542</v>
       </c>
       <c r="AL42" s="33">
-        <v>1.5828310000000001</v>
+        <v>1.103558</v>
       </c>
       <c r="AM42" s="33">
-        <v>0.93686199999999997</v>
+        <v>1.4785219999999999</v>
       </c>
       <c r="AN42" s="33">
-        <v>2.3624429999999998</v>
+        <v>1.645065</v>
       </c>
       <c r="AO42" s="33">
-        <v>3.7036570000000002</v>
+        <v>2.9084089999999998</v>
       </c>
       <c r="AP42" s="33">
-        <v>1.944067</v>
+        <v>1.9667490000000001</v>
       </c>
       <c r="AQ42" s="33">
-        <v>-1.601378</v>
+        <v>0.382465</v>
       </c>
       <c r="AR42" s="34">
-        <v>1.4535149999999999</v>
+        <v>1.6729780000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>123</v>
       </c>
@@ -7227,37 +7227,37 @@
         <v>7.0712169999999999</v>
       </c>
       <c r="AI43" s="19">
-        <v>0.50831099999999996</v>
+        <v>0.79093400000000003</v>
       </c>
       <c r="AJ43" s="19">
-        <v>2.3519899999999998</v>
+        <v>2.601728</v>
       </c>
       <c r="AK43" s="19">
-        <v>2.1874410000000002</v>
+        <v>2.7885300000000002</v>
       </c>
       <c r="AL43" s="19">
-        <v>2.9602279999999999</v>
+        <v>3.4439679999999999</v>
       </c>
       <c r="AM43" s="19">
-        <v>2.8585379999999998</v>
+        <v>3.3101970000000001</v>
       </c>
       <c r="AN43" s="19">
-        <v>2.754893</v>
+        <v>3.1588090000000002</v>
       </c>
       <c r="AO43" s="19">
-        <v>2.7969650000000001</v>
+        <v>3.1973769999999999</v>
       </c>
       <c r="AP43" s="19">
-        <v>2.812182</v>
+        <v>3.1413980000000001</v>
       </c>
       <c r="AQ43" s="19">
-        <v>2.8418950000000001</v>
+        <v>3.0733429999999999</v>
       </c>
       <c r="AR43" s="20">
-        <v>2.8128880000000001</v>
+        <v>3.1761949999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>125</v>
       </c>
@@ -7364,166 +7364,166 @@
         <v>2.0748850000000001</v>
       </c>
       <c r="AJ44" s="37">
-        <v>-0.62580999999999998</v>
+        <v>-0.47428100000000001</v>
       </c>
       <c r="AK44" s="37">
-        <v>0.72361399999999998</v>
+        <v>1.0028349999999999</v>
       </c>
       <c r="AL44" s="37">
-        <v>0.84251100000000001</v>
+        <v>1.8710800000000001</v>
       </c>
       <c r="AM44" s="37">
-        <v>0.87336599999999998</v>
+        <v>1.5344770000000001</v>
       </c>
       <c r="AN44" s="37">
-        <v>0.93494999999999995</v>
+        <v>1.1073040000000001</v>
       </c>
       <c r="AO44" s="37">
-        <v>0.81359300000000001</v>
+        <v>0.91634899999999997</v>
       </c>
       <c r="AP44" s="37">
-        <v>0.84320300000000004</v>
+        <v>0.96901700000000002</v>
       </c>
       <c r="AQ44" s="37">
-        <v>0.87438700000000003</v>
+        <v>0.99798600000000004</v>
       </c>
       <c r="AR44" s="38">
-        <v>0.867892</v>
+        <v>1.1047800000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="28">
-        <v>-3.1362000000000001E-2</v>
+        <v>-3.0863000000000002E-2</v>
       </c>
       <c r="D45" s="29">
-        <v>1.8247629999999999</v>
+        <v>1.8262620000000001</v>
       </c>
       <c r="E45" s="29">
-        <v>-2.1605620000000001</v>
+        <v>-2.160987</v>
       </c>
       <c r="F45" s="29">
-        <v>-2.16248</v>
+        <v>-2.1619109999999999</v>
       </c>
       <c r="G45" s="29">
-        <v>1.4677960000000001</v>
+        <v>1.468953</v>
       </c>
       <c r="H45" s="29">
-        <v>-1.1508750000000001</v>
+        <v>-1.1516999999999999</v>
       </c>
       <c r="I45" s="29">
-        <v>3.4955690000000001</v>
+        <v>3.4960119999999999</v>
       </c>
       <c r="J45" s="29">
-        <v>0.83342700000000003</v>
+        <v>0.83385200000000004</v>
       </c>
       <c r="K45" s="29">
-        <v>4.0265300000000002</v>
+        <v>4.0267559999999998</v>
       </c>
       <c r="L45" s="29">
-        <v>2.21583</v>
+        <v>2.2160609999999998</v>
       </c>
       <c r="M45" s="29">
-        <v>2.4177580000000001</v>
+        <v>2.4178769999999998</v>
       </c>
       <c r="N45" s="29">
-        <v>1.9642029999999999</v>
+        <v>1.964399</v>
       </c>
       <c r="O45" s="29">
-        <v>1.297059</v>
+        <v>1.2980229999999999</v>
       </c>
       <c r="P45" s="29">
-        <v>3.9692449999999999</v>
+        <v>3.968156</v>
       </c>
       <c r="Q45" s="29">
-        <v>2.8178109999999998</v>
+        <v>2.8099799999999999</v>
       </c>
       <c r="R45" s="29">
-        <v>3.3211560000000002</v>
+        <v>3.331194</v>
       </c>
       <c r="S45" s="29">
-        <v>3.5571100000000002</v>
+        <v>3.5652219999999999</v>
       </c>
       <c r="T45" s="29">
-        <v>3.606293</v>
+        <v>3.5980819999999998</v>
       </c>
       <c r="U45" s="29">
-        <v>3.1393179999999998</v>
+        <v>3.1511100000000001</v>
       </c>
       <c r="V45" s="29">
-        <v>1.061512</v>
+        <v>1.071987</v>
       </c>
       <c r="W45" s="29">
-        <v>2.9070260000000001</v>
+        <v>2.9034080000000002</v>
       </c>
       <c r="X45" s="29">
-        <v>-1.6450130000000001</v>
+        <v>-1.643283</v>
       </c>
       <c r="Y45" s="29">
-        <v>6.9318850000000003</v>
+        <v>6.9247560000000004</v>
       </c>
       <c r="Z45" s="29">
-        <v>-7.7477000000000004E-2</v>
+        <v>-7.6789999999999997E-2</v>
       </c>
       <c r="AA45" s="29">
-        <v>1.7025999999999999E-2</v>
+        <v>2.0289999999999999E-2</v>
       </c>
       <c r="AB45" s="29">
-        <v>1.710742</v>
+        <v>1.72021</v>
       </c>
       <c r="AC45" s="29">
-        <v>1.3895789999999999</v>
+        <v>1.3937250000000001</v>
       </c>
       <c r="AD45" s="29">
-        <v>3.1654279999999999</v>
+        <v>3.1596860000000002</v>
       </c>
       <c r="AE45" s="29">
-        <v>2.3390719999999998</v>
+        <v>2.329799</v>
       </c>
       <c r="AF45" s="29">
-        <v>1.5656509999999999</v>
+        <v>1.5582780000000001</v>
       </c>
       <c r="AG45" s="29">
-        <v>-2.3837989999999998</v>
+        <v>-2.380315</v>
       </c>
       <c r="AH45" s="29">
-        <v>3.255611</v>
+        <v>3.254524</v>
       </c>
       <c r="AI45" s="29">
-        <v>3.4097420000000001</v>
+        <v>3.431095</v>
       </c>
       <c r="AJ45" s="29">
-        <v>2.2914940000000001</v>
+        <v>2.3273579999999998</v>
       </c>
       <c r="AK45" s="29">
-        <v>1.114657</v>
+        <v>1.3133950000000001</v>
       </c>
       <c r="AL45" s="29">
-        <v>2.63117</v>
+        <v>2.9419029999999999</v>
       </c>
       <c r="AM45" s="29">
-        <v>2.4993370000000001</v>
+        <v>2.668377</v>
       </c>
       <c r="AN45" s="29">
-        <v>2.7140040000000001</v>
+        <v>2.6869299999999998</v>
       </c>
       <c r="AO45" s="29">
-        <v>2.9299330000000001</v>
+        <v>2.8619780000000001</v>
       </c>
       <c r="AP45" s="29">
-        <v>2.9934050000000001</v>
+        <v>2.9498519999999999</v>
       </c>
       <c r="AQ45" s="29">
-        <v>3.1410369999999999</v>
+        <v>3.0874440000000001</v>
       </c>
       <c r="AR45" s="30">
-        <v>2.8552970000000002</v>
+        <v>2.8507940000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>128</v>
       </c>
@@ -7612,16 +7612,16 @@
         <v>0.36116599999999999</v>
       </c>
       <c r="AD46" s="41">
-        <v>2.670417</v>
+        <v>2.6256699999999999</v>
       </c>
       <c r="AE46" s="41">
-        <v>3.7370070000000002</v>
+        <v>3.622058</v>
       </c>
       <c r="AF46" s="41">
-        <v>3.9821219999999999</v>
+        <v>4.2006769999999998</v>
       </c>
       <c r="AG46" s="41">
-        <v>1.1202030000000001</v>
+        <v>1.064095</v>
       </c>
       <c r="AH46" s="41">
         <v>4.413354</v>
@@ -7633,31 +7633,31 @@
         <v>3.7033610000000001</v>
       </c>
       <c r="AK46" s="41">
-        <v>3.9165130000000001</v>
+        <v>4.8396990000000004</v>
       </c>
       <c r="AL46" s="41">
-        <v>3.981932</v>
+        <v>4.4991599999999998</v>
       </c>
       <c r="AM46" s="41">
-        <v>3.6945869999999998</v>
+        <v>4.2180879999999998</v>
       </c>
       <c r="AN46" s="41">
-        <v>3.7255539999999998</v>
+        <v>4.1292980000000004</v>
       </c>
       <c r="AO46" s="41">
-        <v>3.5952989999999998</v>
+        <v>4.0697760000000001</v>
       </c>
       <c r="AP46" s="41">
-        <v>3.6211199999999999</v>
+        <v>3.629165</v>
       </c>
       <c r="AQ46" s="41">
-        <v>3.6377510000000002</v>
+        <v>3.6454119999999999</v>
       </c>
       <c r="AR46" s="42">
-        <v>3.6548509999999998</v>
+        <v>3.9380459999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>130</v>
       </c>
@@ -7761,37 +7761,37 @@
         <v>4.4310049999999999</v>
       </c>
       <c r="AI47" s="19">
-        <v>-0.81955299999999998</v>
+        <v>-0.69301500000000005</v>
       </c>
       <c r="AJ47" s="19">
-        <v>0.64957799999999999</v>
+        <v>0.68877100000000002</v>
       </c>
       <c r="AK47" s="19">
-        <v>2.1300539999999999</v>
+        <v>2.4703279999999999</v>
       </c>
       <c r="AL47" s="19">
-        <v>2.0559980000000002</v>
+        <v>1.7171380000000001</v>
       </c>
       <c r="AM47" s="19">
-        <v>2.2888039999999998</v>
+        <v>2.5166729999999999</v>
       </c>
       <c r="AN47" s="19">
-        <v>2.542665</v>
+        <v>2.4960900000000001</v>
       </c>
       <c r="AO47" s="19">
-        <v>2.7305090000000001</v>
+        <v>2.525509</v>
       </c>
       <c r="AP47" s="19">
-        <v>2.764856</v>
+        <v>2.5879669999999999</v>
       </c>
       <c r="AQ47" s="19">
-        <v>2.9250620000000001</v>
+        <v>2.6436069999999998</v>
       </c>
       <c r="AR47" s="20">
-        <v>2.6501480000000002</v>
+        <v>2.5539550000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>132</v>
       </c>
@@ -7883,10 +7883,10 @@
         <v>4.4822110000000004</v>
       </c>
       <c r="AE48" s="33">
-        <v>3.5994679999999999</v>
+        <v>3.6015229999999998</v>
       </c>
       <c r="AF48" s="33">
-        <v>6.8066139999999997</v>
+        <v>6.8044950000000002</v>
       </c>
       <c r="AG48" s="33">
         <v>-20.893906000000001</v>
@@ -7895,37 +7895,37 @@
         <v>6.6256149999999998</v>
       </c>
       <c r="AI48" s="33">
-        <v>16.740133</v>
+        <v>15.154508</v>
       </c>
       <c r="AJ48" s="33">
-        <v>3.5271110000000001</v>
+        <v>4.2753319999999997</v>
       </c>
       <c r="AK48" s="33">
-        <v>5.4780509999999998</v>
+        <v>6.7234769999999999</v>
       </c>
       <c r="AL48" s="33">
-        <v>4.4850289999999999</v>
+        <v>4.6972659999999999</v>
       </c>
       <c r="AM48" s="33">
-        <v>4.4580299999999999</v>
+        <v>4.3800980000000003</v>
       </c>
       <c r="AN48" s="33">
-        <v>4.4373500000000003</v>
+        <v>4.4075959999999998</v>
       </c>
       <c r="AO48" s="33">
-        <v>4.3209410000000004</v>
+        <v>4.2706910000000002</v>
       </c>
       <c r="AP48" s="33">
-        <v>4.3541319999999999</v>
+        <v>4.2695679999999996</v>
       </c>
       <c r="AQ48" s="33">
-        <v>4.0724869999999997</v>
+        <v>4.0214100000000004</v>
       </c>
       <c r="AR48" s="34">
-        <v>4.3284969999999996</v>
+        <v>4.2697830000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>134</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>3.4488490000000001</v>
       </c>
       <c r="AL49" s="19">
-        <v>3.7740170000000002</v>
+        <v>3.8716409999999999</v>
       </c>
       <c r="AM49" s="19">
         <v>3.9133170000000002</v>
@@ -8059,7 +8059,7 @@
         <v>4.2341530000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>136</v>
       </c>
@@ -8166,34 +8166,34 @@
         <v>3.073814</v>
       </c>
       <c r="AJ50" s="19">
-        <v>2.4133650000000002</v>
+        <v>2.6486200000000002</v>
       </c>
       <c r="AK50" s="19">
-        <v>3.4336090000000001</v>
+        <v>2.9619909999999998</v>
       </c>
       <c r="AL50" s="19">
-        <v>3.5821019999999999</v>
+        <v>3.6793390000000001</v>
       </c>
       <c r="AM50" s="19">
-        <v>2.7709199999999998</v>
+        <v>2.836884</v>
       </c>
       <c r="AN50" s="19">
-        <v>2.7942070000000001</v>
+        <v>2.812608</v>
       </c>
       <c r="AO50" s="19">
-        <v>2.8486189999999998</v>
+        <v>2.8820800000000002</v>
       </c>
       <c r="AP50" s="19">
-        <v>2.8983439999999998</v>
+        <v>2.9318219999999999</v>
       </c>
       <c r="AQ50" s="19">
-        <v>2.9513509999999998</v>
+        <v>2.984845</v>
       </c>
       <c r="AR50" s="20">
-        <v>2.8526669999999998</v>
+        <v>2.8896289999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>138</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>3.15246</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>140</v>
       </c>
@@ -8440,28 +8440,28 @@
         <v>3.561938</v>
       </c>
       <c r="AL52" s="19">
-        <v>4.6397449999999996</v>
+        <v>4.7576109999999998</v>
       </c>
       <c r="AM52" s="19">
-        <v>8.1569509999999994</v>
+        <v>8.0307340000000007</v>
       </c>
       <c r="AN52" s="19">
-        <v>8.3040939999999992</v>
+        <v>8.3161439999999995</v>
       </c>
       <c r="AO52" s="19">
-        <v>7.1557890000000004</v>
+        <v>8.4587970000000006</v>
       </c>
       <c r="AP52" s="19">
-        <v>8.8104460000000007</v>
+        <v>8.9816699999999994</v>
       </c>
       <c r="AQ52" s="19">
-        <v>5.5293599999999996</v>
+        <v>5.58446</v>
       </c>
       <c r="AR52" s="20">
-        <v>7.5850109999999997</v>
+        <v>7.8677830000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>142</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>2.8642729999999998</v>
       </c>
       <c r="AK53" s="19">
-        <v>2.4164210000000002</v>
+        <v>2.51424</v>
       </c>
       <c r="AL53" s="19">
         <v>2.8497680000000001</v>
@@ -8589,13 +8589,13 @@
         <v>2.4733290000000001</v>
       </c>
       <c r="AQ53" s="19">
-        <v>2.5118860000000001</v>
+        <v>2.2214480000000001</v>
       </c>
       <c r="AR53" s="20">
-        <v>2.6031270000000002</v>
+        <v>2.5449220000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>144</v>
       </c>
@@ -8705,31 +8705,31 @@
         <v>2.3070870000000001</v>
       </c>
       <c r="AK54" s="19">
-        <v>2.5817049999999999</v>
+        <v>1.7941339999999999</v>
       </c>
       <c r="AL54" s="19">
-        <v>3.1586029999999998</v>
+        <v>2.4088479999999999</v>
       </c>
       <c r="AM54" s="19">
-        <v>3.3158379999999998</v>
+        <v>3.2301030000000002</v>
       </c>
       <c r="AN54" s="19">
-        <v>3.4419469999999999</v>
+        <v>3.2745660000000001</v>
       </c>
       <c r="AO54" s="19">
-        <v>3.5256780000000001</v>
+        <v>3.581966</v>
       </c>
       <c r="AP54" s="19">
-        <v>3.616933</v>
+        <v>3.3616239999999999</v>
       </c>
       <c r="AQ54" s="19">
-        <v>3.5413510000000001</v>
+        <v>3.5336910000000001</v>
       </c>
       <c r="AR54" s="20">
-        <v>3.488299</v>
+        <v>3.396296</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>146</v>
       </c>
@@ -8839,16 +8839,16 @@
         <v>1.5901050000000001</v>
       </c>
       <c r="AK55" s="19">
-        <v>1.3741540000000001</v>
+        <v>1.665459</v>
       </c>
       <c r="AL55" s="19">
-        <v>1.9017759999999999</v>
+        <v>1.998918</v>
       </c>
       <c r="AM55" s="19">
-        <v>2.1274099999999998</v>
+        <v>2.4189250000000002</v>
       </c>
       <c r="AN55" s="19">
-        <v>2.15768</v>
+        <v>2.25488</v>
       </c>
       <c r="AO55" s="19">
         <v>2.1836159999999998</v>
@@ -8860,10 +8860,10 @@
         <v>2.2468059999999999</v>
       </c>
       <c r="AR55" s="20">
-        <v>2.1858070000000001</v>
+        <v>2.2635260000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>148</v>
       </c>
@@ -8970,34 +8970,34 @@
         <v>8.2828379999999999</v>
       </c>
       <c r="AJ56" s="19">
-        <v>-0.943554</v>
+        <v>-0.94329200000000002</v>
       </c>
       <c r="AK56" s="19">
-        <v>6.7402319999999998</v>
+        <v>6.7397660000000004</v>
       </c>
       <c r="AL56" s="19">
-        <v>3.2068660000000002</v>
+        <v>3.2668400000000002</v>
       </c>
       <c r="AM56" s="19">
-        <v>3.3782920000000001</v>
+        <v>3.4053529999999999</v>
       </c>
       <c r="AN56" s="19">
-        <v>3.171367</v>
+        <v>3.2908050000000002</v>
       </c>
       <c r="AO56" s="19">
-        <v>2.8253010000000001</v>
+        <v>2.8187720000000001</v>
       </c>
       <c r="AP56" s="19">
-        <v>2.878574</v>
+        <v>2.873386</v>
       </c>
       <c r="AQ56" s="19">
-        <v>2.944356</v>
+        <v>2.9481290000000002</v>
       </c>
       <c r="AR56" s="20">
-        <v>3.0393720000000002</v>
+        <v>3.0670199999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>150</v>
       </c>
@@ -9095,43 +9095,43 @@
         <v>-1.0004000000000001E-2</v>
       </c>
       <c r="AG57" s="19">
-        <v>-3.8642020000000001</v>
+        <v>-8.3424230000000001</v>
       </c>
       <c r="AH57" s="19">
-        <v>1.497161</v>
+        <v>-0.98812699999999998</v>
       </c>
       <c r="AI57" s="19">
-        <v>1.113267</v>
+        <v>2.1583139999999998</v>
       </c>
       <c r="AJ57" s="19">
-        <v>0.72429399999999999</v>
+        <v>1.1812370000000001</v>
       </c>
       <c r="AK57" s="19">
-        <v>1.294373</v>
+        <v>1.9175249999999999</v>
       </c>
       <c r="AL57" s="19">
-        <v>0.93545699999999998</v>
+        <v>1.8098559999999999</v>
       </c>
       <c r="AM57" s="19">
-        <v>0.64672799999999997</v>
+        <v>2.131297</v>
       </c>
       <c r="AN57" s="19">
-        <v>0.91009200000000001</v>
+        <v>1.9107339999999999</v>
       </c>
       <c r="AO57" s="19">
-        <v>1.2221249999999999</v>
+        <v>1.9046510000000001</v>
       </c>
       <c r="AP57" s="19">
-        <v>1.447408</v>
+        <v>1.951913</v>
       </c>
       <c r="AQ57" s="19">
-        <v>1.484472</v>
+        <v>1.995841</v>
       </c>
       <c r="AR57" s="20">
-        <v>1.1416539999999999</v>
+        <v>1.978853</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>152</v>
       </c>
@@ -9241,31 +9241,31 @@
         <v>1.839448</v>
       </c>
       <c r="AK58" s="19">
-        <v>4.2316570000000002</v>
+        <v>3.96218</v>
       </c>
       <c r="AL58" s="19">
-        <v>5.9816140000000004</v>
+        <v>3.5485159999999998</v>
       </c>
       <c r="AM58" s="19">
-        <v>1.753233</v>
+        <v>0.67901599999999995</v>
       </c>
       <c r="AN58" s="19">
-        <v>2.4950199999999998</v>
+        <v>0.97395699999999996</v>
       </c>
       <c r="AO58" s="19">
-        <v>2.799566</v>
+        <v>1.4870540000000001</v>
       </c>
       <c r="AP58" s="19">
-        <v>2.3129490000000001</v>
+        <v>1.7938240000000001</v>
       </c>
       <c r="AQ58" s="19">
-        <v>3.2162250000000001</v>
+        <v>2.3556840000000001</v>
       </c>
       <c r="AR58" s="20">
-        <v>2.5142329999999999</v>
+        <v>1.4561729999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>154</v>
       </c>
@@ -9375,31 +9375,31 @@
         <v>3.414704</v>
       </c>
       <c r="AK59" s="19">
-        <v>1.5034590000000001</v>
+        <v>2.2320090000000001</v>
       </c>
       <c r="AL59" s="19">
-        <v>2.5494279999999998</v>
+        <v>2.2842730000000002</v>
       </c>
       <c r="AM59" s="19">
-        <v>2.7890130000000002</v>
+        <v>2.8100830000000001</v>
       </c>
       <c r="AN59" s="19">
-        <v>2.7070850000000002</v>
+        <v>2.6949529999999999</v>
       </c>
       <c r="AO59" s="19">
-        <v>2.604552</v>
+        <v>2.598427</v>
       </c>
       <c r="AP59" s="19">
-        <v>2.7112210000000001</v>
+        <v>2.6849699999999999</v>
       </c>
       <c r="AQ59" s="19">
-        <v>2.7336510000000001</v>
+        <v>2.7075279999999999</v>
       </c>
       <c r="AR59" s="20">
-        <v>2.7090869999999998</v>
+        <v>2.6991700000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>156</v>
       </c>
@@ -9497,10 +9497,10 @@
         <v>2.390101</v>
       </c>
       <c r="AG60" s="24">
-        <v>-0.45483099999999999</v>
+        <v>-0.44266</v>
       </c>
       <c r="AH60" s="24">
-        <v>3.5003820000000001</v>
+        <v>3.4877289999999999</v>
       </c>
       <c r="AI60" s="24">
         <v>3.3502679999999998</v>
@@ -9512,7 +9512,7 @@
         <v>2.9661050000000002</v>
       </c>
       <c r="AL60" s="24">
-        <v>3.064673</v>
+        <v>2.966796</v>
       </c>
       <c r="AM60" s="24">
         <v>3.2764190000000002</v>
@@ -9533,1063 +9533,1063 @@
         <v>3.3169719999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>158</v>
       </c>
       <c r="C61" s="28">
-        <v>-0.58585900000000002</v>
+        <v>-0.58355999999999997</v>
       </c>
       <c r="D61" s="29">
-        <v>-1.98386</v>
+        <v>-2.1953490000000002</v>
       </c>
       <c r="E61" s="29">
-        <v>-1.087839</v>
+        <v>-0.97507999999999995</v>
       </c>
       <c r="F61" s="29">
-        <v>-1.0212840000000001</v>
+        <v>-1.0384260000000001</v>
       </c>
       <c r="G61" s="29">
-        <v>-1.5285569999999999</v>
+        <v>-1.6868350000000001</v>
       </c>
       <c r="H61" s="29">
-        <v>0.39697300000000002</v>
+        <v>0.168021</v>
       </c>
       <c r="I61" s="29">
-        <v>1.4444520000000001</v>
+        <v>1.4185700000000001</v>
       </c>
       <c r="J61" s="29">
-        <v>0.788497</v>
+        <v>0.66478099999999996</v>
       </c>
       <c r="K61" s="29">
-        <v>0.57511000000000001</v>
+        <v>0.41208600000000001</v>
       </c>
       <c r="L61" s="29">
-        <v>-0.82287399999999999</v>
+        <v>-1.0732969999999999</v>
       </c>
       <c r="M61" s="29">
-        <v>0.995224</v>
+        <v>1.3178460000000001</v>
       </c>
       <c r="N61" s="29">
-        <v>2.853631</v>
+        <v>3.021871</v>
       </c>
       <c r="O61" s="29">
-        <v>6.9550599999999996</v>
+        <v>7.8355550000000003</v>
       </c>
       <c r="P61" s="29">
-        <v>4.2146999999999997</v>
+        <v>4.6728880000000004</v>
       </c>
       <c r="Q61" s="29">
-        <v>4.8699219999999999</v>
+        <v>5.392131</v>
       </c>
       <c r="R61" s="29">
-        <v>3.110776</v>
+        <v>3.305752</v>
       </c>
       <c r="S61" s="29">
-        <v>2.8158050000000001</v>
+        <v>3.016168</v>
       </c>
       <c r="T61" s="29">
-        <v>3.151697</v>
+        <v>3.4049040000000002</v>
       </c>
       <c r="U61" s="29">
-        <v>3.649613</v>
+        <v>3.7751860000000002</v>
       </c>
       <c r="V61" s="29">
-        <v>3.8135400000000002</v>
+        <v>4.1480189999999997</v>
       </c>
       <c r="W61" s="29">
-        <v>6.3686970000000001</v>
+        <v>6.7675130000000001</v>
       </c>
       <c r="X61" s="29">
-        <v>2.0744530000000001</v>
+        <v>2.0580020000000001</v>
       </c>
       <c r="Y61" s="29">
-        <v>2.3328410000000002</v>
+        <v>2.1406770000000002</v>
       </c>
       <c r="Z61" s="29">
-        <v>2.9101560000000002</v>
+        <v>2.838333</v>
       </c>
       <c r="AA61" s="29">
-        <v>3.0828440000000001</v>
+        <v>3.1649370000000001</v>
       </c>
       <c r="AB61" s="29">
-        <v>0.53493100000000005</v>
+        <v>0.40696199999999999</v>
       </c>
       <c r="AC61" s="29">
-        <v>-1.7955570000000001</v>
+        <v>-2.2972350000000001</v>
       </c>
       <c r="AD61" s="29">
-        <v>0.39115299999999997</v>
+        <v>-5.7568000000000001E-2</v>
       </c>
       <c r="AE61" s="29">
-        <v>0.76508299999999996</v>
+        <v>0.48748399999999997</v>
       </c>
       <c r="AF61" s="29">
-        <v>1.1706749999999999</v>
+        <v>0.89630699999999996</v>
       </c>
       <c r="AG61" s="29">
-        <v>-2.9927079999999999</v>
+        <v>-6.2951170000000003</v>
       </c>
       <c r="AH61" s="29">
-        <v>2.0801259999999999</v>
+        <v>0.24415200000000001</v>
       </c>
       <c r="AI61" s="29">
-        <v>1.614697</v>
+        <v>2.1876359999999999</v>
       </c>
       <c r="AJ61" s="29">
-        <v>1.250272</v>
+        <v>1.4231339999999999</v>
       </c>
       <c r="AK61" s="29">
-        <v>2.1175709999999999</v>
+        <v>2.370304</v>
       </c>
       <c r="AL61" s="29">
-        <v>1.8349169999999999</v>
+        <v>2.1429429999999998</v>
       </c>
       <c r="AM61" s="29">
-        <v>1.7407300000000001</v>
+        <v>2.4612630000000002</v>
       </c>
       <c r="AN61" s="29">
-        <v>1.9920469999999999</v>
+        <v>2.364328</v>
       </c>
       <c r="AO61" s="29">
-        <v>2.1827869999999998</v>
+        <v>2.4020839999999999</v>
       </c>
       <c r="AP61" s="29">
-        <v>2.4279280000000001</v>
+        <v>2.5090499999999998</v>
       </c>
       <c r="AQ61" s="29">
-        <v>2.3782489999999998</v>
+        <v>2.4609869999999998</v>
       </c>
       <c r="AR61" s="30">
-        <v>2.1440320000000002</v>
+        <v>2.43953</v>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>159</v>
       </c>
       <c r="C62" s="50">
-        <v>-1.2222759999999999</v>
+        <v>-1.222297</v>
       </c>
       <c r="D62" s="51">
-        <v>-0.693214</v>
+        <v>-0.80510800000000005</v>
       </c>
       <c r="E62" s="51">
-        <v>-2.476626</v>
+        <v>-2.3825180000000001</v>
       </c>
       <c r="F62" s="51">
-        <v>-1.6549739999999999</v>
+        <v>-1.6272390000000001</v>
       </c>
       <c r="G62" s="51">
-        <v>1.4116E-2</v>
+        <v>-8.8355000000000003E-2</v>
       </c>
       <c r="H62" s="51">
-        <v>0.27169300000000002</v>
+        <v>0.229404</v>
       </c>
       <c r="I62" s="51">
-        <v>2.426536</v>
+        <v>2.3817719999999998</v>
       </c>
       <c r="J62" s="51">
-        <v>0.70366899999999999</v>
+        <v>0.68858600000000003</v>
       </c>
       <c r="K62" s="51">
-        <v>1.4438839999999999</v>
+        <v>1.3774900000000001</v>
       </c>
       <c r="L62" s="51">
-        <v>0.52915900000000005</v>
+        <v>0.39794299999999999</v>
       </c>
       <c r="M62" s="51">
-        <v>1.611518</v>
+        <v>1.6211869999999999</v>
       </c>
       <c r="N62" s="51">
-        <v>1.954728</v>
+        <v>2.0197690000000001</v>
       </c>
       <c r="O62" s="51">
-        <v>2.362336</v>
+        <v>2.754975</v>
       </c>
       <c r="P62" s="51">
-        <v>2.5828679999999999</v>
+        <v>2.7130610000000002</v>
       </c>
       <c r="Q62" s="51">
-        <v>3.2983090000000002</v>
+        <v>3.4834079999999998</v>
       </c>
       <c r="R62" s="51">
-        <v>3.1728109999999998</v>
+        <v>3.1941199999999998</v>
       </c>
       <c r="S62" s="51">
-        <v>3.0923259999999999</v>
+        <v>3.1214050000000002</v>
       </c>
       <c r="T62" s="51">
-        <v>3.4136760000000002</v>
+        <v>3.45234</v>
       </c>
       <c r="U62" s="51">
-        <v>2.5745990000000001</v>
+        <v>2.6418910000000002</v>
       </c>
       <c r="V62" s="51">
-        <v>0.43806099999999998</v>
+        <v>0.74603200000000003</v>
       </c>
       <c r="W62" s="51">
-        <v>3.3371050000000002</v>
+        <v>3.6712280000000002</v>
       </c>
       <c r="X62" s="51">
-        <v>0.36092200000000002</v>
+        <v>0.503996</v>
       </c>
       <c r="Y62" s="51">
-        <v>3.0988560000000001</v>
+        <v>3.0376150000000002</v>
       </c>
       <c r="Z62" s="51">
-        <v>1.0451889999999999</v>
+        <v>1.140083</v>
       </c>
       <c r="AA62" s="51">
-        <v>1.2355229999999999</v>
+        <v>1.3850389999999999</v>
       </c>
       <c r="AB62" s="51">
-        <v>0.81358600000000003</v>
+        <v>0.76364200000000004</v>
       </c>
       <c r="AC62" s="51">
-        <v>-0.31207800000000002</v>
+        <v>-0.53575899999999999</v>
       </c>
       <c r="AD62" s="51">
-        <v>1.113086</v>
+        <v>0.945496</v>
       </c>
       <c r="AE62" s="51">
-        <v>0.87809000000000004</v>
+        <v>0.78584500000000002</v>
       </c>
       <c r="AF62" s="51">
-        <v>0.57122700000000004</v>
+        <v>0.49728800000000001</v>
       </c>
       <c r="AG62" s="51">
-        <v>-3.7062650000000001</v>
+        <v>-4.6428690000000001</v>
       </c>
       <c r="AH62" s="51">
-        <v>2.1681569999999999</v>
+        <v>1.6385019999999999</v>
       </c>
       <c r="AI62" s="51">
-        <v>1.8754630000000001</v>
+        <v>2.0573579999999998</v>
       </c>
       <c r="AJ62" s="51">
-        <v>0.94748200000000005</v>
+        <v>1.0648059999999999</v>
       </c>
       <c r="AK62" s="51">
-        <v>0.83325899999999997</v>
+        <v>1.048265</v>
       </c>
       <c r="AL62" s="51">
-        <v>1.526986</v>
+        <v>1.8625080000000001</v>
       </c>
       <c r="AM62" s="51">
-        <v>1.7971239999999999</v>
+        <v>1.9909619999999999</v>
       </c>
       <c r="AN62" s="51">
-        <v>2.0712600000000001</v>
+        <v>2.1591339999999999</v>
       </c>
       <c r="AO62" s="51">
-        <v>2.1571709999999999</v>
+        <v>2.2117550000000001</v>
       </c>
       <c r="AP62" s="51">
-        <v>2.2574770000000002</v>
+        <v>2.2841559999999999</v>
       </c>
       <c r="AQ62" s="51">
-        <v>2.2957000000000001</v>
+        <v>2.3254540000000001</v>
       </c>
       <c r="AR62" s="52">
-        <v>2.1155919999999999</v>
+        <v>2.1942249999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>160</v>
       </c>
       <c r="C63" s="50">
-        <v>1.6067610000000001</v>
+        <v>1.6087940000000001</v>
       </c>
       <c r="D63" s="51">
-        <v>0.85614999999999997</v>
+        <v>0.86189099999999996</v>
       </c>
       <c r="E63" s="51">
-        <v>1.7056709999999999</v>
+        <v>1.704995</v>
       </c>
       <c r="F63" s="51">
-        <v>0.55307399999999995</v>
+        <v>0.55030800000000002</v>
       </c>
       <c r="G63" s="51">
-        <v>1.7733399999999999</v>
+        <v>1.7743089999999999</v>
       </c>
       <c r="H63" s="51">
-        <v>1.961338</v>
+        <v>1.9614510000000001</v>
       </c>
       <c r="I63" s="51">
-        <v>2.4851580000000002</v>
+        <v>2.487177</v>
       </c>
       <c r="J63" s="51">
-        <v>2.7469809999999999</v>
+        <v>2.746191</v>
       </c>
       <c r="K63" s="51">
-        <v>1.363523</v>
+        <v>1.363076</v>
       </c>
       <c r="L63" s="51">
-        <v>2.3642080000000001</v>
+        <v>2.363766</v>
       </c>
       <c r="M63" s="51">
-        <v>3.565814</v>
+        <v>3.5672329999999999</v>
       </c>
       <c r="N63" s="51">
-        <v>1.238845</v>
+        <v>1.2383729999999999</v>
       </c>
       <c r="O63" s="51">
-        <v>1.5287809999999999</v>
+        <v>1.5271429999999999</v>
       </c>
       <c r="P63" s="51">
-        <v>2.591596</v>
+        <v>2.5921120000000002</v>
       </c>
       <c r="Q63" s="51">
-        <v>4.0576230000000004</v>
+        <v>4.0572780000000002</v>
       </c>
       <c r="R63" s="51">
-        <v>3.5253800000000002</v>
+        <v>3.5256789999999998</v>
       </c>
       <c r="S63" s="51">
-        <v>4.1370170000000002</v>
+        <v>4.1363760000000003</v>
       </c>
       <c r="T63" s="51">
-        <v>4.1680109999999999</v>
+        <v>4.167999</v>
       </c>
       <c r="U63" s="51">
-        <v>1.7388429999999999</v>
+        <v>1.734467</v>
       </c>
       <c r="V63" s="51">
-        <v>-1.571045</v>
+        <v>-1.5749070000000001</v>
       </c>
       <c r="W63" s="51">
-        <v>4.0186109999999999</v>
+        <v>4.0313119999999998</v>
       </c>
       <c r="X63" s="51">
-        <v>3.036</v>
+        <v>3.0886149999999999</v>
       </c>
       <c r="Y63" s="51">
-        <v>2.181486</v>
+        <v>2.2009280000000002</v>
       </c>
       <c r="Z63" s="51">
-        <v>2.326524</v>
+        <v>2.3420890000000001</v>
       </c>
       <c r="AA63" s="51">
-        <v>2.5244270000000002</v>
+        <v>2.5261119999999999</v>
       </c>
       <c r="AB63" s="51">
-        <v>2.5192260000000002</v>
+        <v>2.5157210000000001</v>
       </c>
       <c r="AC63" s="51">
-        <v>2.4019189999999999</v>
+        <v>2.3768359999999999</v>
       </c>
       <c r="AD63" s="51">
-        <v>2.94537</v>
+        <v>2.9519060000000001</v>
       </c>
       <c r="AE63" s="51">
-        <v>2.8395260000000002</v>
+        <v>2.8302260000000001</v>
       </c>
       <c r="AF63" s="51">
-        <v>2.179481</v>
+        <v>2.2059229999999999</v>
       </c>
       <c r="AG63" s="51">
-        <v>-3.419143</v>
+        <v>-3.4104239999999999</v>
       </c>
       <c r="AH63" s="51">
-        <v>6.1460160000000004</v>
+        <v>6.1979689999999996</v>
       </c>
       <c r="AI63" s="51">
-        <v>3.11253</v>
+        <v>3.2122389999999998</v>
       </c>
       <c r="AJ63" s="51">
-        <v>2.9246129999999999</v>
+        <v>2.9400870000000001</v>
       </c>
       <c r="AK63" s="51">
-        <v>2.732037</v>
+        <v>2.7585199999999999</v>
       </c>
       <c r="AL63" s="51">
-        <v>2.1884190000000001</v>
+        <v>2.5568330000000001</v>
       </c>
       <c r="AM63" s="51">
-        <v>2.3847649999999998</v>
+        <v>2.50644</v>
       </c>
       <c r="AN63" s="51">
-        <v>2.6564580000000002</v>
+        <v>2.6624479999999999</v>
       </c>
       <c r="AO63" s="51">
-        <v>2.6738960000000001</v>
+        <v>2.658623</v>
       </c>
       <c r="AP63" s="51">
-        <v>2.6487729999999998</v>
+        <v>2.6099679999999998</v>
       </c>
       <c r="AQ63" s="51">
-        <v>2.6047389999999999</v>
+        <v>2.538878</v>
       </c>
       <c r="AR63" s="52">
-        <v>2.5936710000000001</v>
+        <v>2.5952519999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>161</v>
       </c>
       <c r="C64" s="55">
-        <v>-0.99402400000000002</v>
+        <v>-0.99552799999999997</v>
       </c>
       <c r="D64" s="56">
-        <v>2.0590630000000001</v>
+        <v>2.0580310000000002</v>
       </c>
       <c r="E64" s="56">
-        <v>1.738111</v>
+        <v>1.7366550000000001</v>
       </c>
       <c r="F64" s="56">
-        <v>2.2379250000000002</v>
+        <v>2.2380650000000002</v>
       </c>
       <c r="G64" s="56">
-        <v>2.7955369999999999</v>
+        <v>2.7979029999999998</v>
       </c>
       <c r="H64" s="56">
-        <v>-0.55918199999999996</v>
+        <v>-0.55666000000000004</v>
       </c>
       <c r="I64" s="56">
-        <v>2.0655999999999999</v>
+        <v>2.0647600000000002</v>
       </c>
       <c r="J64" s="56">
-        <v>3.887883</v>
+        <v>3.8871150000000001</v>
       </c>
       <c r="K64" s="56">
-        <v>1.342449</v>
+        <v>1.340973</v>
       </c>
       <c r="L64" s="56">
-        <v>-1.337315</v>
+        <v>-1.336557</v>
       </c>
       <c r="M64" s="56">
-        <v>2.1326179999999999</v>
+        <v>2.13171</v>
       </c>
       <c r="N64" s="56">
-        <v>-0.89435100000000001</v>
+        <v>-0.89418500000000001</v>
       </c>
       <c r="O64" s="56">
-        <v>-1.1950510000000001</v>
+        <v>-1.1930430000000001</v>
       </c>
       <c r="P64" s="56">
-        <v>0.73289499999999996</v>
+        <v>0.73415600000000003</v>
       </c>
       <c r="Q64" s="56">
-        <v>4.6676909999999996</v>
+        <v>4.6665450000000002</v>
       </c>
       <c r="R64" s="56">
-        <v>3.1213860000000002</v>
+        <v>3.1217790000000001</v>
       </c>
       <c r="S64" s="56">
-        <v>4.3302860000000001</v>
+        <v>4.3306120000000004</v>
       </c>
       <c r="T64" s="56">
-        <v>4.2938919999999996</v>
+        <v>4.2952019999999997</v>
       </c>
       <c r="U64" s="56">
-        <v>2.655138</v>
+        <v>2.657254</v>
       </c>
       <c r="V64" s="56">
-        <v>-3.4300269999999999</v>
+        <v>-3.4280710000000001</v>
       </c>
       <c r="W64" s="56">
-        <v>4.9243959999999998</v>
+        <v>4.9246970000000001</v>
       </c>
       <c r="X64" s="56">
-        <v>3.467292</v>
+        <v>3.4676749999999998</v>
       </c>
       <c r="Y64" s="56">
-        <v>1.8632329999999999</v>
+        <v>1.842176</v>
       </c>
       <c r="Z64" s="56">
-        <v>1.7371939999999999</v>
+        <v>1.7629319999999999</v>
       </c>
       <c r="AA64" s="56">
-        <v>0.26225900000000002</v>
+        <v>0.26254</v>
       </c>
       <c r="AB64" s="56">
-        <v>-0.62734000000000001</v>
+        <v>-0.62345399999999995</v>
       </c>
       <c r="AC64" s="56">
-        <v>-1.709668</v>
+        <v>-1.7039409999999999</v>
       </c>
       <c r="AD64" s="56">
-        <v>0.44000299999999998</v>
+        <v>0.44619700000000001</v>
       </c>
       <c r="AE64" s="56">
-        <v>0.25316699999999998</v>
+        <v>0.25631100000000001</v>
       </c>
       <c r="AF64" s="56">
-        <v>-0.65378800000000004</v>
+        <v>-0.65177200000000002</v>
       </c>
       <c r="AG64" s="56">
-        <v>-7.5317160000000003</v>
+        <v>-7.5340290000000003</v>
       </c>
       <c r="AH64" s="56">
-        <v>6.7973699999999999</v>
+        <v>6.8152140000000001</v>
       </c>
       <c r="AI64" s="56">
-        <v>3.5767120000000001</v>
+        <v>3.6621519999999999</v>
       </c>
       <c r="AJ64" s="56">
-        <v>1.6895880000000001</v>
+        <v>1.6705000000000001</v>
       </c>
       <c r="AK64" s="56">
-        <v>1.6590720000000001</v>
+        <v>1.6703429999999999</v>
       </c>
       <c r="AL64" s="56">
-        <v>1.332414</v>
+        <v>1.731654</v>
       </c>
       <c r="AM64" s="56">
-        <v>1.7332540000000001</v>
+        <v>1.691012</v>
       </c>
       <c r="AN64" s="56">
-        <v>2.1171180000000001</v>
+        <v>2.0791089999999999</v>
       </c>
       <c r="AO64" s="56">
-        <v>2.1514630000000001</v>
+        <v>2.157178</v>
       </c>
       <c r="AP64" s="56">
-        <v>2.1699229999999998</v>
+        <v>2.2435049999999999</v>
       </c>
       <c r="AQ64" s="56">
-        <v>2.0338050000000001</v>
+        <v>2.0634299999999999</v>
       </c>
       <c r="AR64" s="57">
-        <v>2.0409860000000002</v>
+        <v>2.0466709999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>162</v>
       </c>
       <c r="C65" s="59">
-        <v>4.299213</v>
+        <v>4.3179410000000003</v>
       </c>
       <c r="D65" s="60">
-        <v>5.0197409999999998</v>
+        <v>5.0353149999999998</v>
       </c>
       <c r="E65" s="60">
-        <v>6.2205899999999996</v>
+        <v>6.2080149999999996</v>
       </c>
       <c r="F65" s="60">
-        <v>5.7300409999999999</v>
+        <v>5.729768</v>
       </c>
       <c r="G65" s="60">
-        <v>6.2131850000000002</v>
+        <v>6.2156269999999996</v>
       </c>
       <c r="H65" s="60">
-        <v>6.3760880000000002</v>
+        <v>6.3765510000000001</v>
       </c>
       <c r="I65" s="60">
-        <v>6.2933190000000003</v>
+        <v>6.300116</v>
       </c>
       <c r="J65" s="60">
-        <v>3.9410120000000002</v>
+        <v>3.9425859999999999</v>
       </c>
       <c r="K65" s="60">
-        <v>1.435338</v>
+        <v>1.4313530000000001</v>
       </c>
       <c r="L65" s="60">
-        <v>4.5754270000000004</v>
+        <v>4.5609089999999997</v>
       </c>
       <c r="M65" s="60">
-        <v>4.7373370000000001</v>
+        <v>4.7274849999999997</v>
       </c>
       <c r="N65" s="60">
-        <v>4.1332459999999998</v>
+        <v>4.1153240000000002</v>
       </c>
       <c r="O65" s="60">
-        <v>4.8695050000000002</v>
+        <v>4.8641819999999996</v>
       </c>
       <c r="P65" s="60">
-        <v>6.2836299999999996</v>
+        <v>6.2761300000000002</v>
       </c>
       <c r="Q65" s="60">
-        <v>7.2944110000000002</v>
+        <v>7.2805479999999996</v>
       </c>
       <c r="R65" s="60">
-        <v>7.1144610000000004</v>
+        <v>7.1006869999999997</v>
       </c>
       <c r="S65" s="60">
-        <v>7.8142860000000001</v>
+        <v>7.8056029999999996</v>
       </c>
       <c r="T65" s="60">
-        <v>8.8080169999999995</v>
+        <v>8.8038589999999992</v>
       </c>
       <c r="U65" s="60">
-        <v>5.4298770000000003</v>
+        <v>5.4106240000000003</v>
       </c>
       <c r="V65" s="60">
-        <v>5.626347</v>
+        <v>5.6189739999999997</v>
       </c>
       <c r="W65" s="60">
-        <v>7.4165400000000004</v>
+        <v>7.4053630000000004</v>
       </c>
       <c r="X65" s="60">
-        <v>5.8124960000000003</v>
+        <v>5.9432</v>
       </c>
       <c r="Y65" s="60">
-        <v>5.2778229999999997</v>
+        <v>5.2750870000000001</v>
       </c>
       <c r="Z65" s="60">
-        <v>5.2523289999999996</v>
+        <v>5.2684939999999996</v>
       </c>
       <c r="AA65" s="60">
-        <v>5.482424</v>
+        <v>5.4845730000000001</v>
       </c>
       <c r="AB65" s="60">
-        <v>5.2283780000000002</v>
+        <v>5.2129719999999997</v>
       </c>
       <c r="AC65" s="60">
-        <v>5.7331539999999999</v>
+        <v>5.6725329999999996</v>
       </c>
       <c r="AD65" s="60">
-        <v>5.2331250000000002</v>
+        <v>5.2434900000000004</v>
       </c>
       <c r="AE65" s="60">
-        <v>5.0924399999999999</v>
+        <v>5.0378559999999997</v>
       </c>
       <c r="AF65" s="60">
-        <v>4.1405599999999998</v>
+        <v>4.1720769999999998</v>
       </c>
       <c r="AG65" s="60">
-        <v>-1.3696090000000001</v>
+        <v>-1.327418</v>
       </c>
       <c r="AH65" s="60">
-        <v>6.7794220000000003</v>
+        <v>6.7967639999999996</v>
       </c>
       <c r="AI65" s="60">
-        <v>4.0566870000000002</v>
+        <v>4.0695069999999998</v>
       </c>
       <c r="AJ65" s="60">
-        <v>5.1393129999999996</v>
+        <v>5.1537839999999999</v>
       </c>
       <c r="AK65" s="60">
-        <v>4.4812399999999997</v>
+        <v>4.4895269999999998</v>
       </c>
       <c r="AL65" s="60">
-        <v>3.7110720000000001</v>
+        <v>4.32125</v>
       </c>
       <c r="AM65" s="60">
-        <v>3.8513359999999999</v>
+        <v>3.9722170000000001</v>
       </c>
       <c r="AN65" s="60">
-        <v>4.1542149999999998</v>
+        <v>4.1301579999999998</v>
       </c>
       <c r="AO65" s="60">
-        <v>4.130681</v>
+        <v>4.0849310000000001</v>
       </c>
       <c r="AP65" s="60">
-        <v>4.0374939999999997</v>
+        <v>4.0155919999999998</v>
       </c>
       <c r="AQ65" s="60">
-        <v>3.8988489999999998</v>
+        <v>3.882263</v>
       </c>
       <c r="AR65" s="61">
-        <v>4.0144440000000001</v>
+        <v>4.0169959999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>163</v>
       </c>
       <c r="C66" s="63">
-        <v>1.3931169999999999</v>
+        <v>1.3951100000000001</v>
       </c>
       <c r="D66" s="64">
-        <v>0.69812300000000005</v>
+        <v>0.69648500000000002</v>
       </c>
       <c r="E66" s="64">
-        <v>1.4127110000000001</v>
+        <v>1.4101589999999999</v>
       </c>
       <c r="F66" s="64">
-        <v>0.353265</v>
+        <v>0.34991</v>
       </c>
       <c r="G66" s="64">
-        <v>1.595267</v>
+        <v>1.5901460000000001</v>
       </c>
       <c r="H66" s="64">
-        <v>1.7833540000000001</v>
+        <v>1.7805040000000001</v>
       </c>
       <c r="I66" s="64">
-        <v>2.3754729999999999</v>
+        <v>2.3777430000000002</v>
       </c>
       <c r="J66" s="64">
-        <v>2.5462259999999999</v>
+        <v>2.5431879999999998</v>
       </c>
       <c r="K66" s="64">
-        <v>1.2543299999999999</v>
+        <v>1.2535179999999999</v>
       </c>
       <c r="L66" s="64">
-        <v>2.1609910000000001</v>
+        <v>2.153095</v>
       </c>
       <c r="M66" s="64">
-        <v>3.354098</v>
+        <v>3.3545970000000001</v>
       </c>
       <c r="N66" s="64">
-        <v>1.1503060000000001</v>
+        <v>1.1578059999999999</v>
       </c>
       <c r="O66" s="64">
-        <v>1.4415279999999999</v>
+        <v>1.4653579999999999</v>
       </c>
       <c r="P66" s="64">
-        <v>2.4582310000000001</v>
+        <v>2.4690989999999999</v>
       </c>
       <c r="Q66" s="64">
-        <v>3.8802989999999999</v>
+        <v>3.8915199999999999</v>
       </c>
       <c r="R66" s="64">
-        <v>3.363836</v>
+        <v>3.3684280000000002</v>
       </c>
       <c r="S66" s="64">
-        <v>3.9370440000000002</v>
+        <v>3.9393310000000001</v>
       </c>
       <c r="T66" s="64">
-        <v>3.9787659999999998</v>
+        <v>3.9830320000000001</v>
       </c>
       <c r="U66" s="64">
-        <v>1.6298360000000001</v>
+        <v>1.6362129999999999</v>
       </c>
       <c r="V66" s="64">
-        <v>-1.6120479999999999</v>
+        <v>-1.587345</v>
       </c>
       <c r="W66" s="64">
-        <v>3.8222610000000001</v>
+        <v>3.8562699999999999</v>
       </c>
       <c r="X66" s="64">
-        <v>2.7328049999999999</v>
+        <v>2.7867229999999998</v>
       </c>
       <c r="Y66" s="64">
-        <v>2.066859</v>
+        <v>2.0901230000000002</v>
       </c>
       <c r="Z66" s="64">
-        <v>2.0832769999999998</v>
+        <v>2.1046079999999998</v>
       </c>
       <c r="AA66" s="64">
-        <v>2.2763610000000001</v>
+        <v>2.287817</v>
       </c>
       <c r="AB66" s="64">
-        <v>2.2450990000000002</v>
+        <v>2.2387510000000002</v>
       </c>
       <c r="AC66" s="64">
-        <v>2.0723199999999999</v>
+        <v>2.032394</v>
       </c>
       <c r="AD66" s="64">
-        <v>2.6564239999999999</v>
+        <v>2.6525560000000001</v>
       </c>
       <c r="AE66" s="64">
-        <v>2.5322960000000001</v>
+        <v>2.517601</v>
       </c>
       <c r="AF66" s="64">
-        <v>1.888298</v>
+        <v>1.9093549999999999</v>
       </c>
       <c r="AG66" s="64">
-        <v>-3.6367159999999998</v>
+        <v>-3.6785139999999998</v>
       </c>
       <c r="AH66" s="64">
-        <v>5.6933809999999996</v>
+        <v>5.7064349999999999</v>
       </c>
       <c r="AI66" s="64">
-        <v>2.811925</v>
+        <v>2.9178679999999999</v>
       </c>
       <c r="AJ66" s="64">
-        <v>2.584902</v>
+        <v>2.6055489999999999</v>
       </c>
       <c r="AK66" s="64">
-        <v>2.3934419999999998</v>
+        <v>2.4301659999999998</v>
       </c>
       <c r="AL66" s="64">
-        <v>1.914723</v>
+        <v>2.283909</v>
       </c>
       <c r="AM66" s="64">
-        <v>2.111694</v>
+        <v>2.2411349999999999</v>
       </c>
       <c r="AN66" s="64">
-        <v>2.3824459999999998</v>
+        <v>2.3970859999999998</v>
       </c>
       <c r="AO66" s="64">
-        <v>2.4028269999999998</v>
+        <v>2.3958390000000001</v>
       </c>
       <c r="AP66" s="64">
-        <v>2.383086</v>
+        <v>2.3528929999999999</v>
       </c>
       <c r="AQ66" s="64">
-        <v>2.3421859999999999</v>
+        <v>2.2872650000000001</v>
       </c>
       <c r="AR66" s="65">
-        <v>2.3243900000000002</v>
+        <v>2.3348249999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>164</v>
       </c>
       <c r="C67" s="59">
-        <v>-0.62504400000000004</v>
+        <v>-0.62572300000000003</v>
       </c>
       <c r="D67" s="60">
-        <v>0.80941600000000002</v>
+        <v>0.809589</v>
       </c>
       <c r="E67" s="60">
-        <v>-3.0258609999999999</v>
+        <v>-3.026192</v>
       </c>
       <c r="F67" s="60">
-        <v>-1.7093020000000001</v>
+        <v>-1.7095039999999999</v>
       </c>
       <c r="G67" s="60">
-        <v>0.24853</v>
+        <v>0.248552</v>
       </c>
       <c r="H67" s="60">
-        <v>0.14238700000000001</v>
+        <v>0.14216899999999999</v>
       </c>
       <c r="I67" s="60">
-        <v>1.9976069999999999</v>
+        <v>1.9976970000000001</v>
       </c>
       <c r="J67" s="60">
-        <v>1.063231</v>
+        <v>1.0632919999999999</v>
       </c>
       <c r="K67" s="60">
-        <v>2.1922950000000001</v>
+        <v>2.1925119999999998</v>
       </c>
       <c r="L67" s="60">
-        <v>1.50213</v>
+        <v>1.41987</v>
       </c>
       <c r="M67" s="60">
-        <v>1.608765</v>
+        <v>1.4881599999999999</v>
       </c>
       <c r="N67" s="60">
-        <v>1.556637</v>
+        <v>1.4929669999999999</v>
       </c>
       <c r="O67" s="60">
-        <v>-0.65647599999999995</v>
+        <v>-0.775617</v>
       </c>
       <c r="P67" s="60">
-        <v>1.7648649999999999</v>
+        <v>1.5608070000000001</v>
       </c>
       <c r="Q67" s="60">
-        <v>2.1139790000000001</v>
+        <v>2.0158930000000002</v>
       </c>
       <c r="R67" s="60">
-        <v>2.9553259999999999</v>
+        <v>2.8536459999999999</v>
       </c>
       <c r="S67" s="60">
-        <v>3.1551930000000001</v>
+        <v>3.0883349999999998</v>
       </c>
       <c r="T67" s="60">
-        <v>4.1163559999999997</v>
+        <v>4.0507999999999997</v>
       </c>
       <c r="U67" s="60">
-        <v>2.6100840000000001</v>
+        <v>2.5002230000000001</v>
       </c>
       <c r="V67" s="60">
-        <v>0.50578400000000001</v>
+        <v>0.52779799999999999</v>
       </c>
       <c r="W67" s="60">
-        <v>3.091208</v>
+        <v>3.1755309999999999</v>
       </c>
       <c r="X67" s="60">
-        <v>0.24465100000000001</v>
+        <v>0.339916</v>
       </c>
       <c r="Y67" s="60">
-        <v>5.6115199999999996</v>
+        <v>5.6752269999999996</v>
       </c>
       <c r="Z67" s="60">
-        <v>4.8201000000000001E-2</v>
+        <v>4.3116000000000002E-2</v>
       </c>
       <c r="AA67" s="60">
-        <v>0.46471600000000002</v>
+        <v>0.46118199999999998</v>
       </c>
       <c r="AB67" s="60">
-        <v>1.9060379999999999</v>
+        <v>1.885283</v>
       </c>
       <c r="AC67" s="60">
-        <v>1.1042620000000001</v>
+        <v>1.096751</v>
       </c>
       <c r="AD67" s="60">
-        <v>2.9663460000000001</v>
+        <v>2.9597340000000001</v>
       </c>
       <c r="AE67" s="60">
-        <v>2.1741060000000001</v>
+        <v>2.1673740000000001</v>
       </c>
       <c r="AF67" s="60">
-        <v>1.5425899999999999</v>
+        <v>1.4634339999999999</v>
       </c>
       <c r="AG67" s="60">
-        <v>-1.8703749999999999</v>
+        <v>-1.9420930000000001</v>
       </c>
       <c r="AH67" s="60">
-        <v>2.3127209999999998</v>
+        <v>2.3139090000000002</v>
       </c>
       <c r="AI67" s="60">
-        <v>2.9381179999999998</v>
+        <v>2.9528880000000002</v>
       </c>
       <c r="AJ67" s="60">
-        <v>1.350292</v>
+        <v>1.3871439999999999</v>
       </c>
       <c r="AK67" s="60">
-        <v>0.53627800000000003</v>
+        <v>0.61538999999999999</v>
       </c>
       <c r="AL67" s="60">
-        <v>2.1585990000000002</v>
+        <v>2.5969980000000001</v>
       </c>
       <c r="AM67" s="60">
-        <v>2.4680689999999998</v>
+        <v>2.5881780000000001</v>
       </c>
       <c r="AN67" s="60">
-        <v>3.0229119999999998</v>
+        <v>2.9604379999999999</v>
       </c>
       <c r="AO67" s="60">
-        <v>2.9773269999999998</v>
+        <v>2.9207100000000001</v>
       </c>
       <c r="AP67" s="60">
-        <v>3.0072930000000002</v>
+        <v>2.923575</v>
       </c>
       <c r="AQ67" s="60">
-        <v>3.067736</v>
+        <v>2.996391</v>
       </c>
       <c r="AR67" s="61">
-        <v>2.9084270000000001</v>
+        <v>2.8777529999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>165</v>
       </c>
       <c r="C68" s="59">
-        <v>0.181448</v>
+        <v>0.18151400000000001</v>
       </c>
       <c r="D68" s="60">
-        <v>1.6938420000000001</v>
+        <v>1.3086739999999999</v>
       </c>
       <c r="E68" s="60">
-        <v>-1.6045640000000001</v>
+        <v>-1.4797720000000001</v>
       </c>
       <c r="F68" s="60">
-        <v>-1.2236039999999999</v>
+        <v>-1.194944</v>
       </c>
       <c r="G68" s="60">
-        <v>1.0131479999999999</v>
+        <v>0.75075400000000003</v>
       </c>
       <c r="H68" s="60">
-        <v>-0.93770799999999999</v>
+        <v>-0.91414399999999996</v>
       </c>
       <c r="I68" s="60">
-        <v>2.6797580000000001</v>
+        <v>2.5829499999999999</v>
       </c>
       <c r="J68" s="60">
-        <v>1.1269119999999999</v>
+        <v>1.070214</v>
       </c>
       <c r="K68" s="60">
-        <v>2.7372800000000002</v>
+        <v>2.5192239999999999</v>
       </c>
       <c r="L68" s="60">
-        <v>0.871085</v>
+        <v>0.65287799999999996</v>
       </c>
       <c r="M68" s="60">
-        <v>1.7697160000000001</v>
+        <v>1.8569119999999999</v>
       </c>
       <c r="N68" s="60">
-        <v>2.5971850000000001</v>
+        <v>2.7061329999999999</v>
       </c>
       <c r="O68" s="60">
-        <v>2.8618769999999998</v>
+        <v>3.6186720000000001</v>
       </c>
       <c r="P68" s="60">
-        <v>3.6125829999999999</v>
+        <v>3.8864339999999999</v>
       </c>
       <c r="Q68" s="60">
-        <v>3.5154070000000002</v>
+        <v>3.8930539999999998</v>
       </c>
       <c r="R68" s="60">
-        <v>2.851432</v>
+        <v>2.980124</v>
       </c>
       <c r="S68" s="60">
-        <v>3.3202790000000002</v>
+        <v>3.3924129999999999</v>
       </c>
       <c r="T68" s="60">
-        <v>3.4038200000000001</v>
+        <v>3.5232190000000001</v>
       </c>
       <c r="U68" s="60">
-        <v>3.224872</v>
+        <v>3.3488730000000002</v>
       </c>
       <c r="V68" s="60">
-        <v>1.7093970000000001</v>
+        <v>2.1015459999999999</v>
       </c>
       <c r="W68" s="60">
-        <v>4.0737769999999998</v>
+        <v>4.5297140000000002</v>
       </c>
       <c r="X68" s="60">
-        <v>1.0520799999999999</v>
+        <v>1.4031549999999999</v>
       </c>
       <c r="Y68" s="60">
-        <v>4.3705769999999999</v>
+        <v>4.0964140000000002</v>
       </c>
       <c r="Z68" s="60">
-        <v>0.92406699999999997</v>
+        <v>1.1243920000000001</v>
       </c>
       <c r="AA68" s="60">
-        <v>1.0905990000000001</v>
+        <v>1.378125</v>
       </c>
       <c r="AB68" s="60">
-        <v>1.0493030000000001</v>
+        <v>0.94741399999999998</v>
       </c>
       <c r="AC68" s="60">
-        <v>-0.41441600000000001</v>
+        <v>-0.79439899999999997</v>
       </c>
       <c r="AD68" s="60">
-        <v>1.8985570000000001</v>
+        <v>1.5265979999999999</v>
       </c>
       <c r="AE68" s="60">
-        <v>1.424822</v>
+        <v>1.2266360000000001</v>
       </c>
       <c r="AF68" s="60">
-        <v>1.195997</v>
+        <v>1.075421</v>
       </c>
       <c r="AG68" s="60">
-        <v>-2.5390519999999999</v>
+        <v>-4.1593169999999997</v>
       </c>
       <c r="AH68" s="60">
-        <v>2.298835</v>
+        <v>1.4090549999999999</v>
       </c>
       <c r="AI68" s="60">
-        <v>2.1748449999999999</v>
+        <v>2.4427750000000001</v>
       </c>
       <c r="AJ68" s="60">
-        <v>0.89084799999999997</v>
+        <v>1.0576399999999999</v>
       </c>
       <c r="AK68" s="60">
-        <v>0.65487799999999996</v>
+        <v>1.0567029999999999</v>
       </c>
       <c r="AL68" s="60">
-        <v>1.887211</v>
+        <v>2.3215669999999999</v>
       </c>
       <c r="AM68" s="60">
-        <v>1.963676</v>
+        <v>2.4451040000000002</v>
       </c>
       <c r="AN68" s="60">
-        <v>2.41032</v>
+        <v>2.5542560000000001</v>
       </c>
       <c r="AO68" s="60">
-        <v>2.4932880000000002</v>
+        <v>2.5856430000000001</v>
       </c>
       <c r="AP68" s="60">
-        <v>2.6334089999999999</v>
+        <v>2.6548090000000002</v>
       </c>
       <c r="AQ68" s="60">
-        <v>2.6671209999999999</v>
+        <v>2.6798660000000001</v>
       </c>
       <c r="AR68" s="61">
-        <v>2.4332500000000001</v>
+        <v>2.5839020000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>166</v>
@@ -10661,331 +10661,331 @@
         <v>-1.235277</v>
       </c>
       <c r="Y69" s="60">
-        <v>1.523944</v>
+        <v>1.563685</v>
       </c>
       <c r="Z69" s="60">
-        <v>2.5996619999999999</v>
+        <v>2.580946</v>
       </c>
       <c r="AA69" s="60">
-        <v>2.89506</v>
+        <v>2.8986999999999998</v>
       </c>
       <c r="AB69" s="60">
-        <v>3.048505</v>
+        <v>3.0533730000000001</v>
       </c>
       <c r="AC69" s="60">
-        <v>0.53600300000000001</v>
+        <v>0.54705999999999999</v>
       </c>
       <c r="AD69" s="60">
-        <v>1.959193</v>
+        <v>1.965525</v>
       </c>
       <c r="AE69" s="60">
-        <v>2.8702679999999998</v>
+        <v>2.8674559999999998</v>
       </c>
       <c r="AF69" s="60">
         <v>2.943152</v>
       </c>
       <c r="AG69" s="60">
-        <v>-1.9110130000000001</v>
+        <v>-1.9060520000000001</v>
       </c>
       <c r="AH69" s="60">
-        <v>2.7361360000000001</v>
+        <v>2.709514</v>
       </c>
       <c r="AI69" s="60">
-        <v>2.813145</v>
+        <v>2.837631</v>
       </c>
       <c r="AJ69" s="60">
-        <v>2.9021690000000002</v>
+        <v>3.0012750000000001</v>
       </c>
       <c r="AK69" s="60">
-        <v>2.3048600000000001</v>
+        <v>2.394968</v>
       </c>
       <c r="AL69" s="60">
-        <v>2.4800420000000001</v>
+        <v>2.9743689999999998</v>
       </c>
       <c r="AM69" s="60">
-        <v>3.9241570000000001</v>
+        <v>3.3231660000000001</v>
       </c>
       <c r="AN69" s="60">
-        <v>3.3318029999999998</v>
+        <v>3.3491179999999998</v>
       </c>
       <c r="AO69" s="60">
-        <v>3.1530130000000001</v>
+        <v>3.140504</v>
       </c>
       <c r="AP69" s="60">
-        <v>3.1035750000000002</v>
+        <v>3.0707390000000001</v>
       </c>
       <c r="AQ69" s="60">
-        <v>2.9692759999999998</v>
+        <v>3.0210330000000001</v>
       </c>
       <c r="AR69" s="61">
-        <v>3.2958240000000001</v>
+        <v>3.1808269999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>167</v>
       </c>
       <c r="C70" s="59">
-        <v>-6.2010699999999996</v>
+        <v>-6.1958130000000002</v>
       </c>
       <c r="D70" s="60">
-        <v>-2.4832139999999998</v>
+        <v>-2.484753</v>
       </c>
       <c r="E70" s="60">
-        <v>-3.5053740000000002</v>
+        <v>-3.5102639999999998</v>
       </c>
       <c r="F70" s="60">
-        <v>-3.8895430000000002</v>
+        <v>-3.889688</v>
       </c>
       <c r="G70" s="60">
-        <v>-0.83960699999999999</v>
+        <v>-0.82562100000000005</v>
       </c>
       <c r="H70" s="60">
-        <v>3.0698279999999998</v>
+        <v>3.0668660000000001</v>
       </c>
       <c r="I70" s="60">
-        <v>1.686636</v>
+        <v>1.674596</v>
       </c>
       <c r="J70" s="60">
-        <v>1.7379180000000001</v>
+        <v>1.737107</v>
       </c>
       <c r="K70" s="60">
-        <v>0.90108100000000002</v>
+        <v>0.90051400000000004</v>
       </c>
       <c r="L70" s="60">
-        <v>-2.5084710000000001</v>
+        <v>-2.5057619999999998</v>
       </c>
       <c r="M70" s="60">
-        <v>2.0182950000000002</v>
+        <v>2.0093489999999998</v>
       </c>
       <c r="N70" s="60">
-        <v>2.6598809999999999</v>
+        <v>2.65672</v>
       </c>
       <c r="O70" s="60">
-        <v>5.2903269999999996</v>
+        <v>5.2842539999999998</v>
       </c>
       <c r="P70" s="60">
-        <v>1.964412</v>
+        <v>1.9578519999999999</v>
       </c>
       <c r="Q70" s="60">
-        <v>7.7469729999999997</v>
+        <v>7.7378559999999998</v>
       </c>
       <c r="R70" s="60">
-        <v>5.7799389999999997</v>
+        <v>5.7226759999999999</v>
       </c>
       <c r="S70" s="60">
-        <v>3.729533</v>
+        <v>3.731284</v>
       </c>
       <c r="T70" s="60">
-        <v>5.644088</v>
+        <v>5.6425739999999998</v>
       </c>
       <c r="U70" s="60">
-        <v>4.8485849999999999</v>
+        <v>4.846921</v>
       </c>
       <c r="V70" s="60">
-        <v>-1.083113</v>
+        <v>-1.0812440000000001</v>
       </c>
       <c r="W70" s="60">
-        <v>1.8255410000000001</v>
+        <v>1.82138</v>
       </c>
       <c r="X70" s="60">
-        <v>1.307075</v>
+        <v>1.3068059999999999</v>
       </c>
       <c r="Y70" s="60">
-        <v>4.3478050000000001</v>
+        <v>4.3366110000000004</v>
       </c>
       <c r="Z70" s="60">
-        <v>0.96515300000000004</v>
+        <v>0.95621800000000001</v>
       </c>
       <c r="AA70" s="60">
-        <v>1.5474159999999999</v>
+        <v>1.5607759999999999</v>
       </c>
       <c r="AB70" s="60">
-        <v>-0.99076200000000003</v>
+        <v>-0.99963999999999997</v>
       </c>
       <c r="AC70" s="60">
-        <v>-3.625667</v>
+        <v>-3.596279</v>
       </c>
       <c r="AD70" s="60">
-        <v>-2.5195880000000002</v>
+        <v>-2.5421840000000002</v>
       </c>
       <c r="AE70" s="60">
-        <v>-1.610031</v>
+        <v>-1.6439919999999999</v>
       </c>
       <c r="AF70" s="60">
-        <v>-1.053026</v>
+        <v>-1.017579</v>
       </c>
       <c r="AG70" s="60">
-        <v>-4.8322229999999999</v>
+        <v>-4.7801780000000003</v>
       </c>
       <c r="AH70" s="60">
-        <v>-0.64568999999999999</v>
+        <v>-0.56933199999999995</v>
       </c>
       <c r="AI70" s="60">
-        <v>1.8887700000000001</v>
+        <v>1.9513849999999999</v>
       </c>
       <c r="AJ70" s="60">
-        <v>9.9427000000000001E-2</v>
+        <v>0.28432499999999999</v>
       </c>
       <c r="AK70" s="60">
-        <v>1.283595</v>
+        <v>1.3176049999999999</v>
       </c>
       <c r="AL70" s="60">
-        <v>8.7236999999999995E-2</v>
+        <v>0.26103500000000002</v>
       </c>
       <c r="AM70" s="60">
-        <v>0.48358899999999999</v>
+        <v>0.57117099999999998</v>
       </c>
       <c r="AN70" s="60">
-        <v>0.79352199999999995</v>
+        <v>0.85794899999999996</v>
       </c>
       <c r="AO70" s="60">
-        <v>1.0813950000000001</v>
+        <v>1.0820529999999999</v>
       </c>
       <c r="AP70" s="60">
-        <v>1.1384570000000001</v>
+        <v>1.212969</v>
       </c>
       <c r="AQ70" s="60">
-        <v>1.203508</v>
+        <v>1.33049</v>
       </c>
       <c r="AR70" s="61">
-        <v>0.93973799999999996</v>
+        <v>1.0105649999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>168</v>
       </c>
       <c r="C71" s="59">
-        <v>-0.58585900000000002</v>
+        <v>-0.58355999999999997</v>
       </c>
       <c r="D71" s="60">
-        <v>-1.98386</v>
+        <v>-2.1953490000000002</v>
       </c>
       <c r="E71" s="60">
-        <v>-1.087839</v>
+        <v>-0.97507999999999995</v>
       </c>
       <c r="F71" s="60">
-        <v>-1.0212840000000001</v>
+        <v>-1.0384260000000001</v>
       </c>
       <c r="G71" s="60">
-        <v>-1.5285569999999999</v>
+        <v>-1.6868350000000001</v>
       </c>
       <c r="H71" s="60">
-        <v>0.39697300000000002</v>
+        <v>0.168021</v>
       </c>
       <c r="I71" s="60">
-        <v>1.4444520000000001</v>
+        <v>1.4185700000000001</v>
       </c>
       <c r="J71" s="60">
-        <v>0.788497</v>
+        <v>0.66478099999999996</v>
       </c>
       <c r="K71" s="60">
-        <v>0.57511000000000001</v>
+        <v>0.41208600000000001</v>
       </c>
       <c r="L71" s="60">
-        <v>-0.82287399999999999</v>
+        <v>-1.0732969999999999</v>
       </c>
       <c r="M71" s="60">
-        <v>0.995224</v>
+        <v>1.3178460000000001</v>
       </c>
       <c r="N71" s="60">
-        <v>2.853631</v>
+        <v>3.021871</v>
       </c>
       <c r="O71" s="60">
-        <v>6.9550599999999996</v>
+        <v>7.8355550000000003</v>
       </c>
       <c r="P71" s="60">
-        <v>4.2146999999999997</v>
+        <v>4.6728880000000004</v>
       </c>
       <c r="Q71" s="60">
-        <v>4.8699219999999999</v>
+        <v>5.392131</v>
       </c>
       <c r="R71" s="60">
-        <v>3.110776</v>
+        <v>3.305752</v>
       </c>
       <c r="S71" s="60">
-        <v>2.8158050000000001</v>
+        <v>3.016168</v>
       </c>
       <c r="T71" s="60">
-        <v>3.151697</v>
+        <v>3.4049040000000002</v>
       </c>
       <c r="U71" s="60">
-        <v>3.649613</v>
+        <v>3.7751860000000002</v>
       </c>
       <c r="V71" s="60">
-        <v>3.8135400000000002</v>
+        <v>4.1480189999999997</v>
       </c>
       <c r="W71" s="60">
-        <v>6.3686970000000001</v>
+        <v>6.7675130000000001</v>
       </c>
       <c r="X71" s="60">
-        <v>2.0744530000000001</v>
+        <v>2.0580020000000001</v>
       </c>
       <c r="Y71" s="60">
-        <v>2.3328410000000002</v>
+        <v>2.1406770000000002</v>
       </c>
       <c r="Z71" s="60">
-        <v>2.9101560000000002</v>
+        <v>2.838333</v>
       </c>
       <c r="AA71" s="60">
-        <v>3.0828440000000001</v>
+        <v>3.1649370000000001</v>
       </c>
       <c r="AB71" s="60">
-        <v>0.53493100000000005</v>
+        <v>0.40696199999999999</v>
       </c>
       <c r="AC71" s="60">
-        <v>-1.7955570000000001</v>
+        <v>-2.2972350000000001</v>
       </c>
       <c r="AD71" s="60">
-        <v>0.39115299999999997</v>
+        <v>-5.7568000000000001E-2</v>
       </c>
       <c r="AE71" s="60">
-        <v>0.76508299999999996</v>
+        <v>0.48748399999999997</v>
       </c>
       <c r="AF71" s="60">
-        <v>1.1706749999999999</v>
+        <v>0.89630699999999996</v>
       </c>
       <c r="AG71" s="60">
-        <v>-2.9927079999999999</v>
+        <v>-6.2951170000000003</v>
       </c>
       <c r="AH71" s="60">
-        <v>2.0801259999999999</v>
+        <v>0.24415200000000001</v>
       </c>
       <c r="AI71" s="60">
-        <v>1.614697</v>
+        <v>2.1876359999999999</v>
       </c>
       <c r="AJ71" s="60">
-        <v>1.250272</v>
+        <v>1.4231339999999999</v>
       </c>
       <c r="AK71" s="60">
-        <v>2.1175709999999999</v>
+        <v>2.370304</v>
       </c>
       <c r="AL71" s="60">
-        <v>1.8349169999999999</v>
+        <v>2.1429429999999998</v>
       </c>
       <c r="AM71" s="60">
-        <v>1.7407300000000001</v>
+        <v>2.4612630000000002</v>
       </c>
       <c r="AN71" s="60">
-        <v>1.9920469999999999</v>
+        <v>2.364328</v>
       </c>
       <c r="AO71" s="60">
-        <v>2.1827869999999998</v>
+        <v>2.4020839999999999</v>
       </c>
       <c r="AP71" s="60">
-        <v>2.4279280000000001</v>
+        <v>2.5090499999999998</v>
       </c>
       <c r="AQ71" s="60">
-        <v>2.3782489999999998</v>
+        <v>2.4609869999999998</v>
       </c>
       <c r="AR71" s="61">
-        <v>2.1440320000000002</v>
+        <v>2.43953</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>169</v>
@@ -11057,403 +11057,403 @@
         <v>1.2614179999999999</v>
       </c>
       <c r="Y72" s="60">
-        <v>-3.8166950000000002</v>
+        <v>-3.7890619999999999</v>
       </c>
       <c r="Z72" s="60">
-        <v>2.351159</v>
+        <v>2.3360759999999998</v>
       </c>
       <c r="AA72" s="60">
-        <v>3.5874280000000001</v>
+        <v>3.5905420000000001</v>
       </c>
       <c r="AB72" s="60">
-        <v>4.0808710000000001</v>
+        <v>4.085159</v>
       </c>
       <c r="AC72" s="60">
-        <v>1.976809</v>
+        <v>1.985884</v>
       </c>
       <c r="AD72" s="60">
-        <v>2.7843239999999998</v>
+        <v>2.7894199999999998</v>
       </c>
       <c r="AE72" s="60">
-        <v>1.3504100000000001</v>
+        <v>1.3487</v>
       </c>
       <c r="AF72" s="60">
         <v>2.0295209999999999</v>
       </c>
       <c r="AG72" s="60">
-        <v>-1.9131119999999999</v>
+        <v>-1.913125</v>
       </c>
       <c r="AH72" s="60">
-        <v>2.679875</v>
+        <v>2.6797840000000002</v>
       </c>
       <c r="AI72" s="60">
-        <v>1.497749</v>
+        <v>1.497789</v>
       </c>
       <c r="AJ72" s="60">
-        <v>6.4397999999999997E-2</v>
+        <v>0.123879</v>
       </c>
       <c r="AK72" s="60">
-        <v>0.67247900000000005</v>
+        <v>0.75198600000000004</v>
       </c>
       <c r="AL72" s="60">
-        <v>2.5659010000000002</v>
+        <v>3.4519030000000002</v>
       </c>
       <c r="AM72" s="60">
-        <v>4.6799949999999999</v>
+        <v>4.1441379999999999</v>
       </c>
       <c r="AN72" s="60">
-        <v>5.0499499999999999</v>
+        <v>4.9980349999999998</v>
       </c>
       <c r="AO72" s="60">
-        <v>4.2976910000000004</v>
+        <v>4.4453360000000002</v>
       </c>
       <c r="AP72" s="60">
-        <v>3.9750179999999999</v>
+        <v>4.0225410000000004</v>
       </c>
       <c r="AQ72" s="60">
-        <v>3.742407</v>
+        <v>3.8149630000000001</v>
       </c>
       <c r="AR72" s="61">
-        <v>4.3479479999999997</v>
+        <v>4.2841950000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>170</v>
       </c>
       <c r="C73" s="59">
-        <v>-2.9808509999999999</v>
+        <v>-2.9820989999999998</v>
       </c>
       <c r="D73" s="60">
-        <v>-2.929268</v>
+        <v>-2.929522</v>
       </c>
       <c r="E73" s="60">
-        <v>-3.6496900000000001</v>
+        <v>-3.6502620000000001</v>
       </c>
       <c r="F73" s="60">
-        <v>-1.436407</v>
+        <v>-1.4366540000000001</v>
       </c>
       <c r="G73" s="60">
-        <v>-0.70900300000000005</v>
+        <v>-0.709009</v>
       </c>
       <c r="H73" s="60">
-        <v>1.1917359999999999</v>
+        <v>1.191632</v>
       </c>
       <c r="I73" s="60">
-        <v>2.5532180000000002</v>
+        <v>2.5533359999999998</v>
       </c>
       <c r="J73" s="60">
-        <v>0.96806700000000001</v>
+        <v>0.96805300000000005</v>
       </c>
       <c r="K73" s="60">
-        <v>-1.072891</v>
+        <v>-1.07308</v>
       </c>
       <c r="L73" s="60">
-        <v>-1.4635E-2</v>
+        <v>-9.3634999999999996E-2</v>
       </c>
       <c r="M73" s="60">
-        <v>0.71276600000000001</v>
+        <v>0.56071700000000002</v>
       </c>
       <c r="N73" s="60">
-        <v>0.55767299999999997</v>
+        <v>0.490508</v>
       </c>
       <c r="O73" s="60">
-        <v>1.850279</v>
+        <v>1.636768</v>
       </c>
       <c r="P73" s="60">
-        <v>0.86140600000000001</v>
+        <v>0.577214</v>
       </c>
       <c r="Q73" s="60">
-        <v>2.992534</v>
+        <v>2.840395</v>
       </c>
       <c r="R73" s="60">
-        <v>3.8082989999999999</v>
+        <v>3.6521340000000002</v>
       </c>
       <c r="S73" s="60">
-        <v>3.6333989999999998</v>
+        <v>3.5325579999999999</v>
       </c>
       <c r="T73" s="60">
-        <v>4.1390950000000002</v>
+        <v>4.0442879999999999</v>
       </c>
       <c r="U73" s="60">
-        <v>2.0980319999999999</v>
+        <v>1.940618</v>
       </c>
       <c r="V73" s="60">
-        <v>-2.2900320000000001</v>
+        <v>-2.232167</v>
       </c>
       <c r="W73" s="60">
-        <v>2.114779</v>
+        <v>2.254915</v>
       </c>
       <c r="X73" s="60">
-        <v>1.597078</v>
+        <v>1.6967460000000001</v>
       </c>
       <c r="Y73" s="60">
-        <v>1.8174170000000001</v>
+        <v>1.952321</v>
       </c>
       <c r="Z73" s="60">
-        <v>1.1699660000000001</v>
+        <v>1.1484380000000001</v>
       </c>
       <c r="AA73" s="60">
-        <v>0.442519</v>
+        <v>0.43621300000000002</v>
       </c>
       <c r="AB73" s="60">
-        <v>-0.69554499999999997</v>
+        <v>-0.70001100000000005</v>
       </c>
       <c r="AC73" s="60">
-        <v>-1.402371</v>
+        <v>-1.3866160000000001</v>
       </c>
       <c r="AD73" s="60">
-        <v>-0.70878200000000002</v>
+        <v>-0.67666300000000001</v>
       </c>
       <c r="AE73" s="60">
-        <v>-0.472659</v>
+        <v>-0.45400299999999999</v>
       </c>
       <c r="AF73" s="60">
-        <v>-1.385435</v>
+        <v>-1.477929</v>
       </c>
       <c r="AG73" s="60">
-        <v>-6.5616180000000002</v>
+        <v>-6.6105460000000003</v>
       </c>
       <c r="AH73" s="60">
-        <v>1.712947</v>
+        <v>1.6799269999999999</v>
       </c>
       <c r="AI73" s="60">
-        <v>1.062508</v>
+        <v>1.183157</v>
       </c>
       <c r="AJ73" s="60">
-        <v>-3.4429999999999999E-3</v>
+        <v>0.143146</v>
       </c>
       <c r="AK73" s="60">
-        <v>3.6281000000000001E-2</v>
+        <v>-6.3299999999999999E-4</v>
       </c>
       <c r="AL73" s="60">
-        <v>0.16433600000000001</v>
+        <v>0.244897</v>
       </c>
       <c r="AM73" s="60">
-        <v>0.45930300000000002</v>
+        <v>0.41329199999999999</v>
       </c>
       <c r="AN73" s="60">
-        <v>0.74571699999999996</v>
+        <v>0.74604800000000004</v>
       </c>
       <c r="AO73" s="60">
-        <v>0.890239</v>
+        <v>0.87028499999999998</v>
       </c>
       <c r="AP73" s="60">
-        <v>1.113124</v>
+        <v>1.1063320000000001</v>
       </c>
       <c r="AQ73" s="60">
-        <v>1.1865520000000001</v>
+        <v>1.2285010000000001</v>
       </c>
       <c r="AR73" s="61">
-        <v>0.87864600000000004</v>
+        <v>0.87248599999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>171</v>
       </c>
       <c r="C74" s="59">
-        <v>0.45286700000000002</v>
+        <v>0.45377800000000001</v>
       </c>
       <c r="D74" s="60">
-        <v>3.5780319999999999</v>
+        <v>3.581197</v>
       </c>
       <c r="E74" s="60">
-        <v>-2.18797</v>
+        <v>-2.1887530000000002</v>
       </c>
       <c r="F74" s="60">
-        <v>-4.0416660000000002</v>
+        <v>-4.0416359999999996</v>
       </c>
       <c r="G74" s="60">
-        <v>1.140042</v>
+        <v>1.1418189999999999</v>
       </c>
       <c r="H74" s="60">
-        <v>-3.767131</v>
+        <v>-3.7699240000000001</v>
       </c>
       <c r="I74" s="60">
-        <v>4.110474</v>
+        <v>4.1114610000000003</v>
       </c>
       <c r="J74" s="60">
-        <v>-1.4754860000000001</v>
+        <v>-1.475927</v>
       </c>
       <c r="K74" s="60">
-        <v>3.0787719999999998</v>
+        <v>3.0785710000000002</v>
       </c>
       <c r="L74" s="60">
-        <v>0.91766599999999998</v>
+        <v>0.91727300000000001</v>
       </c>
       <c r="M74" s="60">
-        <v>1.8223050000000001</v>
+        <v>1.8220590000000001</v>
       </c>
       <c r="N74" s="60">
-        <v>2.5324610000000001</v>
+        <v>2.5329299999999999</v>
       </c>
       <c r="O74" s="60">
-        <v>1.5580210000000001</v>
+        <v>1.559777</v>
       </c>
       <c r="P74" s="60">
-        <v>6.4636310000000003</v>
+        <v>6.4626419999999998</v>
       </c>
       <c r="Q74" s="60">
-        <v>3.5778099999999999</v>
+        <v>3.5637270000000001</v>
       </c>
       <c r="R74" s="60">
-        <v>4.1434179999999996</v>
+        <v>4.1619250000000001</v>
       </c>
       <c r="S74" s="60">
-        <v>2.5669719999999998</v>
+        <v>2.5815549999999998</v>
       </c>
       <c r="T74" s="60">
-        <v>2.3480479999999999</v>
+        <v>2.332058</v>
       </c>
       <c r="U74" s="60">
-        <v>1.3176300000000001</v>
+        <v>1.339601</v>
       </c>
       <c r="V74" s="60">
-        <v>-0.47451500000000002</v>
+        <v>-0.45431199999999999</v>
       </c>
       <c r="W74" s="60">
-        <v>2.686153</v>
+        <v>2.6791019999999999</v>
       </c>
       <c r="X74" s="60">
-        <v>-2.9662090000000001</v>
+        <v>-2.9628350000000001</v>
       </c>
       <c r="Y74" s="60">
-        <v>13.575919000000001</v>
+        <v>13.563371999999999</v>
       </c>
       <c r="Z74" s="60">
-        <v>-1.065212</v>
+        <v>-1.064122</v>
       </c>
       <c r="AA74" s="60">
-        <v>-0.572743</v>
+        <v>-0.56634499999999999</v>
       </c>
       <c r="AB74" s="60">
-        <v>1.2259899999999999</v>
+        <v>1.2450909999999999</v>
       </c>
       <c r="AC74" s="60">
-        <v>0.51079699999999995</v>
+        <v>0.51936700000000002</v>
       </c>
       <c r="AD74" s="60">
-        <v>4.2309679999999998</v>
+        <v>4.2193420000000001</v>
       </c>
       <c r="AE74" s="60">
-        <v>1.1865619999999999</v>
+        <v>1.1668320000000001</v>
       </c>
       <c r="AF74" s="60">
-        <v>-1.074532</v>
+        <v>-1.0908850000000001</v>
       </c>
       <c r="AG74" s="60">
-        <v>-9.0009270000000008</v>
+        <v>-8.9921150000000001</v>
       </c>
       <c r="AH74" s="60">
-        <v>5.3660160000000001</v>
+        <v>5.3634089999999999</v>
       </c>
       <c r="AI74" s="60">
-        <v>0.94000600000000001</v>
+        <v>0.99387899999999996</v>
       </c>
       <c r="AJ74" s="60">
-        <v>2.6015679999999999</v>
+        <v>2.689559</v>
       </c>
       <c r="AK74" s="60">
-        <v>1.7050559999999999</v>
+        <v>2.188876</v>
       </c>
       <c r="AL74" s="60">
-        <v>3.242731</v>
+        <v>3.2716660000000002</v>
       </c>
       <c r="AM74" s="60">
-        <v>2.0170309999999998</v>
+        <v>2.1438199999999998</v>
       </c>
       <c r="AN74" s="60">
-        <v>1.7747379999999999</v>
+        <v>1.8922369999999999</v>
       </c>
       <c r="AO74" s="60">
-        <v>1.8432820000000001</v>
+        <v>1.904442</v>
       </c>
       <c r="AP74" s="60">
-        <v>1.6481889999999999</v>
+        <v>1.7959050000000001</v>
       </c>
       <c r="AQ74" s="60">
-        <v>1.61094</v>
+        <v>1.7854650000000001</v>
       </c>
       <c r="AR74" s="61">
-        <v>1.778732</v>
+        <v>1.9042920000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>172</v>
       </c>
       <c r="C75" s="66">
-        <v>-4.7327159999999999</v>
+        <v>-4.7327149999999998</v>
       </c>
       <c r="D75" s="67">
-        <v>8.1318990000000007</v>
+        <v>8.1318970000000004</v>
       </c>
       <c r="E75" s="67">
-        <v>6.1787020000000004</v>
+        <v>6.1787010000000002</v>
       </c>
       <c r="F75" s="67">
-        <v>7.1298329999999996</v>
+        <v>7.1298320000000004</v>
       </c>
       <c r="G75" s="67">
-        <v>4.4589299999999996</v>
+        <v>4.4589290000000004</v>
       </c>
       <c r="H75" s="67">
         <v>4.3905209999999997</v>
       </c>
       <c r="I75" s="67">
-        <v>7.2984689999999999</v>
+        <v>7.2984679999999997</v>
       </c>
       <c r="J75" s="67">
         <v>4.5058049999999996</v>
       </c>
       <c r="K75" s="67">
-        <v>1.9829030000000001</v>
+        <v>1.982904</v>
       </c>
       <c r="L75" s="67">
-        <v>0.99875800000000003</v>
+        <v>0.99875999999999998</v>
       </c>
       <c r="M75" s="67">
-        <v>0.11870600000000001</v>
+        <v>0.11870699999999999</v>
       </c>
       <c r="N75" s="67">
         <v>2.4313709999999999</v>
       </c>
       <c r="O75" s="67">
-        <v>9.7577800000000003</v>
+        <v>9.7577780000000001</v>
       </c>
       <c r="P75" s="67">
-        <v>1.0538000000000001</v>
+        <v>1.053801</v>
       </c>
       <c r="Q75" s="67">
-        <v>7.6002159999999996</v>
+        <v>7.6002140000000002</v>
       </c>
       <c r="R75" s="67">
-        <v>9.7766409999999997</v>
+        <v>9.7766400000000004</v>
       </c>
       <c r="S75" s="67">
-        <v>8.1960519999999999</v>
+        <v>8.1960510000000006</v>
       </c>
       <c r="T75" s="67">
-        <v>8.9978160000000003</v>
+        <v>8.9978169999999995</v>
       </c>
       <c r="U75" s="67">
-        <v>6.9216179999999996</v>
+        <v>6.9216170000000004</v>
       </c>
       <c r="V75" s="67">
-        <v>-0.81597799999999998</v>
+        <v>-0.81597900000000001</v>
       </c>
       <c r="W75" s="67">
-        <v>2.0438160000000001</v>
+        <v>2.0438149999999999</v>
       </c>
       <c r="X75" s="67">
         <v>0.66844599999999998</v>
       </c>
       <c r="Y75" s="67">
-        <v>4.6651300000000004</v>
+        <v>4.6651290000000003</v>
       </c>
       <c r="Z75" s="67">
         <v>1.5572619999999999</v>
@@ -11465,55 +11465,55 @@
         <v>-1.602033</v>
       </c>
       <c r="AC75" s="67">
-        <v>-3.8557199999999998</v>
+        <v>-3.8557190000000001</v>
       </c>
       <c r="AD75" s="67">
-        <v>-2.820897</v>
+        <v>-2.8208959999999998</v>
       </c>
       <c r="AE75" s="67">
-        <v>-3.0717620000000001</v>
+        <v>-3.0717349999999999</v>
       </c>
       <c r="AF75" s="67">
-        <v>-2.7976329999999998</v>
+        <v>-2.7976420000000002</v>
       </c>
       <c r="AG75" s="67">
-        <v>-6.6510990000000003</v>
+        <v>-6.6508940000000001</v>
       </c>
       <c r="AH75" s="67">
-        <v>-0.80522899999999997</v>
+        <v>-0.80523100000000003</v>
       </c>
       <c r="AI75" s="67">
-        <v>1.303796</v>
+        <v>1.2827379999999999</v>
       </c>
       <c r="AJ75" s="67">
-        <v>-1.3001670000000001</v>
+        <v>-1.0734859999999999</v>
       </c>
       <c r="AK75" s="67">
-        <v>1.151071</v>
+        <v>1.1408389999999999</v>
       </c>
       <c r="AL75" s="67">
-        <v>-0.44674000000000003</v>
+        <v>-0.68116699999999997</v>
       </c>
       <c r="AM75" s="67">
-        <v>-0.51261400000000001</v>
+        <v>-0.51505699999999999</v>
       </c>
       <c r="AN75" s="67">
-        <v>-2.8969000000000002E-2</v>
+        <v>-4.1555000000000002E-2</v>
       </c>
       <c r="AO75" s="67">
-        <v>0.240449</v>
+        <v>0.22591600000000001</v>
       </c>
       <c r="AP75" s="67">
-        <v>1.0872569999999999</v>
+        <v>1.0715749999999999</v>
       </c>
       <c r="AQ75" s="67">
-        <v>1.5830740000000001</v>
+        <v>1.5663689999999999</v>
       </c>
       <c r="AR75" s="68">
-        <v>0.47096900000000003</v>
+        <v>0.45861099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>173</v>
@@ -11528,7 +11528,7 @@
         <v>4.7627540000000002</v>
       </c>
       <c r="F76" s="71">
-        <v>5.7648010000000003</v>
+        <v>5.7648000000000001</v>
       </c>
       <c r="G76" s="71">
         <v>5.7738560000000003</v>
@@ -11549,1159 +11549,1159 @@
         <v>1.752294</v>
       </c>
       <c r="M76" s="71">
-        <v>4.2793520000000003</v>
+        <v>4.3420339999999999</v>
       </c>
       <c r="N76" s="71">
-        <v>1.873362</v>
+        <v>1.863092</v>
       </c>
       <c r="O76" s="71">
-        <v>3.7543190000000002</v>
+        <v>3.7543709999999999</v>
       </c>
       <c r="P76" s="71">
-        <v>4.4724060000000003</v>
+        <v>4.4760010000000001</v>
       </c>
       <c r="Q76" s="71">
-        <v>5.1479239999999997</v>
+        <v>5.1423139999999998</v>
       </c>
       <c r="R76" s="71">
-        <v>4.4074840000000002</v>
+        <v>4.4026480000000001</v>
       </c>
       <c r="S76" s="71">
-        <v>4.6479910000000002</v>
+        <v>4.6453769999999999</v>
       </c>
       <c r="T76" s="71">
-        <v>5.1454940000000002</v>
+        <v>5.1214050000000002</v>
       </c>
       <c r="U76" s="71">
-        <v>3.632987</v>
+        <v>3.6223010000000002</v>
       </c>
       <c r="V76" s="71">
-        <v>1.0384930000000001</v>
+        <v>1.0378149999999999</v>
       </c>
       <c r="W76" s="71">
-        <v>5.9800500000000003</v>
+        <v>5.9807680000000003</v>
       </c>
       <c r="X76" s="71">
-        <v>3.5465659999999999</v>
+        <v>3.546567</v>
       </c>
       <c r="Y76" s="71">
-        <v>4.7489039999999996</v>
+        <v>4.7489030000000003</v>
       </c>
       <c r="Z76" s="71">
-        <v>3.770375</v>
+        <v>3.7703760000000002</v>
       </c>
       <c r="AA76" s="71">
         <v>3.5148429999999999</v>
       </c>
       <c r="AB76" s="71">
-        <v>3.7102179999999998</v>
+        <v>3.7102710000000001</v>
       </c>
       <c r="AC76" s="71">
-        <v>3.946844</v>
+        <v>3.9467979999999998</v>
       </c>
       <c r="AD76" s="71">
-        <v>4.3380830000000001</v>
+        <v>4.3380869999999998</v>
       </c>
       <c r="AE76" s="71">
-        <v>4.2890889999999997</v>
+        <v>4.2890829999999998</v>
       </c>
       <c r="AF76" s="71">
-        <v>3.746807</v>
+        <v>3.7468029999999999</v>
       </c>
       <c r="AG76" s="71">
-        <v>-4.398307</v>
+        <v>-4.3840279999999998</v>
       </c>
       <c r="AH76" s="71">
-        <v>2.6272000000000002</v>
+        <v>2.6807430000000001</v>
       </c>
       <c r="AI76" s="71">
-        <v>5.0388089999999996</v>
+        <v>5.0648169999999997</v>
       </c>
       <c r="AJ76" s="71">
-        <v>3.3321619999999998</v>
+        <v>3.3400059999999998</v>
       </c>
       <c r="AK76" s="71">
-        <v>4.0718329999999998</v>
+        <v>4.091539</v>
       </c>
       <c r="AL76" s="71">
-        <v>3.3383189999999998</v>
+        <v>3.6068959999999999</v>
       </c>
       <c r="AM76" s="71">
-        <v>3.1972770000000001</v>
+        <v>3.5647929999999999</v>
       </c>
       <c r="AN76" s="71">
-        <v>3.6082619999999999</v>
+        <v>3.8003010000000002</v>
       </c>
       <c r="AO76" s="71">
-        <v>3.7498100000000001</v>
+        <v>3.830441</v>
       </c>
       <c r="AP76" s="71">
-        <v>3.8880219999999999</v>
+        <v>3.901297</v>
       </c>
       <c r="AQ76" s="71">
-        <v>3.9571179999999999</v>
+        <v>3.949999</v>
       </c>
       <c r="AR76" s="72">
-        <v>3.6797469999999999</v>
+        <v>3.8092809999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>174</v>
       </c>
       <c r="C77" s="59">
-        <v>-2.8861479999999999</v>
+        <v>-2.8883269999999999</v>
       </c>
       <c r="D77" s="60">
-        <v>2.3285840000000002</v>
+        <v>2.3275239999999999</v>
       </c>
       <c r="E77" s="60">
-        <v>1.599593</v>
+        <v>1.597604</v>
       </c>
       <c r="F77" s="60">
-        <v>2.7944930000000001</v>
+        <v>2.7948119999999999</v>
       </c>
       <c r="G77" s="60">
-        <v>3.1021899999999998</v>
+        <v>3.1061740000000002</v>
       </c>
       <c r="H77" s="60">
-        <v>1.8305480000000001</v>
+        <v>1.8327119999999999</v>
       </c>
       <c r="I77" s="60">
-        <v>1.1584490000000001</v>
+        <v>1.158404</v>
       </c>
       <c r="J77" s="60">
-        <v>3.3182230000000001</v>
+        <v>3.318721</v>
       </c>
       <c r="K77" s="60">
-        <v>-0.169712</v>
+        <v>-0.17036999999999999</v>
       </c>
       <c r="L77" s="60">
-        <v>-2.8221120000000002</v>
+        <v>-2.8201969999999998</v>
       </c>
       <c r="M77" s="60">
-        <v>1.5441530000000001</v>
+        <v>1.5436030000000001</v>
       </c>
       <c r="N77" s="60">
-        <v>-0.61584799999999995</v>
+        <v>-0.61585699999999999</v>
       </c>
       <c r="O77" s="60">
-        <v>-1.3062670000000001</v>
+        <v>-1.3031299999999999</v>
       </c>
       <c r="P77" s="60">
-        <v>1.0713239999999999</v>
+        <v>1.072811</v>
       </c>
       <c r="Q77" s="60">
-        <v>6.0308549999999999</v>
+        <v>6.0291170000000003</v>
       </c>
       <c r="R77" s="60">
-        <v>4.0738279999999998</v>
+        <v>4.0744720000000001</v>
       </c>
       <c r="S77" s="60">
-        <v>4.6183800000000002</v>
+        <v>4.6191849999999999</v>
       </c>
       <c r="T77" s="60">
-        <v>5.7278370000000001</v>
+        <v>5.7295829999999999</v>
       </c>
       <c r="U77" s="60">
-        <v>3.944582</v>
+        <v>3.9475899999999999</v>
       </c>
       <c r="V77" s="60">
-        <v>-2.051288</v>
+        <v>-2.0491090000000001</v>
       </c>
       <c r="W77" s="60">
-        <v>5.6567879999999997</v>
+        <v>5.6576430000000002</v>
       </c>
       <c r="X77" s="60">
-        <v>4.088603</v>
+        <v>4.0891520000000003</v>
       </c>
       <c r="Y77" s="60">
-        <v>1.7463439999999999</v>
+        <v>1.7131799999999999</v>
       </c>
       <c r="Z77" s="60">
-        <v>2.461433</v>
+        <v>2.4985430000000002</v>
       </c>
       <c r="AA77" s="60">
-        <v>-0.35748600000000003</v>
+        <v>-0.35625299999999999</v>
       </c>
       <c r="AB77" s="60">
-        <v>-1.7879989999999999</v>
+        <v>-1.784686</v>
       </c>
       <c r="AC77" s="60">
-        <v>-3.070319</v>
+        <v>-3.0653890000000001</v>
       </c>
       <c r="AD77" s="60">
-        <v>0.10768999999999999</v>
+        <v>0.109329</v>
       </c>
       <c r="AE77" s="60">
-        <v>-0.25761600000000001</v>
+        <v>-0.255272</v>
       </c>
       <c r="AF77" s="60">
-        <v>-0.67782799999999999</v>
+        <v>-0.67931900000000001</v>
       </c>
       <c r="AG77" s="60">
-        <v>-7.0354460000000003</v>
+        <v>-7.0468859999999998</v>
       </c>
       <c r="AH77" s="60">
-        <v>7.1097929999999998</v>
+        <v>7.1266670000000003</v>
       </c>
       <c r="AI77" s="60">
-        <v>3.8261509999999999</v>
+        <v>3.9452189999999998</v>
       </c>
       <c r="AJ77" s="60">
-        <v>1.4059980000000001</v>
+        <v>1.3566750000000001</v>
       </c>
       <c r="AK77" s="60">
-        <v>1.930231</v>
+        <v>1.951953</v>
       </c>
       <c r="AL77" s="60">
-        <v>2.01511</v>
+        <v>2.238121</v>
       </c>
       <c r="AM77" s="60">
-        <v>2.0232049999999999</v>
+        <v>1.935109</v>
       </c>
       <c r="AN77" s="60">
-        <v>2.290432</v>
+        <v>2.2842090000000002</v>
       </c>
       <c r="AO77" s="60">
-        <v>2.3022819999999999</v>
+        <v>2.3365300000000002</v>
       </c>
       <c r="AP77" s="60">
-        <v>2.3245640000000001</v>
+        <v>2.4688650000000001</v>
       </c>
       <c r="AQ77" s="60">
-        <v>2.1401150000000002</v>
+        <v>2.1902330000000001</v>
       </c>
       <c r="AR77" s="61">
-        <v>2.2160530000000001</v>
+        <v>2.2428330000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>175</v>
       </c>
       <c r="C78" s="59">
-        <v>2.3773849999999999</v>
+        <v>2.3702839999999998</v>
       </c>
       <c r="D78" s="60">
-        <v>1.2044889999999999</v>
+        <v>1.2038260000000001</v>
       </c>
       <c r="E78" s="60">
-        <v>0.689836</v>
+        <v>0.687191</v>
       </c>
       <c r="F78" s="60">
-        <v>-0.87302400000000002</v>
+        <v>-0.88756599999999997</v>
       </c>
       <c r="G78" s="60">
-        <v>2.457093</v>
+        <v>2.4567429999999999</v>
       </c>
       <c r="H78" s="60">
-        <v>2.747369</v>
+        <v>2.747071</v>
       </c>
       <c r="I78" s="60">
-        <v>2.028654</v>
+        <v>2.0293359999999998</v>
       </c>
       <c r="J78" s="60">
-        <v>2.5497049999999999</v>
+        <v>2.5486559999999998</v>
       </c>
       <c r="K78" s="60">
-        <v>2.9383689999999998</v>
+        <v>2.9378959999999998</v>
       </c>
       <c r="L78" s="60">
-        <v>2.8801450000000002</v>
+        <v>2.8800089999999998</v>
       </c>
       <c r="M78" s="60">
-        <v>3.767245</v>
+        <v>3.7671039999999998</v>
       </c>
       <c r="N78" s="60">
-        <v>2.0253109999999999</v>
+        <v>2.0260600000000002</v>
       </c>
       <c r="O78" s="60">
-        <v>0.95616999999999996</v>
+        <v>0.95447400000000004</v>
       </c>
       <c r="P78" s="60">
-        <v>0.78028399999999998</v>
+        <v>0.78109399999999996</v>
       </c>
       <c r="Q78" s="60">
-        <v>2.3788849999999999</v>
+        <v>2.3785790000000002</v>
       </c>
       <c r="R78" s="60">
-        <v>1.8188260000000001</v>
+        <v>1.8192729999999999</v>
       </c>
       <c r="S78" s="60">
-        <v>3.5223409999999999</v>
+        <v>3.5211380000000001</v>
       </c>
       <c r="T78" s="60">
-        <v>3.0261480000000001</v>
+        <v>3.027177</v>
       </c>
       <c r="U78" s="60">
-        <v>0.52600800000000003</v>
+        <v>0.52094499999999999</v>
       </c>
       <c r="V78" s="60">
-        <v>-4.4300920000000001</v>
+        <v>-4.4305519999999996</v>
       </c>
       <c r="W78" s="60">
-        <v>1.8224800000000001</v>
+        <v>1.821313</v>
       </c>
       <c r="X78" s="60">
-        <v>1.820546</v>
+        <v>1.8184499999999999</v>
       </c>
       <c r="Y78" s="60">
-        <v>-0.84189199999999997</v>
+        <v>-0.841279</v>
       </c>
       <c r="Z78" s="60">
-        <v>-0.118229</v>
+        <v>-0.114496</v>
       </c>
       <c r="AA78" s="60">
-        <v>1.6127670000000001</v>
+        <v>1.611545</v>
       </c>
       <c r="AB78" s="60">
-        <v>2.3148439999999999</v>
+        <v>2.3172540000000001</v>
       </c>
       <c r="AC78" s="60">
-        <v>1.7628280000000001</v>
+        <v>1.7410950000000001</v>
       </c>
       <c r="AD78" s="60">
-        <v>2.8377409999999998</v>
+        <v>2.8593839999999999</v>
       </c>
       <c r="AE78" s="60">
-        <v>2.0979459999999999</v>
+        <v>2.1022949999999998</v>
       </c>
       <c r="AF78" s="60">
-        <v>1.846797</v>
+        <v>1.8445959999999999</v>
       </c>
       <c r="AG78" s="60">
-        <v>-5.5997409999999999</v>
+        <v>-5.6063320000000001</v>
       </c>
       <c r="AH78" s="60">
-        <v>6.437875</v>
+        <v>6.4531020000000003</v>
       </c>
       <c r="AI78" s="60">
-        <v>3.3432900000000001</v>
+        <v>3.4226990000000002</v>
       </c>
       <c r="AJ78" s="60">
-        <v>0.251392</v>
+        <v>0.20829</v>
       </c>
       <c r="AK78" s="60">
-        <v>1.2057370000000001</v>
+        <v>1.23641</v>
       </c>
       <c r="AL78" s="60">
-        <v>1.4416800000000001</v>
+        <v>1.6836139999999999</v>
       </c>
       <c r="AM78" s="60">
-        <v>1.7278070000000001</v>
+        <v>1.659619</v>
       </c>
       <c r="AN78" s="60">
-        <v>1.7601579999999999</v>
+        <v>1.7401819999999999</v>
       </c>
       <c r="AO78" s="60">
-        <v>1.732856</v>
+        <v>1.7102470000000001</v>
       </c>
       <c r="AP78" s="60">
-        <v>1.6736839999999999</v>
+        <v>1.6614640000000001</v>
       </c>
       <c r="AQ78" s="60">
-        <v>1.631813</v>
+        <v>1.598708</v>
       </c>
       <c r="AR78" s="61">
-        <v>1.7052529999999999</v>
+        <v>1.674032</v>
       </c>
     </row>
-    <row r="79" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>176</v>
       </c>
       <c r="C79" s="63">
-        <v>2.1277010000000001</v>
+        <v>2.124924</v>
       </c>
       <c r="D79" s="64">
-        <v>0.51809000000000005</v>
+        <v>0.517818</v>
       </c>
       <c r="E79" s="64">
-        <v>1.3921559999999999</v>
+        <v>1.3908689999999999</v>
       </c>
       <c r="F79" s="64">
-        <v>0.63584300000000005</v>
+        <v>0.63048499999999996</v>
       </c>
       <c r="G79" s="64">
-        <v>2.3339180000000002</v>
+        <v>2.3339500000000002</v>
       </c>
       <c r="H79" s="64">
-        <v>1.938194</v>
+        <v>1.9377789999999999</v>
       </c>
       <c r="I79" s="64">
-        <v>2.5118149999999999</v>
+        <v>2.5116740000000002</v>
       </c>
       <c r="J79" s="64">
-        <v>3.0530339999999998</v>
+        <v>3.0517099999999999</v>
       </c>
       <c r="K79" s="64">
-        <v>2.3760789999999998</v>
+        <v>2.3760919999999999</v>
       </c>
       <c r="L79" s="64">
-        <v>2.6379069999999998</v>
+        <v>2.6420629999999998</v>
       </c>
       <c r="M79" s="64">
-        <v>3.450304</v>
+        <v>3.4512450000000001</v>
       </c>
       <c r="N79" s="64">
-        <v>0.66225699999999998</v>
+        <v>0.66797600000000001</v>
       </c>
       <c r="O79" s="64">
-        <v>0.86522399999999999</v>
+        <v>0.86467400000000005</v>
       </c>
       <c r="P79" s="64">
-        <v>1.3136620000000001</v>
+        <v>1.3150580000000001</v>
       </c>
       <c r="Q79" s="64">
-        <v>2.5906129999999998</v>
+        <v>2.5943719999999999</v>
       </c>
       <c r="R79" s="64">
-        <v>2.1654559999999998</v>
+        <v>2.170585</v>
       </c>
       <c r="S79" s="64">
-        <v>2.5337190000000001</v>
+        <v>2.5369540000000002</v>
       </c>
       <c r="T79" s="64">
-        <v>1.995962</v>
+        <v>1.9999849999999999</v>
       </c>
       <c r="U79" s="64">
-        <v>-0.32628200000000002</v>
+        <v>-0.32509300000000002</v>
       </c>
       <c r="V79" s="64">
-        <v>-4.1426449999999999</v>
+        <v>-4.145187</v>
       </c>
       <c r="W79" s="64">
-        <v>2.3787389999999999</v>
+        <v>2.3832960000000001</v>
       </c>
       <c r="X79" s="64">
-        <v>1.461322</v>
+        <v>1.4558960000000001</v>
       </c>
       <c r="Y79" s="64">
-        <v>0.70916800000000002</v>
+        <v>0.71018899999999996</v>
       </c>
       <c r="Z79" s="64">
-        <v>1.010073</v>
+        <v>1.013072</v>
       </c>
       <c r="AA79" s="64">
-        <v>1.5344359999999999</v>
+        <v>1.5223880000000001</v>
       </c>
       <c r="AB79" s="64">
-        <v>1.8839600000000001</v>
+        <v>1.8748</v>
       </c>
       <c r="AC79" s="64">
-        <v>1.164568</v>
+        <v>1.1580839999999999</v>
       </c>
       <c r="AD79" s="64">
-        <v>2.0186500000000001</v>
+        <v>2.0387840000000002</v>
       </c>
       <c r="AE79" s="64">
-        <v>1.6939850000000001</v>
+        <v>1.7130050000000001</v>
       </c>
       <c r="AF79" s="64">
-        <v>1.1968430000000001</v>
+        <v>1.2121930000000001</v>
       </c>
       <c r="AG79" s="64">
-        <v>-4.4326990000000004</v>
+        <v>-4.4036900000000001</v>
       </c>
       <c r="AH79" s="64">
-        <v>5.9903570000000004</v>
+        <v>6.0467219999999999</v>
       </c>
       <c r="AI79" s="64">
-        <v>2.8072870000000001</v>
+        <v>2.839</v>
       </c>
       <c r="AJ79" s="64">
-        <v>1.3195520000000001</v>
+        <v>1.3124229999999999</v>
       </c>
       <c r="AK79" s="64">
-        <v>1.440129</v>
+        <v>1.456027</v>
       </c>
       <c r="AL79" s="64">
-        <v>1.1501300000000001</v>
+        <v>1.4169240000000001</v>
       </c>
       <c r="AM79" s="64">
-        <v>1.3735619999999999</v>
+        <v>1.5199339999999999</v>
       </c>
       <c r="AN79" s="64">
-        <v>1.5551710000000001</v>
+        <v>1.5921069999999999</v>
       </c>
       <c r="AO79" s="64">
-        <v>1.6157239999999999</v>
+        <v>1.6086069999999999</v>
       </c>
       <c r="AP79" s="64">
-        <v>1.6011010000000001</v>
+        <v>1.517574</v>
       </c>
       <c r="AQ79" s="64">
-        <v>1.6083799999999999</v>
+        <v>1.4681310000000001</v>
       </c>
       <c r="AR79" s="65">
-        <v>1.5507470000000001</v>
+        <v>1.5412570000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>177</v>
       </c>
       <c r="C80" s="70">
-        <v>-1.3121510000000001</v>
+        <v>-1.3117989999999999</v>
       </c>
       <c r="D80" s="71">
-        <v>3.1998440000000001</v>
+        <v>3.2036660000000001</v>
       </c>
       <c r="E80" s="71">
-        <v>-2.0197929999999999</v>
+        <v>-2.0201929999999999</v>
       </c>
       <c r="F80" s="71">
-        <v>-3.5998679999999998</v>
+        <v>-3.5993019999999998</v>
       </c>
       <c r="G80" s="71">
-        <v>-0.73175199999999996</v>
+        <v>-0.73037099999999999</v>
       </c>
       <c r="H80" s="71">
-        <v>-2.0831080000000002</v>
+        <v>-2.0848490000000002</v>
       </c>
       <c r="I80" s="71">
-        <v>1.796519</v>
+        <v>1.7968789999999999</v>
       </c>
       <c r="J80" s="71">
-        <v>-0.39410299999999998</v>
+        <v>-0.39359899999999998</v>
       </c>
       <c r="K80" s="71">
-        <v>1.6756949999999999</v>
+        <v>1.675136</v>
       </c>
       <c r="L80" s="71">
-        <v>-0.403781</v>
+        <v>-0.40450599999999998</v>
       </c>
       <c r="M80" s="71">
-        <v>2.574093</v>
+        <v>2.5747429999999998</v>
       </c>
       <c r="N80" s="71">
-        <v>1.7911280000000001</v>
+        <v>1.791777</v>
       </c>
       <c r="O80" s="71">
-        <v>2.7610890000000001</v>
+        <v>2.7641369999999998</v>
       </c>
       <c r="P80" s="71">
-        <v>5.4095019999999998</v>
+        <v>5.4084640000000004</v>
       </c>
       <c r="Q80" s="71">
-        <v>4.596381</v>
+        <v>4.5827600000000004</v>
       </c>
       <c r="R80" s="71">
-        <v>5.3565950000000004</v>
+        <v>5.3538519999999998</v>
       </c>
       <c r="S80" s="71">
-        <v>1.6498219999999999</v>
+        <v>1.666212</v>
       </c>
       <c r="T80" s="71">
-        <v>3.1456900000000001</v>
+        <v>3.130423</v>
       </c>
       <c r="U80" s="71">
-        <v>1.42991</v>
+        <v>1.4528749999999999</v>
       </c>
       <c r="V80" s="71">
-        <v>-2.325771</v>
+        <v>-2.3046730000000002</v>
       </c>
       <c r="W80" s="71">
-        <v>1.912507</v>
+        <v>1.9034089999999999</v>
       </c>
       <c r="X80" s="71">
-        <v>-13.471741</v>
+        <v>-13.46988</v>
       </c>
       <c r="Y80" s="71">
-        <v>13.66282</v>
+        <v>13.669312</v>
       </c>
       <c r="Z80" s="71">
-        <v>-2.376757</v>
+        <v>-2.3832230000000001</v>
       </c>
       <c r="AA80" s="71">
-        <v>-1.019536</v>
+        <v>-1.0050239999999999</v>
       </c>
       <c r="AB80" s="71">
-        <v>-0.63345399999999996</v>
+        <v>-0.61887499999999995</v>
       </c>
       <c r="AC80" s="71">
-        <v>-1.1000529999999999</v>
+        <v>-1.070875</v>
       </c>
       <c r="AD80" s="71">
-        <v>2.2332619999999999</v>
+        <v>2.2116449999999999</v>
       </c>
       <c r="AE80" s="71">
-        <v>-0.72251399999999999</v>
+        <v>-0.75995000000000001</v>
       </c>
       <c r="AF80" s="71">
-        <v>-2.8897689999999998</v>
+        <v>-2.8914689999999998</v>
       </c>
       <c r="AG80" s="71">
-        <v>-8.5537799999999997</v>
+        <v>-8.5315130000000003</v>
       </c>
       <c r="AH80" s="71">
-        <v>2.3396659999999998</v>
+        <v>2.3939149999999998</v>
       </c>
       <c r="AI80" s="71">
-        <v>0.60387299999999999</v>
+        <v>0.59912500000000002</v>
       </c>
       <c r="AJ80" s="71">
-        <v>0.76253800000000005</v>
+        <v>0.87240600000000001</v>
       </c>
       <c r="AK80" s="71">
-        <v>0.43912499999999999</v>
+        <v>0.76616300000000004</v>
       </c>
       <c r="AL80" s="71">
-        <v>1.6774640000000001</v>
+        <v>1.7022489999999999</v>
       </c>
       <c r="AM80" s="71">
-        <v>1.364825</v>
+        <v>0.85953999999999997</v>
       </c>
       <c r="AN80" s="71">
-        <v>0.58897100000000002</v>
+        <v>0.577156</v>
       </c>
       <c r="AO80" s="71">
-        <v>0.73368100000000003</v>
+        <v>0.68274400000000002</v>
       </c>
       <c r="AP80" s="71">
-        <v>0.55416900000000002</v>
+        <v>0.62894399999999995</v>
       </c>
       <c r="AQ80" s="71">
-        <v>0.56445800000000002</v>
+        <v>0.67052</v>
       </c>
       <c r="AR80" s="72">
-        <v>0.76074900000000001</v>
+        <v>0.68373600000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>178</v>
       </c>
       <c r="C81" s="59">
-        <v>7.7545590000000004</v>
+        <v>7.7724380000000002</v>
       </c>
       <c r="D81" s="60">
-        <v>6.2243300000000001</v>
+        <v>6.2771330000000001</v>
       </c>
       <c r="E81" s="60">
-        <v>4.9331019999999999</v>
+        <v>4.9031510000000003</v>
       </c>
       <c r="F81" s="60">
-        <v>-4.8461650000000001</v>
+        <v>-4.8159619999999999</v>
       </c>
       <c r="G81" s="60">
-        <v>-6.7346760000000003</v>
+        <v>-6.6883239999999997</v>
       </c>
       <c r="H81" s="60">
-        <v>-1.9105989999999999</v>
+        <v>-1.888622</v>
       </c>
       <c r="I81" s="60">
-        <v>-0.51107999999999998</v>
+        <v>-0.46973900000000002</v>
       </c>
       <c r="J81" s="60">
-        <v>1.8647009999999999</v>
+        <v>1.8713949999999999</v>
       </c>
       <c r="K81" s="60">
-        <v>-1.729527</v>
+        <v>-1.7184550000000001</v>
       </c>
       <c r="L81" s="60">
-        <v>1.7912589999999999</v>
+        <v>1.755093</v>
       </c>
       <c r="M81" s="60">
-        <v>6.4459689999999998</v>
+        <v>6.4446019999999997</v>
       </c>
       <c r="N81" s="60">
-        <v>2.5050840000000001</v>
+        <v>2.4538760000000002</v>
       </c>
       <c r="O81" s="60">
-        <v>1.8986430000000001</v>
+        <v>1.8844240000000001</v>
       </c>
       <c r="P81" s="60">
-        <v>4.7603419999999996</v>
+        <v>4.7517829999999996</v>
       </c>
       <c r="Q81" s="60">
-        <v>7.9936629999999997</v>
+        <v>7.9518319999999996</v>
       </c>
       <c r="R81" s="60">
-        <v>4.8482830000000003</v>
+        <v>4.8139250000000002</v>
       </c>
       <c r="S81" s="60">
-        <v>6.2822589999999998</v>
+        <v>6.2477140000000002</v>
       </c>
       <c r="T81" s="60">
-        <v>5.9191159999999998</v>
+        <v>5.8892850000000001</v>
       </c>
       <c r="U81" s="60">
-        <v>3.5217369999999999</v>
+        <v>3.4694759999999998</v>
       </c>
       <c r="V81" s="60">
-        <v>-4.3409599999999999</v>
+        <v>-4.3509390000000003</v>
       </c>
       <c r="W81" s="60">
-        <v>3.4360200000000001</v>
+        <v>3.5464169999999999</v>
       </c>
       <c r="X81" s="60">
-        <v>3.9002819999999998</v>
+        <v>4.4681829999999998</v>
       </c>
       <c r="Y81" s="60">
-        <v>2.1734550000000001</v>
+        <v>2.3846069999999999</v>
       </c>
       <c r="Z81" s="60">
-        <v>0.77271999999999996</v>
+        <v>0.90376000000000001</v>
       </c>
       <c r="AA81" s="60">
-        <v>0.59174499999999997</v>
+        <v>0.69290300000000005</v>
       </c>
       <c r="AB81" s="60">
-        <v>-1.31908</v>
+        <v>-1.2610889999999999</v>
       </c>
       <c r="AC81" s="60">
-        <v>0.50763199999999997</v>
+        <v>0.27928700000000001</v>
       </c>
       <c r="AD81" s="60">
-        <v>-0.2621</v>
+        <v>-0.27122600000000002</v>
       </c>
       <c r="AE81" s="60">
-        <v>0.68538299999999996</v>
+        <v>0.50264699999999995</v>
       </c>
       <c r="AF81" s="60">
-        <v>0.190915</v>
+        <v>0.43314799999999998</v>
       </c>
       <c r="AG81" s="60">
-        <v>-4.008591</v>
+        <v>-4.0663349999999996</v>
       </c>
       <c r="AH81" s="60">
-        <v>4.062074</v>
+        <v>4.314235</v>
       </c>
       <c r="AI81" s="60">
-        <v>1.4157120000000001</v>
+        <v>2.3145359999999999</v>
       </c>
       <c r="AJ81" s="60">
-        <v>1.701878</v>
+        <v>1.9466779999999999</v>
       </c>
       <c r="AK81" s="60">
-        <v>2.119799</v>
+        <v>2.31074</v>
       </c>
       <c r="AL81" s="60">
-        <v>0.92126200000000003</v>
+        <v>1.085618</v>
       </c>
       <c r="AM81" s="60">
-        <v>1.1313</v>
+        <v>1.432366</v>
       </c>
       <c r="AN81" s="60">
-        <v>1.596543</v>
+        <v>1.51478</v>
       </c>
       <c r="AO81" s="60">
-        <v>1.461441</v>
+        <v>1.5153019999999999</v>
       </c>
       <c r="AP81" s="60">
-        <v>1.4879599999999999</v>
+        <v>1.5558829999999999</v>
       </c>
       <c r="AQ81" s="60">
-        <v>1.5283409999999999</v>
+        <v>1.5474810000000001</v>
       </c>
       <c r="AR81" s="61">
-        <v>1.4409879999999999</v>
+        <v>1.513153</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>179</v>
       </c>
       <c r="C82" s="59">
-        <v>-1.1933100000000001</v>
+        <v>-1.19346</v>
       </c>
       <c r="D82" s="60">
-        <v>-1.731336</v>
+        <v>-1.8116479999999999</v>
       </c>
       <c r="E82" s="60">
-        <v>-2.6429710000000002</v>
+        <v>-2.5142660000000001</v>
       </c>
       <c r="F82" s="60">
-        <v>-1.15873</v>
+        <v>-1.153446</v>
       </c>
       <c r="G82" s="60">
-        <v>0.20580999999999999</v>
+        <v>6.7428000000000002E-2</v>
       </c>
       <c r="H82" s="60">
-        <v>0.82487100000000002</v>
+        <v>0.74271600000000004</v>
       </c>
       <c r="I82" s="60">
-        <v>2.568724</v>
+        <v>2.505992</v>
       </c>
       <c r="J82" s="60">
-        <v>0.97438800000000003</v>
+        <v>0.94037999999999999</v>
       </c>
       <c r="K82" s="60">
-        <v>1.418663</v>
+        <v>1.337763</v>
       </c>
       <c r="L82" s="60">
-        <v>0.78094200000000003</v>
+        <v>0.60494300000000001</v>
       </c>
       <c r="M82" s="60">
-        <v>1.4116249999999999</v>
+        <v>1.4343619999999999</v>
       </c>
       <c r="N82" s="60">
-        <v>2.0145170000000001</v>
+        <v>2.0889129999999998</v>
       </c>
       <c r="O82" s="60">
-        <v>2.302197</v>
+        <v>2.7810130000000002</v>
       </c>
       <c r="P82" s="60">
-        <v>1.928442</v>
+        <v>2.1303510000000001</v>
       </c>
       <c r="Q82" s="60">
-        <v>2.9793620000000001</v>
+        <v>3.231077</v>
       </c>
       <c r="R82" s="60">
-        <v>2.627964</v>
+        <v>2.6926230000000002</v>
       </c>
       <c r="S82" s="60">
-        <v>3.436868</v>
+        <v>3.4452690000000001</v>
       </c>
       <c r="T82" s="60">
-        <v>3.4657170000000002</v>
+        <v>3.5134099999999999</v>
       </c>
       <c r="U82" s="60">
-        <v>2.825647</v>
+        <v>2.8861970000000001</v>
       </c>
       <c r="V82" s="60">
-        <v>1.043032</v>
+        <v>1.37032</v>
       </c>
       <c r="W82" s="60">
-        <v>3.6240359999999998</v>
+        <v>4.0106929999999998</v>
       </c>
       <c r="X82" s="60">
-        <v>2.2683309999999999</v>
+        <v>2.3728449999999999</v>
       </c>
       <c r="Y82" s="60">
-        <v>0.696353</v>
+        <v>0.81022700000000003</v>
       </c>
       <c r="Z82" s="60">
-        <v>1.7499039999999999</v>
+        <v>1.811963</v>
       </c>
       <c r="AA82" s="60">
-        <v>1.7065079999999999</v>
+        <v>1.84412</v>
       </c>
       <c r="AB82" s="60">
-        <v>1.1328419999999999</v>
+        <v>1.043552</v>
       </c>
       <c r="AC82" s="60">
-        <v>-0.12091399999999999</v>
+        <v>-0.40868199999999999</v>
       </c>
       <c r="AD82" s="60">
-        <v>0.94311199999999995</v>
+        <v>0.75693900000000003</v>
       </c>
       <c r="AE82" s="60">
-        <v>1.219948</v>
+        <v>1.0909340000000001</v>
       </c>
       <c r="AF82" s="60">
-        <v>1.223363</v>
+        <v>1.0891470000000001</v>
       </c>
       <c r="AG82" s="60">
-        <v>-2.9061849999999998</v>
+        <v>-4.0457879999999999</v>
       </c>
       <c r="AH82" s="60">
-        <v>2.1374270000000002</v>
+        <v>1.511091</v>
       </c>
       <c r="AI82" s="60">
-        <v>2.1013120000000001</v>
+        <v>2.298794</v>
       </c>
       <c r="AJ82" s="60">
-        <v>0.95348200000000005</v>
+        <v>1.0740860000000001</v>
       </c>
       <c r="AK82" s="60">
-        <v>0.87553199999999998</v>
+        <v>1.0714250000000001</v>
       </c>
       <c r="AL82" s="60">
-        <v>1.5014430000000001</v>
+        <v>1.890328</v>
       </c>
       <c r="AM82" s="60">
-        <v>1.8845259999999999</v>
+        <v>2.1849889999999998</v>
       </c>
       <c r="AN82" s="60">
-        <v>2.33663</v>
+        <v>2.4192100000000001</v>
       </c>
       <c r="AO82" s="60">
-        <v>2.4050310000000001</v>
+        <v>2.4564210000000002</v>
       </c>
       <c r="AP82" s="60">
-        <v>2.5475850000000002</v>
+        <v>2.5438190000000001</v>
       </c>
       <c r="AQ82" s="60">
-        <v>2.5848070000000001</v>
+        <v>2.580292</v>
       </c>
       <c r="AR82" s="61">
-        <v>2.3514080000000002</v>
+        <v>2.436852</v>
       </c>
     </row>
-    <row r="83" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>180</v>
       </c>
       <c r="C83" s="63">
-        <v>1.309741</v>
+        <v>1.3073630000000001</v>
       </c>
       <c r="D83" s="64">
-        <v>0.57967199999999997</v>
+        <v>0.57948900000000003</v>
       </c>
       <c r="E83" s="64">
-        <v>1.529884</v>
+        <v>1.528756</v>
       </c>
       <c r="F83" s="64">
-        <v>1.1530100000000001</v>
+        <v>1.1491039999999999</v>
       </c>
       <c r="G83" s="64">
-        <v>2.6123180000000001</v>
+        <v>2.6126049999999998</v>
       </c>
       <c r="H83" s="64">
-        <v>2.3272469999999998</v>
+        <v>2.3270650000000002</v>
       </c>
       <c r="I83" s="64">
-        <v>2.757304</v>
+        <v>2.7572420000000002</v>
       </c>
       <c r="J83" s="64">
-        <v>2.8277040000000002</v>
+        <v>2.8267519999999999</v>
       </c>
       <c r="K83" s="64">
-        <v>1.629731</v>
+        <v>1.6297649999999999</v>
       </c>
       <c r="L83" s="64">
-        <v>2.413923</v>
+        <v>2.4168340000000001</v>
       </c>
       <c r="M83" s="64">
-        <v>3.3146</v>
+        <v>3.3150520000000001</v>
       </c>
       <c r="N83" s="64">
-        <v>1.1213139999999999</v>
+        <v>1.125059</v>
       </c>
       <c r="O83" s="64">
-        <v>1.4936149999999999</v>
+        <v>1.49299</v>
       </c>
       <c r="P83" s="64">
-        <v>2.384509</v>
+        <v>2.3850159999999998</v>
       </c>
       <c r="Q83" s="64">
-        <v>3.6663860000000001</v>
+        <v>3.668666</v>
       </c>
       <c r="R83" s="64">
-        <v>3.3865769999999999</v>
+        <v>3.389831</v>
       </c>
       <c r="S83" s="64">
-        <v>3.9112300000000002</v>
+        <v>3.9133650000000002</v>
       </c>
       <c r="T83" s="64">
-        <v>3.979374</v>
+        <v>3.9819659999999999</v>
       </c>
       <c r="U83" s="64">
-        <v>1.5363849999999999</v>
+        <v>1.536681</v>
       </c>
       <c r="V83" s="64">
-        <v>-1.291968</v>
+        <v>-1.294692</v>
       </c>
       <c r="W83" s="64">
-        <v>4.0697380000000001</v>
+        <v>4.0722550000000002</v>
       </c>
       <c r="X83" s="64">
-        <v>2.9312269999999998</v>
+        <v>2.9273479999999998</v>
       </c>
       <c r="Y83" s="64">
-        <v>2.1651129999999998</v>
+        <v>2.1630560000000001</v>
       </c>
       <c r="Z83" s="64">
-        <v>2.4743439999999999</v>
+        <v>2.4785509999999999</v>
       </c>
       <c r="AA83" s="64">
-        <v>2.7120860000000002</v>
+        <v>2.7049259999999999</v>
       </c>
       <c r="AB83" s="64">
-        <v>2.8952</v>
+        <v>2.8897149999999998</v>
       </c>
       <c r="AC83" s="64">
-        <v>2.5806830000000001</v>
+        <v>2.5775109999999999</v>
       </c>
       <c r="AD83" s="64">
-        <v>3.249031</v>
+        <v>3.2602169999999999</v>
       </c>
       <c r="AE83" s="64">
-        <v>3.0474410000000001</v>
+        <v>3.0573779999999999</v>
       </c>
       <c r="AF83" s="64">
-        <v>2.3658299999999999</v>
+        <v>2.3741699999999999</v>
       </c>
       <c r="AG83" s="64">
-        <v>-3.3669419999999999</v>
+        <v>-3.35161</v>
       </c>
       <c r="AH83" s="64">
-        <v>6.3412199999999999</v>
+        <v>6.3772929999999999</v>
       </c>
       <c r="AI83" s="64">
-        <v>3.2657620000000001</v>
+        <v>3.2901220000000002</v>
       </c>
       <c r="AJ83" s="64">
-        <v>3.0326680000000001</v>
+        <v>3.026996</v>
       </c>
       <c r="AK83" s="64">
-        <v>2.785085</v>
+        <v>2.7957290000000001</v>
       </c>
       <c r="AL83" s="64">
-        <v>2.3035830000000002</v>
+        <v>2.694032</v>
       </c>
       <c r="AM83" s="64">
-        <v>2.4982489999999999</v>
+        <v>2.605232</v>
       </c>
       <c r="AN83" s="64">
-        <v>2.7511580000000002</v>
+        <v>2.767118</v>
       </c>
       <c r="AO83" s="64">
-        <v>2.782187</v>
+        <v>2.7627649999999999</v>
       </c>
       <c r="AP83" s="64">
-        <v>2.752084</v>
+        <v>2.7056420000000001</v>
       </c>
       <c r="AQ83" s="64">
-        <v>2.7002459999999999</v>
+        <v>2.6286299999999998</v>
       </c>
       <c r="AR83" s="65">
-        <v>2.6967340000000002</v>
+        <v>2.6938550000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>181</v>
       </c>
       <c r="C84" s="70">
-        <v>-2.026751</v>
+        <v>-2.02589</v>
       </c>
       <c r="D84" s="71">
-        <v>-1.370749</v>
+        <v>-1.372131</v>
       </c>
       <c r="E84" s="71">
-        <v>-3.058119</v>
+        <v>-3.0615329999999998</v>
       </c>
       <c r="F84" s="71">
-        <v>-3.2067749999999999</v>
+        <v>-3.2072020000000001</v>
       </c>
       <c r="G84" s="71">
-        <v>-1.116689</v>
+        <v>-1.106573</v>
       </c>
       <c r="H84" s="71">
-        <v>2.8554750000000002</v>
+        <v>2.8532790000000001</v>
       </c>
       <c r="I84" s="71">
-        <v>0.17930499999999999</v>
+        <v>0.17180999999999999</v>
       </c>
       <c r="J84" s="71">
-        <v>0.36135099999999998</v>
+        <v>0.36204999999999998</v>
       </c>
       <c r="K84" s="71">
-        <v>1.829043</v>
+        <v>1.827896</v>
       </c>
       <c r="L84" s="71">
-        <v>0.55771599999999999</v>
+        <v>0.55722400000000005</v>
       </c>
       <c r="M84" s="71">
-        <v>0.108117</v>
+        <v>0.103131</v>
       </c>
       <c r="N84" s="71">
-        <v>4.8864650000000003</v>
+        <v>4.8826400000000003</v>
       </c>
       <c r="O84" s="71">
-        <v>1.7113910000000001</v>
+        <v>1.709544</v>
       </c>
       <c r="P84" s="71">
-        <v>3.3363589999999999</v>
+        <v>3.3308610000000001</v>
       </c>
       <c r="Q84" s="71">
-        <v>3.376064</v>
+        <v>3.372131</v>
       </c>
       <c r="R84" s="71">
-        <v>3.3789720000000001</v>
+        <v>3.336128</v>
       </c>
       <c r="S84" s="71">
-        <v>2.6350169999999999</v>
+        <v>2.6366480000000001</v>
       </c>
       <c r="T84" s="71">
-        <v>2.850044</v>
+        <v>2.849513</v>
       </c>
       <c r="U84" s="71">
-        <v>2.465576</v>
+        <v>2.4647830000000002</v>
       </c>
       <c r="V84" s="71">
-        <v>-1.7542990000000001</v>
+        <v>-1.75258</v>
       </c>
       <c r="W84" s="71">
-        <v>2.9271060000000002</v>
+        <v>2.923581</v>
       </c>
       <c r="X84" s="71">
-        <v>4.4748000000000003E-2</v>
+        <v>4.4847999999999999E-2</v>
       </c>
       <c r="Y84" s="71">
-        <v>-3.7192799999999999</v>
+        <v>-3.7021549999999999</v>
       </c>
       <c r="Z84" s="71">
-        <v>1.2935430000000001</v>
+        <v>1.2712220000000001</v>
       </c>
       <c r="AA84" s="71">
-        <v>2.222947</v>
+        <v>2.2366969999999999</v>
       </c>
       <c r="AB84" s="71">
-        <v>1.932625</v>
+        <v>1.928177</v>
       </c>
       <c r="AC84" s="71">
-        <v>-4.3513000000000003E-2</v>
+        <v>-1.2571000000000001E-2</v>
       </c>
       <c r="AD84" s="71">
-        <v>0.39474700000000001</v>
+        <v>0.38089400000000001</v>
       </c>
       <c r="AE84" s="71">
-        <v>0.110412</v>
+        <v>8.2004999999999995E-2</v>
       </c>
       <c r="AF84" s="71">
-        <v>0.47953200000000001</v>
+        <v>0.50813699999999995</v>
       </c>
       <c r="AG84" s="71">
-        <v>-4.0867630000000004</v>
+        <v>-4.0501750000000003</v>
       </c>
       <c r="AH84" s="71">
-        <v>0.47001300000000001</v>
+        <v>0.52783100000000005</v>
       </c>
       <c r="AI84" s="71">
-        <v>1.2421709999999999</v>
+        <v>1.3095410000000001</v>
       </c>
       <c r="AJ84" s="71">
-        <v>-1.2107030000000001</v>
+        <v>-1.1078570000000001</v>
       </c>
       <c r="AK84" s="71">
-        <v>-0.88183800000000001</v>
+        <v>-0.67735100000000004</v>
       </c>
       <c r="AL84" s="71">
-        <v>1.3163100000000001</v>
+        <v>2.1519689999999998</v>
       </c>
       <c r="AM84" s="71">
-        <v>3.7680709999999999</v>
+        <v>3.2214260000000001</v>
       </c>
       <c r="AN84" s="71">
-        <v>3.9120469999999998</v>
+        <v>3.870174</v>
       </c>
       <c r="AO84" s="71">
-        <v>2.9647269999999999</v>
+        <v>3.0715210000000002</v>
       </c>
       <c r="AP84" s="71">
-        <v>2.9410889999999998</v>
+        <v>2.9883730000000002</v>
       </c>
       <c r="AQ84" s="71">
-        <v>2.8623449999999999</v>
+        <v>3.0095800000000001</v>
       </c>
       <c r="AR84" s="72">
-        <v>3.2886639999999998</v>
+        <v>3.2316910000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>182</v>
@@ -12797,19 +12797,19 @@
         <v>0.57794500000000004</v>
       </c>
       <c r="AG85" s="60">
-        <v>-7.0057729999999996</v>
+        <v>-7.0059909999999999</v>
       </c>
       <c r="AH85" s="60">
-        <v>-10.758209000000001</v>
+        <v>-10.75779</v>
       </c>
       <c r="AI85" s="60">
-        <v>-4.8112159999999999</v>
+        <v>-4.8109739999999999</v>
       </c>
       <c r="AJ85" s="60">
-        <v>-2.070144</v>
+        <v>-2.0702759999999998</v>
       </c>
       <c r="AK85" s="60">
-        <v>-4.0971989999999998</v>
+        <v>-2.265568</v>
       </c>
       <c r="AL85" s="60">
         <v>-3.9353229999999999</v>
@@ -12833,139 +12833,139 @@
         <v>2.0005500000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>183</v>
       </c>
       <c r="C86" s="59">
-        <v>-0.48344900000000002</v>
+        <v>-0.483649</v>
       </c>
       <c r="D86" s="60">
-        <v>-0.579044</v>
+        <v>-0.80461499999999997</v>
       </c>
       <c r="E86" s="60">
-        <v>-1.2369650000000001</v>
+        <v>-1.1698230000000001</v>
       </c>
       <c r="F86" s="60">
-        <v>-0.63091900000000001</v>
+        <v>-0.66728299999999996</v>
       </c>
       <c r="G86" s="60">
-        <v>0.60979300000000003</v>
+        <v>0.36891499999999999</v>
       </c>
       <c r="H86" s="60">
-        <v>0.67106699999999997</v>
+        <v>0.56441600000000003</v>
       </c>
       <c r="I86" s="60">
-        <v>3.422307</v>
+        <v>3.2745129999999998</v>
       </c>
       <c r="J86" s="60">
-        <v>1.4703999999999999</v>
+        <v>1.3891309999999999</v>
       </c>
       <c r="K86" s="60">
-        <v>2.7338330000000002</v>
+        <v>2.5200209999999998</v>
       </c>
       <c r="L86" s="60">
-        <v>0.82898799999999995</v>
+        <v>0.58058200000000004</v>
       </c>
       <c r="M86" s="60">
-        <v>1.3284879999999999</v>
+        <v>1.373937</v>
       </c>
       <c r="N86" s="60">
-        <v>1.8314410000000001</v>
+        <v>1.960634</v>
       </c>
       <c r="O86" s="60">
-        <v>3.2884570000000002</v>
+        <v>3.886304</v>
       </c>
       <c r="P86" s="60">
-        <v>2.2286579999999998</v>
+        <v>2.493217</v>
       </c>
       <c r="Q86" s="60">
-        <v>3.597073</v>
+        <v>3.8988679999999998</v>
       </c>
       <c r="R86" s="60">
-        <v>2.8711440000000001</v>
+        <v>2.946583</v>
       </c>
       <c r="S86" s="60">
-        <v>3.949274</v>
+        <v>3.9196409999999999</v>
       </c>
       <c r="T86" s="60">
-        <v>3.8908170000000002</v>
+        <v>3.9241769999999998</v>
       </c>
       <c r="U86" s="60">
-        <v>3.6265559999999999</v>
+        <v>3.6430289999999999</v>
       </c>
       <c r="V86" s="60">
-        <v>2.6350920000000002</v>
+        <v>2.9332750000000001</v>
       </c>
       <c r="W86" s="60">
-        <v>4.3262479999999996</v>
+        <v>4.7857229999999999</v>
       </c>
       <c r="X86" s="60">
-        <v>1.222275</v>
+        <v>1.3662209999999999</v>
       </c>
       <c r="Y86" s="60">
-        <v>1.8873439999999999</v>
+        <v>1.918183</v>
       </c>
       <c r="Z86" s="60">
-        <v>1.9548680000000001</v>
+        <v>2.0251290000000002</v>
       </c>
       <c r="AA86" s="60">
-        <v>1.9827790000000001</v>
+        <v>2.145985</v>
       </c>
       <c r="AB86" s="60">
-        <v>1.050462</v>
+        <v>0.95144799999999996</v>
       </c>
       <c r="AC86" s="60">
-        <v>-0.47109400000000001</v>
+        <v>-0.812357</v>
       </c>
       <c r="AD86" s="60">
-        <v>0.90544100000000005</v>
+        <v>0.67262599999999995</v>
       </c>
       <c r="AE86" s="60">
-        <v>1.456639</v>
+        <v>1.283609</v>
       </c>
       <c r="AF86" s="60">
-        <v>1.5442560000000001</v>
+        <v>1.356565</v>
       </c>
       <c r="AG86" s="60">
-        <v>-2.142315</v>
+        <v>-3.6863440000000001</v>
       </c>
       <c r="AH86" s="60">
-        <v>2.1556630000000001</v>
+        <v>1.3752329999999999</v>
       </c>
       <c r="AI86" s="60">
-        <v>2.5894659999999998</v>
+        <v>2.7957990000000001</v>
       </c>
       <c r="AJ86" s="60">
-        <v>1.4103870000000001</v>
+        <v>1.533838</v>
       </c>
       <c r="AK86" s="60">
-        <v>1.338498</v>
+        <v>1.555785</v>
       </c>
       <c r="AL86" s="60">
-        <v>1.796575</v>
+        <v>2.144768</v>
       </c>
       <c r="AM86" s="60">
-        <v>1.9493279999999999</v>
+        <v>2.35473</v>
       </c>
       <c r="AN86" s="60">
-        <v>2.2612100000000002</v>
+        <v>2.393996</v>
       </c>
       <c r="AO86" s="60">
-        <v>2.4633829999999999</v>
+        <v>2.5152420000000002</v>
       </c>
       <c r="AP86" s="60">
-        <v>2.6281150000000002</v>
+        <v>2.6194860000000002</v>
       </c>
       <c r="AQ86" s="60">
-        <v>2.67414</v>
+        <v>2.656574</v>
       </c>
       <c r="AR86" s="61">
-        <v>2.3948900000000002</v>
+        <v>2.5079359999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>184</v>
@@ -13052,580 +13052,580 @@
         <v>5.9844480000000004</v>
       </c>
       <c r="AD87" s="60">
-        <v>5.1999380000000004</v>
+        <v>5.1999389999999996</v>
       </c>
       <c r="AE87" s="60">
-        <v>5.0608519999999997</v>
+        <v>5.0608510000000004</v>
       </c>
       <c r="AF87" s="60">
         <v>3.2235589999999998</v>
       </c>
       <c r="AG87" s="60">
-        <v>-5.3156359999999996</v>
+        <v>-5.3088319999999998</v>
       </c>
       <c r="AH87" s="60">
-        <v>6.7626710000000001</v>
+        <v>6.7988730000000004</v>
       </c>
       <c r="AI87" s="60">
-        <v>6.044149</v>
+        <v>6.0508360000000003</v>
       </c>
       <c r="AJ87" s="60">
-        <v>6.213857</v>
+        <v>6.2238040000000003</v>
       </c>
       <c r="AK87" s="60">
-        <v>4.7533440000000002</v>
+        <v>4.7884390000000003</v>
       </c>
       <c r="AL87" s="60">
-        <v>4.494999</v>
+        <v>4.8705129999999999</v>
       </c>
       <c r="AM87" s="60">
-        <v>4.7438520000000004</v>
+        <v>4.7121930000000001</v>
       </c>
       <c r="AN87" s="60">
-        <v>5.0035360000000004</v>
+        <v>5.0042479999999996</v>
       </c>
       <c r="AO87" s="60">
-        <v>5.0893600000000001</v>
+        <v>5.0931350000000002</v>
       </c>
       <c r="AP87" s="60">
-        <v>5.2267049999999999</v>
+        <v>5.1655389999999999</v>
       </c>
       <c r="AQ87" s="60">
-        <v>5.1993850000000004</v>
+        <v>5.1879619999999997</v>
       </c>
       <c r="AR87" s="61">
-        <v>5.0524240000000002</v>
+        <v>5.0324730000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>185</v>
       </c>
       <c r="C88" s="59">
-        <v>-1.6732469999999999</v>
+        <v>-1.6732009999999999</v>
       </c>
       <c r="D88" s="60">
-        <v>6.9079000000000002E-2</v>
+        <v>7.0177000000000003E-2</v>
       </c>
       <c r="E88" s="60">
-        <v>-3.2342499999999998</v>
+        <v>-3.2351299999999998</v>
       </c>
       <c r="F88" s="60">
-        <v>-2.7461229999999999</v>
+        <v>-2.7456670000000001</v>
       </c>
       <c r="G88" s="60">
-        <v>4.2562000000000003E-2</v>
+        <v>4.3416999999999997E-2</v>
       </c>
       <c r="H88" s="60">
-        <v>-0.453405</v>
+        <v>-0.45424300000000001</v>
       </c>
       <c r="I88" s="60">
-        <v>2.2041439999999999</v>
+        <v>2.2041599999999999</v>
       </c>
       <c r="J88" s="60">
-        <v>0.59543800000000002</v>
+        <v>0.59575299999999998</v>
       </c>
       <c r="K88" s="60">
-        <v>0.59123599999999998</v>
+        <v>0.590256</v>
       </c>
       <c r="L88" s="60">
-        <v>1.035245</v>
+        <v>1.034967</v>
       </c>
       <c r="M88" s="60">
-        <v>3.5975790000000001</v>
+        <v>3.5979179999999999</v>
       </c>
       <c r="N88" s="60">
-        <v>2.2782230000000001</v>
+        <v>2.2783850000000001</v>
       </c>
       <c r="O88" s="60">
-        <v>2.405643</v>
+        <v>2.4070290000000001</v>
       </c>
       <c r="P88" s="60">
-        <v>4.566084</v>
+        <v>4.5647710000000004</v>
       </c>
       <c r="Q88" s="60">
-        <v>3.7149220000000001</v>
+        <v>3.705425</v>
       </c>
       <c r="R88" s="60">
-        <v>4.5374610000000004</v>
+        <v>4.5500189999999998</v>
       </c>
       <c r="S88" s="60">
-        <v>2.5861719999999999</v>
+        <v>2.5959880000000002</v>
       </c>
       <c r="T88" s="60">
-        <v>3.5759989999999999</v>
+        <v>3.5656699999999999</v>
       </c>
       <c r="U88" s="60">
-        <v>1.337102</v>
+        <v>1.3517589999999999</v>
       </c>
       <c r="V88" s="60">
-        <v>-2.619319</v>
+        <v>-2.6055760000000001</v>
       </c>
       <c r="W88" s="60">
-        <v>2.141521</v>
+        <v>2.1366320000000001</v>
       </c>
       <c r="X88" s="60">
-        <v>-1.040089</v>
+        <v>-1.037755</v>
       </c>
       <c r="Y88" s="60">
-        <v>9.3763030000000001</v>
+        <v>9.3671500000000005</v>
       </c>
       <c r="Z88" s="60">
-        <v>-0.89384699999999995</v>
+        <v>-0.893065</v>
       </c>
       <c r="AA88" s="60">
-        <v>-0.86451999999999996</v>
+        <v>-0.86020600000000003</v>
       </c>
       <c r="AB88" s="60">
-        <v>-0.44682899999999998</v>
+        <v>-0.43372899999999998</v>
       </c>
       <c r="AC88" s="60">
-        <v>0.27636500000000003</v>
+        <v>0.28232299999999999</v>
       </c>
       <c r="AD88" s="60">
-        <v>2.3138339999999999</v>
+        <v>2.3056199999999998</v>
       </c>
       <c r="AE88" s="60">
-        <v>0.17268900000000001</v>
+        <v>0.15868399999999999</v>
       </c>
       <c r="AF88" s="60">
-        <v>-1.864495</v>
+        <v>-1.876233</v>
       </c>
       <c r="AG88" s="60">
-        <v>-8.5625529999999994</v>
+        <v>-8.5562529999999999</v>
       </c>
       <c r="AH88" s="60">
-        <v>4.1030280000000001</v>
+        <v>4.0558050000000003</v>
       </c>
       <c r="AI88" s="60">
-        <v>0.88873599999999997</v>
+        <v>0.94079999999999997</v>
       </c>
       <c r="AJ88" s="60">
-        <v>1.1620010000000001</v>
+        <v>1.214245</v>
       </c>
       <c r="AK88" s="60">
-        <v>0.437193</v>
+        <v>0.60416800000000004</v>
       </c>
       <c r="AL88" s="60">
-        <v>1.608943</v>
+        <v>1.5488820000000001</v>
       </c>
       <c r="AM88" s="60">
-        <v>1.02922</v>
+        <v>0.92074500000000004</v>
       </c>
       <c r="AN88" s="60">
-        <v>1.047749</v>
+        <v>1.0469029999999999</v>
       </c>
       <c r="AO88" s="60">
-        <v>1.1636439999999999</v>
+        <v>1.147864</v>
       </c>
       <c r="AP88" s="60">
-        <v>1.1050279999999999</v>
+        <v>1.1720470000000001</v>
       </c>
       <c r="AQ88" s="60">
-        <v>1.1789810000000001</v>
+        <v>1.232596</v>
       </c>
       <c r="AR88" s="61">
-        <v>1.1049070000000001</v>
+        <v>1.103972</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>186</v>
       </c>
       <c r="C89" s="59">
-        <v>2.3604850000000002</v>
+        <v>2.377659</v>
       </c>
       <c r="D89" s="60">
-        <v>4.4946070000000002</v>
+        <v>4.5085899999999999</v>
       </c>
       <c r="E89" s="60">
-        <v>4.0048110000000001</v>
+        <v>3.9996960000000001</v>
       </c>
       <c r="F89" s="60">
-        <v>4.3371409999999999</v>
+        <v>4.3382829999999997</v>
       </c>
       <c r="G89" s="60">
-        <v>3.7151749999999999</v>
+        <v>3.7217229999999999</v>
       </c>
       <c r="H89" s="60">
-        <v>3.321088</v>
+        <v>3.3253080000000002</v>
       </c>
       <c r="I89" s="60">
-        <v>4.977576</v>
+        <v>4.984642</v>
       </c>
       <c r="J89" s="60">
-        <v>4.701149</v>
+        <v>4.7018380000000004</v>
       </c>
       <c r="K89" s="60">
-        <v>1.2336229999999999</v>
+        <v>1.231233</v>
       </c>
       <c r="L89" s="60">
-        <v>1.9204079999999999</v>
+        <v>1.9243030000000001</v>
       </c>
       <c r="M89" s="60">
-        <v>4.9031339999999997</v>
+        <v>4.897634</v>
       </c>
       <c r="N89" s="60">
-        <v>2.5087519999999999</v>
+        <v>2.5091760000000001</v>
       </c>
       <c r="O89" s="60">
-        <v>4.1880610000000003</v>
+        <v>4.1838379999999997</v>
       </c>
       <c r="P89" s="60">
-        <v>5.2816349999999996</v>
+        <v>5.2777520000000004</v>
       </c>
       <c r="Q89" s="60">
-        <v>7.1731160000000003</v>
+        <v>7.1688320000000001</v>
       </c>
       <c r="R89" s="60">
-        <v>6.3807790000000004</v>
+        <v>6.3764209999999997</v>
       </c>
       <c r="S89" s="60">
-        <v>7.5774239999999997</v>
+        <v>7.5761149999999997</v>
       </c>
       <c r="T89" s="60">
-        <v>8.4213009999999997</v>
+        <v>8.4192789999999995</v>
       </c>
       <c r="U89" s="60">
-        <v>5.3223260000000003</v>
+        <v>5.3078060000000002</v>
       </c>
       <c r="V89" s="60">
-        <v>2.441757</v>
+        <v>2.4278740000000001</v>
       </c>
       <c r="W89" s="60">
-        <v>7.5513700000000004</v>
+        <v>7.5464849999999997</v>
       </c>
       <c r="X89" s="60">
-        <v>6.2510250000000003</v>
+        <v>6.3646919999999998</v>
       </c>
       <c r="Y89" s="60">
-        <v>4.554176</v>
+        <v>4.5536459999999996</v>
       </c>
       <c r="Z89" s="60">
-        <v>4.6726549999999998</v>
+        <v>4.6907639999999997</v>
       </c>
       <c r="AA89" s="60">
-        <v>4.0930200000000001</v>
+        <v>4.078646</v>
       </c>
       <c r="AB89" s="60">
-        <v>3.5743740000000002</v>
+        <v>3.5461070000000001</v>
       </c>
       <c r="AC89" s="60">
-        <v>3.867963</v>
+        <v>3.8091170000000001</v>
       </c>
       <c r="AD89" s="60">
-        <v>4.4408399999999997</v>
+        <v>4.4711160000000003</v>
       </c>
       <c r="AE89" s="60">
-        <v>4.087777</v>
+        <v>4.0545419999999996</v>
       </c>
       <c r="AF89" s="60">
-        <v>3.5145819999999999</v>
+        <v>3.5725950000000002</v>
       </c>
       <c r="AG89" s="60">
-        <v>-0.88794499999999998</v>
+        <v>-0.84996099999999997</v>
       </c>
       <c r="AH89" s="60">
-        <v>7.130986</v>
+        <v>7.1629610000000001</v>
       </c>
       <c r="AI89" s="60">
-        <v>3.2668919999999999</v>
+        <v>3.2973729999999999</v>
       </c>
       <c r="AJ89" s="60">
-        <v>4.4021790000000003</v>
+        <v>4.4130729999999998</v>
       </c>
       <c r="AK89" s="60">
-        <v>3.963714</v>
+        <v>3.968477</v>
       </c>
       <c r="AL89" s="60">
-        <v>3.1309870000000002</v>
+        <v>3.7766069999999998</v>
       </c>
       <c r="AM89" s="60">
-        <v>3.3093849999999998</v>
+        <v>3.4833590000000001</v>
       </c>
       <c r="AN89" s="60">
-        <v>3.6331329999999999</v>
+        <v>3.6279319999999999</v>
       </c>
       <c r="AO89" s="60">
-        <v>3.5761069999999999</v>
+        <v>3.543193</v>
       </c>
       <c r="AP89" s="60">
-        <v>3.4279850000000001</v>
+        <v>3.4488409999999998</v>
       </c>
       <c r="AQ89" s="60">
-        <v>3.273517</v>
+        <v>3.2608320000000002</v>
       </c>
       <c r="AR89" s="61">
-        <v>3.4439280000000001</v>
+        <v>3.4727589999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>187</v>
       </c>
       <c r="C90" s="63">
-        <v>2.1931759999999998</v>
+        <v>2.191074</v>
       </c>
       <c r="D90" s="64">
-        <v>0.60918499999999998</v>
+        <v>0.611398</v>
       </c>
       <c r="E90" s="64">
-        <v>1.6562060000000001</v>
+        <v>1.6557679999999999</v>
       </c>
       <c r="F90" s="64">
-        <v>9.1472999999999999E-2</v>
+        <v>8.6487999999999995E-2</v>
       </c>
       <c r="G90" s="64">
-        <v>1.819204</v>
+        <v>1.818163</v>
       </c>
       <c r="H90" s="64">
-        <v>2.0531389999999998</v>
+        <v>2.0517370000000001</v>
       </c>
       <c r="I90" s="64">
-        <v>2.2777289999999999</v>
+        <v>2.2777280000000002</v>
       </c>
       <c r="J90" s="64">
-        <v>2.904477</v>
+        <v>2.902542</v>
       </c>
       <c r="K90" s="64">
-        <v>2.0375429999999999</v>
+        <v>2.0378620000000001</v>
       </c>
       <c r="L90" s="64">
-        <v>3.1050010000000001</v>
+        <v>3.1033460000000002</v>
       </c>
       <c r="M90" s="64">
-        <v>3.957795</v>
+        <v>3.9613550000000002</v>
       </c>
       <c r="N90" s="64">
-        <v>1.2718130000000001</v>
+        <v>1.270742</v>
       </c>
       <c r="O90" s="64">
-        <v>1.1776789999999999</v>
+        <v>1.1760189999999999</v>
       </c>
       <c r="P90" s="64">
-        <v>1.9446140000000001</v>
+        <v>1.9461850000000001</v>
       </c>
       <c r="Q90" s="64">
-        <v>3.1102820000000002</v>
+        <v>3.1106769999999999</v>
       </c>
       <c r="R90" s="64">
-        <v>2.5737700000000001</v>
+        <v>2.575364</v>
       </c>
       <c r="S90" s="64">
-        <v>2.9930249999999998</v>
+        <v>2.9916969999999998</v>
       </c>
       <c r="T90" s="64">
-        <v>2.5212729999999999</v>
+        <v>2.520988</v>
       </c>
       <c r="U90" s="64">
-        <v>0.33679300000000001</v>
+        <v>0.33551799999999998</v>
       </c>
       <c r="V90" s="64">
-        <v>-4.1106109999999996</v>
+        <v>-4.1107319999999996</v>
       </c>
       <c r="W90" s="64">
-        <v>2.4700630000000001</v>
+        <v>2.4940380000000002</v>
       </c>
       <c r="X90" s="64">
-        <v>1.6658329999999999</v>
+        <v>1.693378</v>
       </c>
       <c r="Y90" s="64">
-        <v>0.91307099999999997</v>
+        <v>0.94712600000000002</v>
       </c>
       <c r="Z90" s="64">
-        <v>0.95454499999999998</v>
+        <v>0.97137499999999999</v>
       </c>
       <c r="AA90" s="64">
-        <v>1.492518</v>
+        <v>1.5045470000000001</v>
       </c>
       <c r="AB90" s="64">
-        <v>1.6719489999999999</v>
+        <v>1.6837120000000001</v>
       </c>
       <c r="AC90" s="64">
-        <v>1.1819360000000001</v>
+        <v>1.173754</v>
       </c>
       <c r="AD90" s="64">
-        <v>1.959233</v>
+        <v>1.9524619999999999</v>
       </c>
       <c r="AE90" s="64">
-        <v>1.994345</v>
+        <v>1.9997450000000001</v>
       </c>
       <c r="AF90" s="64">
-        <v>1.5083470000000001</v>
+        <v>1.520653</v>
       </c>
       <c r="AG90" s="64">
-        <v>-4.217854</v>
+        <v>-4.2318889999999998</v>
       </c>
       <c r="AH90" s="64">
-        <v>5.8688849999999997</v>
+        <v>5.9409429999999999</v>
       </c>
       <c r="AI90" s="64">
-        <v>2.5659800000000001</v>
+        <v>2.7430859999999999</v>
       </c>
       <c r="AJ90" s="64">
-        <v>1.27864</v>
+        <v>1.30793</v>
       </c>
       <c r="AK90" s="64">
-        <v>1.7065159999999999</v>
+        <v>1.755366</v>
       </c>
       <c r="AL90" s="64">
-        <v>1.3524780000000001</v>
+        <v>1.506599</v>
       </c>
       <c r="AM90" s="64">
-        <v>1.5037210000000001</v>
+        <v>1.6346309999999999</v>
       </c>
       <c r="AN90" s="64">
-        <v>1.657578</v>
+        <v>1.6791419999999999</v>
       </c>
       <c r="AO90" s="64">
-        <v>1.671603</v>
+        <v>1.6701649999999999</v>
       </c>
       <c r="AP90" s="64">
-        <v>1.648717</v>
+        <v>1.5749379999999999</v>
       </c>
       <c r="AQ90" s="64">
-        <v>1.643073</v>
+        <v>1.5200689999999999</v>
       </c>
       <c r="AR90" s="65">
-        <v>1.6249199999999999</v>
+        <v>1.6157710000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>188</v>
       </c>
       <c r="C91" s="70">
-        <v>-1.702493</v>
+        <v>-1.7011620000000001</v>
       </c>
       <c r="D91" s="71">
-        <v>-1.229114</v>
+        <v>-1.229851</v>
       </c>
       <c r="E91" s="71">
-        <v>-2.1347700000000001</v>
+        <v>-2.1370230000000001</v>
       </c>
       <c r="F91" s="71">
-        <v>-0.47107300000000002</v>
+        <v>-0.47218199999999999</v>
       </c>
       <c r="G91" s="71">
-        <v>-0.78489699999999996</v>
+        <v>-0.77959299999999998</v>
       </c>
       <c r="H91" s="71">
-        <v>3.1150289999999998</v>
+        <v>3.1135869999999999</v>
       </c>
       <c r="I91" s="71">
-        <v>2.3752309999999999</v>
+        <v>2.3700109999999999</v>
       </c>
       <c r="J91" s="71">
-        <v>0.885795</v>
+        <v>0.88626400000000005</v>
       </c>
       <c r="K91" s="71">
-        <v>0.82147999999999999</v>
+        <v>0.82134300000000005</v>
       </c>
       <c r="L91" s="71">
-        <v>0.84852000000000005</v>
+        <v>0.84821199999999997</v>
       </c>
       <c r="M91" s="71">
-        <v>0.77950399999999997</v>
+        <v>0.77686500000000003</v>
       </c>
       <c r="N91" s="71">
-        <v>3.6271209999999998</v>
+        <v>3.6253220000000002</v>
       </c>
       <c r="O91" s="71">
-        <v>2.700583</v>
+        <v>2.699039</v>
       </c>
       <c r="P91" s="71">
-        <v>2.146325</v>
+        <v>2.1434549999999999</v>
       </c>
       <c r="Q91" s="71">
-        <v>4.35189</v>
+        <v>4.3489599999999999</v>
       </c>
       <c r="R91" s="71">
-        <v>4.8835959999999998</v>
+        <v>4.8593479999999998</v>
       </c>
       <c r="S91" s="71">
-        <v>4.0784310000000001</v>
+        <v>4.0786800000000003</v>
       </c>
       <c r="T91" s="71">
-        <v>4.5664290000000003</v>
+        <v>4.5657170000000002</v>
       </c>
       <c r="U91" s="71">
-        <v>3.762715</v>
+        <v>3.761895</v>
       </c>
       <c r="V91" s="71">
-        <v>-0.143647</v>
+        <v>-0.14302300000000001</v>
       </c>
       <c r="W91" s="71">
-        <v>3.2058580000000001</v>
+        <v>3.203497</v>
       </c>
       <c r="X91" s="71">
-        <v>1.5276179999999999</v>
+        <v>1.5273159999999999</v>
       </c>
       <c r="Y91" s="71">
-        <v>0.27801799999999999</v>
+        <v>0.287437</v>
       </c>
       <c r="Z91" s="71">
-        <v>2.2363019999999998</v>
+        <v>2.2260170000000001</v>
       </c>
       <c r="AA91" s="71">
-        <v>2.8071459999999999</v>
+        <v>2.8140109999999998</v>
       </c>
       <c r="AB91" s="71">
-        <v>1.8838980000000001</v>
+        <v>1.881359</v>
       </c>
       <c r="AC91" s="71">
-        <v>0.48020600000000002</v>
+        <v>0.49512</v>
       </c>
       <c r="AD91" s="71">
-        <v>1.4223600000000001</v>
+        <v>1.4151009999999999</v>
       </c>
       <c r="AE91" s="71">
-        <v>0.83722600000000003</v>
+        <v>0.82155299999999998</v>
       </c>
       <c r="AF91" s="71">
-        <v>1.1280600000000001</v>
+        <v>1.147696</v>
       </c>
       <c r="AG91" s="71">
-        <v>-2.4617589999999998</v>
+        <v>-2.4503240000000002</v>
       </c>
       <c r="AH91" s="71">
-        <v>1.1965920000000001</v>
+        <v>1.2206330000000001</v>
       </c>
       <c r="AI91" s="71">
-        <v>1.797452</v>
+        <v>1.8259399999999999</v>
       </c>
       <c r="AJ91" s="71">
-        <v>0.54865399999999998</v>
+        <v>0.63797099999999995</v>
       </c>
       <c r="AK91" s="71">
-        <v>1.4666300000000001</v>
+        <v>1.572408</v>
       </c>
       <c r="AL91" s="71">
-        <v>2.0988820000000001</v>
+        <v>2.4172760000000002</v>
       </c>
       <c r="AM91" s="71">
-        <v>3.183227</v>
+        <v>2.9277579999999999</v>
       </c>
       <c r="AN91" s="71">
-        <v>3.5228419999999998</v>
+        <v>3.4701119999999999</v>
       </c>
       <c r="AO91" s="71">
-        <v>3.2132329999999998</v>
+        <v>3.2636880000000001</v>
       </c>
       <c r="AP91" s="71">
-        <v>3.2140240000000002</v>
+        <v>3.227201</v>
       </c>
       <c r="AQ91" s="71">
-        <v>3.0302220000000002</v>
+        <v>3.1003370000000001</v>
       </c>
       <c r="AR91" s="72">
-        <v>3.232586</v>
+        <v>3.1976619999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>189</v>
@@ -13664,13 +13664,13 @@
         <v>4.4554619999999998</v>
       </c>
       <c r="N92" s="60">
-        <v>3.9667699999999999</v>
+        <v>3.966771</v>
       </c>
       <c r="O92" s="60">
         <v>2.3128639999999998</v>
       </c>
       <c r="P92" s="60">
-        <v>3.9901960000000001</v>
+        <v>3.9901970000000002</v>
       </c>
       <c r="Q92" s="60">
         <v>4.4325910000000004</v>
@@ -13688,7 +13688,7 @@
         <v>4.6160290000000002</v>
       </c>
       <c r="V92" s="60">
-        <v>4.3212570000000001</v>
+        <v>4.3212580000000003</v>
       </c>
       <c r="W92" s="60">
         <v>4.2642119999999997</v>
@@ -13703,142 +13703,142 @@
         <v>4.6979259999999998</v>
       </c>
       <c r="AA92" s="60">
-        <v>4.2967639999999996</v>
+        <v>4.2967649999999997</v>
       </c>
       <c r="AB92" s="60">
-        <v>2.6166079999999998</v>
+        <v>2.6166070000000001</v>
       </c>
       <c r="AC92" s="60">
-        <v>4.1064360000000004</v>
+        <v>4.106433</v>
       </c>
       <c r="AD92" s="60">
-        <v>4.6068749999999996</v>
+        <v>4.6068759999999997</v>
       </c>
       <c r="AE92" s="60">
-        <v>5.1540189999999999</v>
+        <v>5.15402</v>
       </c>
       <c r="AF92" s="60">
-        <v>5.4112229999999997</v>
+        <v>5.4112239999999998</v>
       </c>
       <c r="AG92" s="60">
-        <v>-1.7597240000000001</v>
+        <v>-1.6561920000000001</v>
       </c>
       <c r="AH92" s="60">
-        <v>1.2911140000000001</v>
+        <v>1.5314030000000001</v>
       </c>
       <c r="AI92" s="60">
-        <v>4.2364319999999998</v>
+        <v>4.2620279999999999</v>
       </c>
       <c r="AJ92" s="60">
-        <v>2.9535179999999999</v>
+        <v>3.0084110000000002</v>
       </c>
       <c r="AK92" s="60">
-        <v>1.853521</v>
+        <v>1.9008419999999999</v>
       </c>
       <c r="AL92" s="60">
-        <v>1.8930709999999999</v>
+        <v>1.509809</v>
       </c>
       <c r="AM92" s="60">
-        <v>3.9208639999999999</v>
+        <v>2.943946</v>
       </c>
       <c r="AN92" s="60">
-        <v>3.6054759999999999</v>
+        <v>3.7071149999999999</v>
       </c>
       <c r="AO92" s="60">
-        <v>3.8723809999999999</v>
+        <v>3.7770630000000001</v>
       </c>
       <c r="AP92" s="60">
-        <v>4.8697429999999997</v>
+        <v>4.3784140000000003</v>
       </c>
       <c r="AQ92" s="60">
-        <v>4.2958540000000003</v>
+        <v>4.2967389999999996</v>
       </c>
       <c r="AR92" s="61">
-        <v>4.1119450000000004</v>
+        <v>3.8193809999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>190</v>
       </c>
       <c r="C93" s="59">
-        <v>4.4585129999999999</v>
+        <v>4.4585080000000001</v>
       </c>
       <c r="D93" s="60">
-        <v>1.5712390000000001</v>
+        <v>1.571237</v>
       </c>
       <c r="E93" s="60">
-        <v>3.681737</v>
+        <v>3.6817340000000001</v>
       </c>
       <c r="F93" s="60">
-        <v>2.5342370000000001</v>
+        <v>2.53424</v>
       </c>
       <c r="G93" s="60">
-        <v>1.0006759999999999</v>
+        <v>1.00068</v>
       </c>
       <c r="H93" s="60">
-        <v>2.459015</v>
+        <v>2.4590190000000001</v>
       </c>
       <c r="I93" s="60">
-        <v>3.5299700000000001</v>
+        <v>3.5299710000000002</v>
       </c>
       <c r="J93" s="60">
-        <v>4.5619240000000003</v>
+        <v>4.5619249999999996</v>
       </c>
       <c r="K93" s="60">
-        <v>1.4168609999999999</v>
+        <v>1.416868</v>
       </c>
       <c r="L93" s="60">
-        <v>3.2754129999999999</v>
+        <v>3.2754210000000001</v>
       </c>
       <c r="M93" s="60">
-        <v>4.8234820000000003</v>
+        <v>4.8234830000000004</v>
       </c>
       <c r="N93" s="60">
-        <v>1.8229569999999999</v>
+        <v>1.8229599999999999</v>
       </c>
       <c r="O93" s="60">
-        <v>0.74534999999999996</v>
+        <v>0.74535300000000004</v>
       </c>
       <c r="P93" s="60">
-        <v>2.9676990000000001</v>
+        <v>2.9677030000000002</v>
       </c>
       <c r="Q93" s="60">
-        <v>2.000588</v>
+        <v>2.0005899999999999</v>
       </c>
       <c r="R93" s="60">
-        <v>1.5565690000000001</v>
+        <v>1.556573</v>
       </c>
       <c r="S93" s="60">
-        <v>3.1219320000000002</v>
+        <v>3.1219380000000001</v>
       </c>
       <c r="T93" s="60">
-        <v>4.7510089999999998</v>
+        <v>4.7510219999999999</v>
       </c>
       <c r="U93" s="60">
-        <v>3.3919920000000001</v>
+        <v>3.3919950000000001</v>
       </c>
       <c r="V93" s="60">
-        <v>0.88974699999999995</v>
+        <v>0.889741</v>
       </c>
       <c r="W93" s="60">
-        <v>2.6521119999999998</v>
+        <v>2.6521080000000001</v>
       </c>
       <c r="X93" s="60">
-        <v>2.9158870000000001</v>
+        <v>2.915886</v>
       </c>
       <c r="Y93" s="60">
-        <v>1.2180740000000001</v>
+        <v>1.2180709999999999</v>
       </c>
       <c r="Z93" s="60">
-        <v>1.8016700000000001</v>
+        <v>1.801666</v>
       </c>
       <c r="AA93" s="60">
-        <v>1.6983550000000001</v>
+        <v>1.6983509999999999</v>
       </c>
       <c r="AB93" s="60">
-        <v>2.284405</v>
+        <v>2.2844009999999999</v>
       </c>
       <c r="AC93" s="60">
         <v>3.1017700000000001</v>
@@ -13847,313 +13847,313 @@
         <v>2.8484720000000001</v>
       </c>
       <c r="AE93" s="60">
-        <v>2.6160679999999998</v>
+        <v>2.6162570000000001</v>
       </c>
       <c r="AF93" s="60">
-        <v>2.170331</v>
+        <v>2.1703459999999999</v>
       </c>
       <c r="AG93" s="60">
-        <v>-13.051152</v>
+        <v>-13.050013999999999</v>
       </c>
       <c r="AH93" s="60">
-        <v>2.3131309999999998</v>
+        <v>2.3131110000000001</v>
       </c>
       <c r="AI93" s="60">
-        <v>7.344017</v>
+        <v>7.177727</v>
       </c>
       <c r="AJ93" s="60">
-        <v>3.0659830000000001</v>
+        <v>3.1458819999999998</v>
       </c>
       <c r="AK93" s="60">
-        <v>3.1118009999999998</v>
+        <v>3.3898229999999998</v>
       </c>
       <c r="AL93" s="60">
-        <v>2.1091160000000002</v>
+        <v>2.277504</v>
       </c>
       <c r="AM93" s="60">
-        <v>2.1987030000000001</v>
+        <v>2.404604</v>
       </c>
       <c r="AN93" s="60">
-        <v>2.2148289999999999</v>
+        <v>2.4395669999999998</v>
       </c>
       <c r="AO93" s="60">
-        <v>2.1622569999999999</v>
+        <v>2.4013270000000002</v>
       </c>
       <c r="AP93" s="60">
-        <v>2.176469</v>
+        <v>2.4133499999999999</v>
       </c>
       <c r="AQ93" s="60">
-        <v>2.173953</v>
+        <v>2.3836219999999999</v>
       </c>
       <c r="AR93" s="61">
-        <v>2.185241</v>
+        <v>2.4084919999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>191</v>
       </c>
       <c r="C94" s="59">
-        <v>2.052959</v>
+        <v>2.0558480000000001</v>
       </c>
       <c r="D94" s="60">
-        <v>1.7763139999999999</v>
+        <v>1.7700689999999999</v>
       </c>
       <c r="E94" s="60">
-        <v>4.5384219999999997</v>
+        <v>4.5303959999999996</v>
       </c>
       <c r="F94" s="60">
-        <v>5.3947859999999999</v>
+        <v>5.3838980000000003</v>
       </c>
       <c r="G94" s="60">
-        <v>4.488181</v>
+        <v>4.4788079999999999</v>
       </c>
       <c r="H94" s="60">
-        <v>4.1488690000000004</v>
+        <v>4.1418039999999996</v>
       </c>
       <c r="I94" s="60">
-        <v>4.4859080000000002</v>
+        <v>4.4739430000000002</v>
       </c>
       <c r="J94" s="60">
-        <v>4.6344149999999997</v>
+        <v>4.6196020000000004</v>
       </c>
       <c r="K94" s="60">
-        <v>-0.39973700000000001</v>
+        <v>-0.40424100000000002</v>
       </c>
       <c r="L94" s="60">
-        <v>3.8967939999999999</v>
+        <v>3.889459</v>
       </c>
       <c r="M94" s="60">
-        <v>4.741231</v>
+        <v>4.7325749999999998</v>
       </c>
       <c r="N94" s="60">
-        <v>-1.0988990000000001</v>
+        <v>-1.097642</v>
       </c>
       <c r="O94" s="60">
-        <v>2.0703939999999998</v>
+        <v>2.0657619999999999</v>
       </c>
       <c r="P94" s="60">
-        <v>2.598563</v>
+        <v>2.598198</v>
       </c>
       <c r="Q94" s="60">
-        <v>5.1215840000000004</v>
+        <v>5.1138000000000003</v>
       </c>
       <c r="R94" s="60">
-        <v>4.9206479999999999</v>
+        <v>4.9127070000000002</v>
       </c>
       <c r="S94" s="60">
-        <v>6.5897990000000002</v>
+        <v>6.5825290000000001</v>
       </c>
       <c r="T94" s="60">
-        <v>5.6791229999999997</v>
+        <v>5.6715520000000001</v>
       </c>
       <c r="U94" s="60">
-        <v>0.55533900000000003</v>
+        <v>0.55187299999999995</v>
       </c>
       <c r="V94" s="60">
-        <v>-1.2561389999999999</v>
+        <v>-1.2606329999999999</v>
       </c>
       <c r="W94" s="60">
-        <v>8.7172049999999999</v>
+        <v>8.7058319999999991</v>
       </c>
       <c r="X94" s="60">
-        <v>3.4121290000000002</v>
+        <v>3.4091209999999998</v>
       </c>
       <c r="Y94" s="60">
-        <v>2.2880090000000002</v>
+        <v>2.3099249999999998</v>
       </c>
       <c r="Z94" s="60">
-        <v>3.0211990000000002</v>
+        <v>3.015371</v>
       </c>
       <c r="AA94" s="60">
-        <v>3.3066200000000001</v>
+        <v>3.3004880000000001</v>
       </c>
       <c r="AB94" s="60">
-        <v>2.2675559999999999</v>
+        <v>2.2888350000000002</v>
       </c>
       <c r="AC94" s="60">
-        <v>2.4305289999999999</v>
+        <v>2.4577789999999999</v>
       </c>
       <c r="AD94" s="60">
-        <v>2.5751409999999999</v>
+        <v>2.6260309999999998</v>
       </c>
       <c r="AE94" s="60">
-        <v>2.6893660000000001</v>
+        <v>2.7019690000000001</v>
       </c>
       <c r="AF94" s="60">
-        <v>1.0738859999999999</v>
+        <v>1.1926060000000001</v>
       </c>
       <c r="AG94" s="60">
-        <v>-5.9563699999999997</v>
+        <v>-5.9040540000000004</v>
       </c>
       <c r="AH94" s="60">
-        <v>8.8251179999999998</v>
+        <v>8.8853209999999994</v>
       </c>
       <c r="AI94" s="60">
-        <v>5.0385989999999996</v>
+        <v>5.0440659999999999</v>
       </c>
       <c r="AJ94" s="60">
-        <v>2.0028030000000001</v>
+        <v>2.0363169999999999</v>
       </c>
       <c r="AK94" s="60">
-        <v>4.8813430000000002</v>
+        <v>4.8806120000000002</v>
       </c>
       <c r="AL94" s="60">
-        <v>2.1100590000000001</v>
+        <v>1.9277200000000001</v>
       </c>
       <c r="AM94" s="60">
-        <v>2.936947</v>
+        <v>2.8085580000000001</v>
       </c>
       <c r="AN94" s="60">
-        <v>3.3441179999999999</v>
+        <v>3.4056850000000001</v>
       </c>
       <c r="AO94" s="60">
-        <v>3.6611899999999999</v>
+        <v>3.3599230000000002</v>
       </c>
       <c r="AP94" s="60">
-        <v>3.388522</v>
+        <v>3.6605270000000001</v>
       </c>
       <c r="AQ94" s="60">
-        <v>2.2567719999999998</v>
+        <v>2.2338939999999998</v>
       </c>
       <c r="AR94" s="61">
-        <v>3.116349</v>
+        <v>3.092444</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>192</v>
       </c>
       <c r="C95" s="59">
-        <v>0.47210400000000002</v>
+        <v>0.46568100000000001</v>
       </c>
       <c r="D95" s="60">
-        <v>-1.573161</v>
+        <v>-1.576713</v>
       </c>
       <c r="E95" s="60">
-        <v>-3.8807170000000002</v>
+        <v>-3.8885239999999999</v>
       </c>
       <c r="F95" s="60">
-        <v>1.6862619999999999</v>
+        <v>1.679667</v>
       </c>
       <c r="G95" s="60">
-        <v>-1.528977</v>
+        <v>-1.51169</v>
       </c>
       <c r="H95" s="60">
-        <v>3.7362220000000002</v>
+        <v>3.7329129999999999</v>
       </c>
       <c r="I95" s="60">
-        <v>3.7167680000000001</v>
+        <v>3.7018080000000002</v>
       </c>
       <c r="J95" s="60">
-        <v>1.327928</v>
+        <v>1.3280590000000001</v>
       </c>
       <c r="K95" s="60">
-        <v>-0.772374</v>
+        <v>-0.77107099999999995</v>
       </c>
       <c r="L95" s="60">
-        <v>1.2120379999999999</v>
+        <v>0.861232</v>
       </c>
       <c r="M95" s="60">
-        <v>-0.137825</v>
+        <v>-0.57794500000000004</v>
       </c>
       <c r="N95" s="60">
-        <v>2.8631500000000001</v>
+        <v>2.4922979999999999</v>
       </c>
       <c r="O95" s="60">
-        <v>7.894E-3</v>
+        <v>-0.56720599999999999</v>
       </c>
       <c r="P95" s="60">
-        <v>-0.74424100000000004</v>
+        <v>-1.582036</v>
       </c>
       <c r="Q95" s="60">
-        <v>3.5151300000000001</v>
+        <v>2.9923850000000001</v>
       </c>
       <c r="R95" s="60">
-        <v>3.9724740000000001</v>
+        <v>3.4063210000000002</v>
       </c>
       <c r="S95" s="60">
-        <v>3.1434730000000002</v>
+        <v>2.8328509999999998</v>
       </c>
       <c r="T95" s="60">
-        <v>3.5701809999999998</v>
+        <v>3.2767590000000002</v>
       </c>
       <c r="U95" s="60">
-        <v>3.2763409999999999</v>
+        <v>2.750435</v>
       </c>
       <c r="V95" s="60">
-        <v>2.464728</v>
+        <v>2.512222</v>
       </c>
       <c r="W95" s="60">
-        <v>6.5606400000000002</v>
+        <v>6.8231039999999998</v>
       </c>
       <c r="X95" s="60">
-        <v>0.74588200000000004</v>
+        <v>0.91603999999999997</v>
       </c>
       <c r="Y95" s="60">
-        <v>3.2072189999999998</v>
+        <v>3.5397690000000002</v>
       </c>
       <c r="Z95" s="60">
-        <v>3.0155699999999999</v>
+        <v>2.8795730000000002</v>
       </c>
       <c r="AA95" s="60">
-        <v>3.5146739999999999</v>
+        <v>3.4297330000000001</v>
       </c>
       <c r="AB95" s="60">
-        <v>3.1379579999999998</v>
+        <v>3.0242399999999998</v>
       </c>
       <c r="AC95" s="60">
-        <v>1.6509659999999999</v>
+        <v>1.6442829999999999</v>
       </c>
       <c r="AD95" s="60">
-        <v>3.5530409999999999</v>
+        <v>3.5040490000000002</v>
       </c>
       <c r="AE95" s="60">
-        <v>3.1468579999999999</v>
+        <v>3.064416</v>
       </c>
       <c r="AF95" s="60">
-        <v>2.8104770000000001</v>
+        <v>2.5040689999999999</v>
       </c>
       <c r="AG95" s="60">
-        <v>-1.9219489999999999</v>
+        <v>-2.181559</v>
       </c>
       <c r="AH95" s="60">
-        <v>3.1908690000000002</v>
+        <v>3.2409590000000001</v>
       </c>
       <c r="AI95" s="60">
-        <v>2.7136559999999998</v>
+        <v>2.775264</v>
       </c>
       <c r="AJ95" s="60">
-        <v>2.5043289999999998</v>
+        <v>2.5301480000000001</v>
       </c>
       <c r="AK95" s="60">
-        <v>2.496143</v>
+        <v>2.4764270000000002</v>
       </c>
       <c r="AL95" s="60">
-        <v>2.7702420000000001</v>
+        <v>3.3073700000000001</v>
       </c>
       <c r="AM95" s="60">
-        <v>4.2761079999999998</v>
+        <v>3.6463369999999999</v>
       </c>
       <c r="AN95" s="60">
-        <v>3.7839330000000002</v>
+        <v>3.7631700000000001</v>
       </c>
       <c r="AO95" s="60">
-        <v>3.6907049999999999</v>
+        <v>3.5971890000000002</v>
       </c>
       <c r="AP95" s="60">
-        <v>3.576533</v>
+        <v>3.4853269999999998</v>
       </c>
       <c r="AQ95" s="60">
-        <v>3.4692690000000002</v>
+        <v>3.431797</v>
       </c>
       <c r="AR95" s="61">
-        <v>3.758934</v>
+        <v>3.5846969999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>193</v>
@@ -14168,388 +14168,388 @@
         <v>-7.9418530000000001</v>
       </c>
       <c r="F96" s="64">
-        <v>-7.960642</v>
+        <v>-7.8728129999999998</v>
       </c>
       <c r="G96" s="64">
-        <v>-8.7387329999999999</v>
+        <v>-8.557893</v>
       </c>
       <c r="H96" s="64">
-        <v>-3.7000630000000001</v>
+        <v>-3.6133090000000001</v>
       </c>
       <c r="I96" s="64">
-        <v>0.111456</v>
+        <v>0.25519500000000001</v>
       </c>
       <c r="J96" s="64">
-        <v>2.144736</v>
+        <v>2.337094</v>
       </c>
       <c r="K96" s="64">
-        <v>0.62063800000000002</v>
+        <v>0.57819299999999996</v>
       </c>
       <c r="L96" s="64">
-        <v>2.2104689999999998</v>
+        <v>2.0148969999999999</v>
       </c>
       <c r="M96" s="64">
-        <v>4.8232809999999997</v>
+        <v>4.597099</v>
       </c>
       <c r="N96" s="64">
-        <v>6.343464</v>
+        <v>6.0932310000000003</v>
       </c>
       <c r="O96" s="64">
-        <v>4.5765950000000002</v>
+        <v>4.3758470000000003</v>
       </c>
       <c r="P96" s="64">
-        <v>5.4676770000000001</v>
+        <v>5.2540789999999999</v>
       </c>
       <c r="Q96" s="64">
-        <v>6.1233849999999999</v>
+        <v>5.9543609999999996</v>
       </c>
       <c r="R96" s="64">
-        <v>7.4937459999999998</v>
+        <v>7.3874430000000002</v>
       </c>
       <c r="S96" s="64">
-        <v>8.7373779999999996</v>
+        <v>8.7244139999999994</v>
       </c>
       <c r="T96" s="64">
-        <v>8.7484819999999992</v>
+        <v>8.7233929999999997</v>
       </c>
       <c r="U96" s="64">
-        <v>5.4800139999999997</v>
+        <v>5.2639690000000003</v>
       </c>
       <c r="V96" s="64">
-        <v>2.6920950000000001</v>
+        <v>2.641197</v>
       </c>
       <c r="W96" s="64">
-        <v>5.6412149999999999</v>
+        <v>5.4263589999999997</v>
       </c>
       <c r="X96" s="64">
-        <v>4.7442549999999999</v>
+        <v>4.9982360000000003</v>
       </c>
       <c r="Y96" s="64">
-        <v>3.6096180000000002</v>
+        <v>4.0815279999999996</v>
       </c>
       <c r="Z96" s="64">
-        <v>4.1316980000000001</v>
+        <v>4.9114089999999999</v>
       </c>
       <c r="AA96" s="64">
-        <v>3.0493190000000001</v>
+        <v>3.157286</v>
       </c>
       <c r="AB96" s="64">
-        <v>1.328227</v>
+        <v>1.2701039999999999</v>
       </c>
       <c r="AC96" s="64">
-        <v>0.607012</v>
+        <v>0.86917199999999994</v>
       </c>
       <c r="AD96" s="64">
-        <v>2.4998179999999999</v>
+        <v>2.6443310000000002</v>
       </c>
       <c r="AE96" s="64">
-        <v>2.5440589999999998</v>
+        <v>2.7500140000000002</v>
       </c>
       <c r="AF96" s="64">
-        <v>2.179014</v>
+        <v>2.752154</v>
       </c>
       <c r="AG96" s="64">
-        <v>-4.2774239999999999</v>
+        <v>-4.2524430000000004</v>
       </c>
       <c r="AH96" s="64">
-        <v>2.4353129999999998</v>
+        <v>3.0553460000000001</v>
       </c>
       <c r="AI96" s="64">
-        <v>2.4963850000000001</v>
+        <v>2.365977</v>
       </c>
       <c r="AJ96" s="64">
-        <v>2.9487070000000002</v>
+        <v>3.1064379999999998</v>
       </c>
       <c r="AK96" s="64">
-        <v>3.0408249999999999</v>
+        <v>3.0375800000000002</v>
       </c>
       <c r="AL96" s="64">
-        <v>2.9077380000000002</v>
+        <v>3.4731830000000001</v>
       </c>
       <c r="AM96" s="64">
-        <v>2.64262</v>
+        <v>3.0681949999999998</v>
       </c>
       <c r="AN96" s="64">
-        <v>2.6434760000000002</v>
+        <v>2.8064529999999999</v>
       </c>
       <c r="AO96" s="64">
-        <v>2.1932420000000001</v>
+        <v>2.3537059999999999</v>
       </c>
       <c r="AP96" s="64">
-        <v>2.3502640000000001</v>
+        <v>2.4709970000000001</v>
       </c>
       <c r="AQ96" s="64">
-        <v>2.3784109999999998</v>
+        <v>2.5040140000000002</v>
       </c>
       <c r="AR96" s="65">
-        <v>2.4414509999999998</v>
+        <v>2.640342</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>194</v>
       </c>
       <c r="C97" s="70">
-        <v>-1.4897769999999999</v>
+        <v>-1.4906790000000001</v>
       </c>
       <c r="D97" s="71">
-        <v>0.117405</v>
+        <v>-0.20866599999999999</v>
       </c>
       <c r="E97" s="71">
-        <v>-2.7161050000000002</v>
+        <v>-2.5089579999999998</v>
       </c>
       <c r="F97" s="71">
-        <v>-2.0540370000000001</v>
+        <v>-1.9723299999999999</v>
       </c>
       <c r="G97" s="71">
-        <v>-1.2162120000000001</v>
+        <v>-1.3361940000000001</v>
       </c>
       <c r="H97" s="71">
-        <v>-0.305479</v>
+        <v>-0.36688999999999999</v>
       </c>
       <c r="I97" s="71">
-        <v>1.8825750000000001</v>
+        <v>1.8106340000000001</v>
       </c>
       <c r="J97" s="71">
-        <v>0.29821399999999998</v>
+        <v>0.27768199999999998</v>
       </c>
       <c r="K97" s="71">
-        <v>0.29548200000000002</v>
+        <v>0.23477000000000001</v>
       </c>
       <c r="L97" s="71">
-        <v>-0.87773100000000004</v>
+        <v>-1.044195</v>
       </c>
       <c r="M97" s="71">
-        <v>1.1081620000000001</v>
+        <v>1.148997</v>
       </c>
       <c r="N97" s="71">
-        <v>2.862018</v>
+        <v>2.8703859999999999</v>
       </c>
       <c r="O97" s="71">
-        <v>3.548638</v>
+        <v>4.207897</v>
       </c>
       <c r="P97" s="71">
-        <v>3.4408979999999998</v>
+        <v>3.5808070000000001</v>
       </c>
       <c r="Q97" s="71">
-        <v>4.6726700000000001</v>
+        <v>4.8639939999999999</v>
       </c>
       <c r="R97" s="71">
-        <v>4.1354649999999999</v>
+        <v>4.0249699999999997</v>
       </c>
       <c r="S97" s="71">
-        <v>2.9340299999999999</v>
+        <v>2.9678460000000002</v>
       </c>
       <c r="T97" s="71">
-        <v>3.9755989999999999</v>
+        <v>3.9581200000000001</v>
       </c>
       <c r="U97" s="71">
-        <v>2.6540689999999998</v>
+        <v>2.7357049999999998</v>
       </c>
       <c r="V97" s="71">
-        <v>1.2587280000000001</v>
+        <v>1.7307060000000001</v>
       </c>
       <c r="W97" s="71">
-        <v>4.7460639999999996</v>
+        <v>5.1923779999999997</v>
       </c>
       <c r="X97" s="71">
-        <v>-3.5347999999999997E-2</v>
+        <v>0.26350400000000002</v>
       </c>
       <c r="Y97" s="71">
-        <v>5.9806359999999996</v>
+        <v>5.4836549999999997</v>
       </c>
       <c r="Z97" s="71">
-        <v>1.2296689999999999</v>
+        <v>1.3626640000000001</v>
       </c>
       <c r="AA97" s="71">
-        <v>2.0842540000000001</v>
+        <v>2.2344080000000002</v>
       </c>
       <c r="AB97" s="71">
-        <v>1.0178780000000001</v>
+        <v>0.86809199999999997</v>
       </c>
       <c r="AC97" s="71">
-        <v>-1.193819</v>
+        <v>-1.546772</v>
       </c>
       <c r="AD97" s="71">
-        <v>1.3348679999999999</v>
+        <v>0.96012699999999995</v>
       </c>
       <c r="AE97" s="71">
-        <v>0.56451099999999999</v>
+        <v>0.40565899999999999</v>
       </c>
       <c r="AF97" s="71">
-        <v>0.188499</v>
+        <v>6.7613999999999994E-2</v>
       </c>
       <c r="AG97" s="71">
-        <v>-3.8219609999999999</v>
+        <v>-5.6423690000000004</v>
       </c>
       <c r="AH97" s="71">
-        <v>2.1137739999999998</v>
+        <v>1.0905640000000001</v>
       </c>
       <c r="AI97" s="71">
-        <v>1.367397</v>
+        <v>1.7083090000000001</v>
       </c>
       <c r="AJ97" s="71">
-        <v>0.95841699999999996</v>
+        <v>1.1142319999999999</v>
       </c>
       <c r="AK97" s="71">
-        <v>1.24648</v>
+        <v>1.5067470000000001</v>
       </c>
       <c r="AL97" s="71">
-        <v>1.905241</v>
+        <v>2.2396229999999999</v>
       </c>
       <c r="AM97" s="71">
-        <v>2.2159059999999999</v>
+        <v>2.4214899999999999</v>
       </c>
       <c r="AN97" s="71">
-        <v>2.4457059999999999</v>
+        <v>2.5786310000000001</v>
       </c>
       <c r="AO97" s="71">
-        <v>2.407152</v>
+        <v>2.4956200000000002</v>
       </c>
       <c r="AP97" s="71">
-        <v>2.52657</v>
+        <v>2.5372490000000001</v>
       </c>
       <c r="AQ97" s="71">
-        <v>2.440671</v>
+        <v>2.4968430000000001</v>
       </c>
       <c r="AR97" s="72">
-        <v>2.407149</v>
+        <v>2.5059529999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>195</v>
       </c>
       <c r="C98" s="63">
-        <v>5.0480119999999999</v>
+        <v>5.1083420000000004</v>
       </c>
       <c r="D98" s="64">
-        <v>6.5921609999999999</v>
+        <v>6.6281790000000003</v>
       </c>
       <c r="E98" s="64">
-        <v>2.9296959999999999</v>
+        <v>2.907038</v>
       </c>
       <c r="F98" s="64">
-        <v>-1.304813</v>
+        <v>-1.275074</v>
       </c>
       <c r="G98" s="64">
-        <v>-1.346085</v>
+        <v>-1.2975890000000001</v>
       </c>
       <c r="H98" s="64">
-        <v>1.522632</v>
+        <v>1.548627</v>
       </c>
       <c r="I98" s="64">
-        <v>2.1312890000000002</v>
+        <v>2.185327</v>
       </c>
       <c r="J98" s="64">
-        <v>0.72461100000000001</v>
+        <v>0.74896399999999996</v>
       </c>
       <c r="K98" s="64">
-        <v>0.722437</v>
+        <v>0.70338299999999998</v>
       </c>
       <c r="L98" s="64">
-        <v>-0.37745299999999998</v>
+        <v>-0.423292</v>
       </c>
       <c r="M98" s="64">
-        <v>2.7134079999999998</v>
+        <v>2.6719439999999999</v>
       </c>
       <c r="N98" s="64">
-        <v>1.5872379999999999</v>
+        <v>1.510561</v>
       </c>
       <c r="O98" s="64">
-        <v>0.61294999999999999</v>
+        <v>0.60300699999999996</v>
       </c>
       <c r="P98" s="64">
-        <v>0.75576900000000002</v>
+        <v>0.73821000000000003</v>
       </c>
       <c r="Q98" s="64">
-        <v>8.3728060000000006</v>
+        <v>8.2945209999999996</v>
       </c>
       <c r="R98" s="64">
-        <v>4.2070569999999998</v>
+        <v>4.1413349999999998</v>
       </c>
       <c r="S98" s="64">
-        <v>4.3229660000000001</v>
+        <v>4.2837480000000001</v>
       </c>
       <c r="T98" s="64">
-        <v>5.2268220000000003</v>
+        <v>5.2114580000000004</v>
       </c>
       <c r="U98" s="64">
-        <v>2.365475</v>
+        <v>2.2598630000000002</v>
       </c>
       <c r="V98" s="64">
-        <v>0.33822999999999998</v>
+        <v>0.300292</v>
       </c>
       <c r="W98" s="64">
-        <v>2.4864109999999999</v>
+        <v>2.4199250000000001</v>
       </c>
       <c r="X98" s="64">
-        <v>2.1845409999999998</v>
+        <v>3.0706549999999999</v>
       </c>
       <c r="Y98" s="64">
-        <v>1.734491</v>
+        <v>1.743136</v>
       </c>
       <c r="Z98" s="64">
-        <v>1.460159</v>
+        <v>1.6089819999999999</v>
       </c>
       <c r="AA98" s="64">
-        <v>1.9839610000000001</v>
+        <v>2.0339939999999999</v>
       </c>
       <c r="AB98" s="64">
-        <v>-6.3195000000000001E-2</v>
+        <v>-0.129523</v>
       </c>
       <c r="AC98" s="64">
-        <v>3.3282690000000001</v>
+        <v>2.8652039999999999</v>
       </c>
       <c r="AD98" s="64">
-        <v>0.90172399999999997</v>
+        <v>1.0161830000000001</v>
       </c>
       <c r="AE98" s="64">
-        <v>0.61845799999999995</v>
+        <v>0.172819</v>
       </c>
       <c r="AF98" s="64">
-        <v>0.142924</v>
+        <v>0.44816899999999998</v>
       </c>
       <c r="AG98" s="64">
-        <v>-3.2893590000000001</v>
+        <v>-2.8930069999999999</v>
       </c>
       <c r="AH98" s="64">
-        <v>2.353818</v>
+        <v>2.534087</v>
       </c>
       <c r="AI98" s="64">
-        <v>3.9369480000000001</v>
+        <v>4.018351</v>
       </c>
       <c r="AJ98" s="64">
-        <v>1.5482100000000001</v>
+        <v>1.71149</v>
       </c>
       <c r="AK98" s="64">
-        <v>1.3392790000000001</v>
+        <v>1.375329</v>
       </c>
       <c r="AL98" s="64">
-        <v>0.30834099999999998</v>
+        <v>0.52443300000000004</v>
       </c>
       <c r="AM98" s="64">
-        <v>1.648042</v>
+        <v>1.516429</v>
       </c>
       <c r="AN98" s="64">
-        <v>2.4459209999999998</v>
+        <v>2.2493439999999998</v>
       </c>
       <c r="AO98" s="64">
-        <v>2.6137779999999999</v>
+        <v>2.5367470000000001</v>
       </c>
       <c r="AP98" s="64">
-        <v>3.061998</v>
+        <v>2.8285089999999999</v>
       </c>
       <c r="AQ98" s="64">
-        <v>2.8660640000000002</v>
+        <v>2.8269739999999999</v>
       </c>
       <c r="AR98" s="65">
-        <v>2.5259990000000001</v>
+        <v>2.3904380000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="76"/>
@@ -14595,7 +14595,7 @@
       <c r="AQ99" s="76"/>
       <c r="AR99" s="76"/>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
@@ -14642,7 +14642,7 @@
       <c r="AQ100" s="77"/>
       <c r="AR100" s="77"/>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
@@ -14689,7 +14689,7 @@
       <c r="AQ101" s="77"/>
       <c r="AR101" s="77"/>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>198</v>
       </c>
@@ -14736,7 +14736,7 @@
       <c r="AQ102" s="77"/>
       <c r="AR102" s="77"/>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
@@ -14783,7 +14783,7 @@
       <c r="AQ103" s="77"/>
       <c r="AR103" s="77"/>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>200</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="AQ104" s="77"/>
       <c r="AR104" s="77"/>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>201</v>
       </c>
@@ -14877,7 +14877,7 @@
       <c r="AQ105" s="77"/>
       <c r="AR105" s="77"/>
     </row>
-    <row r="106" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="78"/>
       <c r="C106" s="77"/>
       <c r="D106" s="77"/>
@@ -14922,7 +14922,7 @@
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B107" s="79" t="s">
         <v>202</v>
       </c>
@@ -14969,7 +14969,7 @@
       <c r="AQ107" s="77"/>
       <c r="AR107" s="77"/>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="77"/>
       <c r="D108" s="77"/>
@@ -15014,7 +15014,7 @@
       <c r="AQ108" s="77"/>
       <c r="AR108" s="77"/>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B109" s="82" t="s">
         <v>204</v>
       </c>
@@ -15061,7 +15061,7 @@
       <c r="AQ109" s="77"/>
       <c r="AR109" s="77"/>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B110" s="82" t="s">
         <v>205</v>
       </c>
@@ -15108,7 +15108,7 @@
       <c r="AQ110" s="77"/>
       <c r="AR110" s="77"/>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B111" s="82" t="s">
         <v>206</v>
       </c>
@@ -15155,7 +15155,7 @@
       <c r="AQ111" s="77"/>
       <c r="AR111" s="77"/>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>203</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="AQ112" s="77"/>
       <c r="AR112" s="77"/>
     </row>
-    <row r="113" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B113" s="80"/>
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
@@ -15249,11 +15249,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{AF9F037F-B928-4F97-B2AE-99847DD318AC}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{77811F81-F4EF-405C-A705-159E4E11058B}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{57BA5D43-AD29-464D-9563-E2F3C81D2DCF}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{0AE345D0-98DF-4D58-9984-08BA91CA6F6C}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{230F9418-85C9-4D1A-ABC1-F4470AFA5CC7}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{521897BF-EEA0-401B-8E48-E9CA93B980B6}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{F111BB66-9E1C-4747-8CCE-75A04862D8C0}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{D2E7C8F6-03AB-429F-A744-A5F52ED2E529}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{4681AE95-7201-429C-B520-ACFEE67C2655}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{E8D3CF5E-C60A-4979-9B6C-656838757E07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2025_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab04.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74521A7D-293F-4865-BECE-CB7AFA40D85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74D8244D-8FFD-4C2A-B464-91C51DCB69AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{41F9A30C-38D8-4129-BD15-98B85AE1BFC4}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{AC419583-228B-40A7-B9B2-ABE1C8CC5929}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab04'!$A$2:$AL$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab04'!$A$1:$AL$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab04'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab04'!$A$1:$AL$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,15 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="207">
-  <si>
-    <t>Table 4: Annual real GDP growth per capita, 1990-2030</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
+  <si>
+    <t>Tableau 4 : Taux de croissance annuelle du PIB réel par habitant, 1990-2030</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
     <t>1990</t>
@@ -132,21 +132,9 @@
     <t>2017</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -156,28 +144,13 @@
     <t>2025</t>
   </si>
   <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
-    <t>2028</t>
-  </si>
-  <si>
-    <t>2029</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>Average annual projected growth, 2025-30</t>
+    <t>Croissance annuelle moyenne projetée, 2025-30</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -213,7 +186,7 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>..</t>
@@ -222,13 +195,13 @@
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -237,7 +210,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -249,58 +225,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -312,13 +288,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -336,7 +312,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -354,79 +330,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -438,7 +414,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -450,7 +426,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -462,13 +438,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -498,7 +474,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -513,22 +489,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -537,19 +513,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -567,97 +543,101 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Figures up to 2024 are estimates. For 2025 onwards, they are projections.</t>
-  </si>
-  <si>
-    <t>Source: Author's calculation based on IMF World Economic Outlook Database October 2025 and World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Les chiffres jusqu’en 2024 sont des estimations. À partir de 2025, il s’agit de projections.</t>
+  </si>
+  <si>
+    <t>Source : Calculs de l’auteur basés sur la base de données des Perspectives économiques mondiales du FMI (octobre 2025) et sur les Perspectives de la population mondiale 2024 – Division de la population du Département des affaires économiques et sociales des Nations Unies.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
@@ -806,17 +786,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <u/>
       <sz val="11"/>
-      <color rgb="FFA54917"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
@@ -1037,7 +1014,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1268,8 +1245,9 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1552,40 +1530,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA02C164-3165-4F74-823D-98AF3727953D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CA121F-4FAF-46F2-9FEF-464DF8A7C8BD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR113"/>
+  <dimension ref="A1:AR116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="43" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.1796875" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="43" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1635,7 +1614,7 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
     </row>
-    <row r="2" spans="1:44" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:44" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1726,55 +1705,55 @@
       <c r="AD2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="7">
+        <v>2018</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AM2" s="7">
+        <v>2026</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>2027</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>2028</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>2029</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C3" s="11">
         <v>-6.6705269999999999</v>
@@ -1905,10 +1884,10 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15">
         <v>5.8359610000000002</v>
@@ -2039,10 +2018,10 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" s="15">
         <v>5.4981049999999998</v>
@@ -2173,10 +2152,10 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C6" s="15">
         <v>4.4141399999999997</v>
@@ -2307,10 +2286,10 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C7" s="15">
         <v>1.5997030000000001</v>
@@ -2441,10 +2420,10 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C8" s="15">
         <v>-0.44771</v>
@@ -2575,13 +2554,13 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D9" s="19">
         <v>1.891248</v>
@@ -2709,10 +2688,10 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C10" s="21">
         <v>-3.052098</v>
@@ -2843,10 +2822,10 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C11" s="15">
         <v>-3.093426</v>
@@ -2977,37 +2956,37 @@
     </row>
     <row r="12" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L12" s="24">
         <v>-2.6981310000000001</v>
@@ -3110,9 +3089,11 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C13" s="28">
         <v>-2.8445860000000001</v>
@@ -3243,10 +3224,10 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C14" s="21">
         <v>1.3222970000000001</v>
@@ -3377,10 +3358,10 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C15" s="21">
         <v>-8.8861939999999997</v>
@@ -3511,10 +3492,10 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" s="21">
         <v>-1.7396</v>
@@ -3645,10 +3626,10 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C17" s="32">
         <v>0.38605099999999998</v>
@@ -3779,10 +3760,10 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C18" s="32">
         <v>-1.839375</v>
@@ -3913,10 +3894,10 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C19" s="15">
         <v>-9.6174929999999996</v>
@@ -4047,10 +4028,10 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C20" s="32">
         <v>-1.239568</v>
@@ -4181,10 +4162,10 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C21" s="32">
         <v>2.3038660000000002</v>
@@ -4315,10 +4296,10 @@
     </row>
     <row r="22" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C22" s="36">
         <v>-4.5403500000000001</v>
@@ -4448,9 +4429,11 @@
       </c>
     </row>
     <row r="23" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C23" s="28">
         <v>-6.3024050000000003</v>
@@ -4581,10 +4564,10 @@
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C24" s="40">
         <v>4.5640140000000002</v>
@@ -4715,13 +4698,13 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D25" s="19">
         <v>-12.261462</v>
@@ -4849,19 +4832,19 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F26" s="19">
         <v>9.3996619999999993</v>
@@ -4945,48 +4928,48 @@
         <v>2.3158289999999999</v>
       </c>
       <c r="AG26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AH26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AI26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AJ26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AK26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AL26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AM26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AN26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AO26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AP26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AQ26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AR26" s="20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C27" s="21">
         <v>-1.1267419999999999</v>
@@ -5117,10 +5100,10 @@
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C28" s="21">
         <v>0.61193799999999998</v>
@@ -5251,10 +5234,10 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C29" s="21">
         <v>0.12937699999999999</v>
@@ -5385,10 +5368,10 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C30" s="21">
         <v>5.9030829999999996</v>
@@ -5519,10 +5502,10 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C31" s="21">
         <v>-2.17618</v>
@@ -5653,10 +5636,10 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C32" s="21">
         <v>6.1984190000000003</v>
@@ -5787,76 +5770,76 @@
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="X33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Y33" s="19">
         <v>0.287742</v>
@@ -5921,76 +5904,76 @@
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="U34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="X34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Y34" s="33">
         <v>-52.481265</v>
@@ -6055,10 +6038,10 @@
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C35" s="21">
         <v>-0.92515599999999998</v>
@@ -6189,10 +6172,10 @@
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C36" s="21">
         <v>4.2923819999999999</v>
@@ -6323,10 +6306,10 @@
     </row>
     <row r="37" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C37" s="23">
         <v>3.1079129999999999</v>
@@ -6456,9 +6439,11 @@
       </c>
     </row>
     <row r="38" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C38" s="28">
         <v>0.67694100000000001</v>
@@ -6589,10 +6574,10 @@
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C39" s="44">
         <v>-1.6680809999999999</v>
@@ -6723,10 +6708,10 @@
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C40" s="21">
         <v>-0.60526999999999997</v>
@@ -6857,10 +6842,10 @@
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C41" s="32">
         <v>1.3327059999999999</v>
@@ -6991,13 +6976,13 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D42" s="33">
         <v>-2.8789820000000002</v>
@@ -7125,10 +7110,10 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C43" s="21">
         <v>2.1733009999999999</v>
@@ -7259,10 +7244,10 @@
     </row>
     <row r="44" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C44" s="36">
         <v>4.8512599999999999</v>
@@ -7392,9 +7377,11 @@
       </c>
     </row>
     <row r="45" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C45" s="28">
         <v>-3.0863000000000002E-2</v>
@@ -7525,10 +7512,10 @@
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C46" s="40">
         <v>5.6784270000000001</v>
@@ -7659,10 +7646,10 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C47" s="21">
         <v>-3.1876609999999999</v>
@@ -7793,10 +7780,10 @@
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C48" s="32">
         <v>-1.352633</v>
@@ -7927,10 +7914,10 @@
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C49" s="21">
         <v>-4.9037269999999999</v>
@@ -8061,10 +8048,10 @@
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C50" s="21">
         <v>1.3528480000000001</v>
@@ -8195,10 +8182,10 @@
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C51" s="15">
         <v>0.98499199999999998</v>
@@ -8329,10 +8316,10 @@
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C52" s="21">
         <v>0.78039499999999995</v>
@@ -8463,10 +8450,10 @@
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C53" s="21">
         <v>2.8740800000000002</v>
@@ -8597,43 +8584,43 @@
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N54" s="19">
         <v>-0.21398300000000001</v>
@@ -8731,10 +8718,10 @@
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C55" s="21">
         <v>7.1799340000000003</v>
@@ -8865,10 +8852,10 @@
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C56" s="21">
         <v>-4.301342</v>
@@ -8999,13 +8986,13 @@
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D57" s="19">
         <v>-3.1441720000000002</v>
@@ -9133,10 +9120,10 @@
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C58" s="21">
         <v>-3.4842819999999999</v>
@@ -9267,10 +9254,10 @@
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C59" s="21">
         <v>-2.330584</v>
@@ -9401,10 +9388,10 @@
     </row>
     <row r="60" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C60" s="23">
         <v>2.8424860000000001</v>
@@ -9536,7 +9523,7 @@
     <row r="61" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C61" s="28">
         <v>-0.58355999999999997</v>
@@ -9668,7 +9655,7 @@
     <row r="62" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C62" s="50">
         <v>-1.222297</v>
@@ -9800,7 +9787,7 @@
     <row r="63" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C63" s="50">
         <v>1.6087940000000001</v>
@@ -9932,7 +9919,7 @@
     <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C64" s="55">
         <v>-0.99552799999999997</v>
@@ -10064,7 +10051,7 @@
     <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C65" s="59">
         <v>4.3179410000000003</v>
@@ -10196,7 +10183,7 @@
     <row r="66" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C66" s="63">
         <v>1.3951100000000001</v>
@@ -10328,7 +10315,7 @@
     <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C67" s="59">
         <v>-0.62572300000000003</v>
@@ -10460,7 +10447,7 @@
     <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C68" s="59">
         <v>0.18151400000000001</v>
@@ -10592,7 +10579,7 @@
     <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C69" s="59">
         <v>-1.754051</v>
@@ -10724,7 +10711,7 @@
     <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C70" s="59">
         <v>-6.1958130000000002</v>
@@ -10856,7 +10843,7 @@
     <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C71" s="59">
         <v>-0.58355999999999997</v>
@@ -10988,7 +10975,7 @@
     <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C72" s="59">
         <v>-6.9189999999999998E-3</v>
@@ -11120,7 +11107,7 @@
     <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C73" s="59">
         <v>-2.9820989999999998</v>
@@ -11252,7 +11239,7 @@
     <row r="74" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C74" s="59">
         <v>0.45377800000000001</v>
@@ -11384,7 +11371,7 @@
     <row r="75" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C75" s="66">
         <v>-4.7327149999999998</v>
@@ -11516,7 +11503,7 @@
     <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C76" s="70">
         <v>6.2257490000000004</v>
@@ -11648,7 +11635,7 @@
     <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C77" s="59">
         <v>-2.8883269999999999</v>
@@ -11780,7 +11767,7 @@
     <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C78" s="59">
         <v>2.3702839999999998</v>
@@ -11912,7 +11899,7 @@
     <row r="79" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C79" s="63">
         <v>2.124924</v>
@@ -12044,7 +12031,7 @@
     <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C80" s="70">
         <v>-1.3117989999999999</v>
@@ -12176,7 +12163,7 @@
     <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C81" s="59">
         <v>7.7724380000000002</v>
@@ -12308,7 +12295,7 @@
     <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C82" s="59">
         <v>-1.19346</v>
@@ -12440,7 +12427,7 @@
     <row r="83" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C83" s="63">
         <v>1.3073630000000001</v>
@@ -12572,7 +12559,7 @@
     <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C84" s="70">
         <v>-2.02589</v>
@@ -12704,7 +12691,7 @@
     <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C85" s="59">
         <v>7.7606760000000001</v>
@@ -12836,7 +12823,7 @@
     <row r="86" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C86" s="59">
         <v>-0.483649</v>
@@ -12968,7 +12955,7 @@
     <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C87" s="59">
         <v>2.3858100000000002</v>
@@ -13100,7 +13087,7 @@
     <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C88" s="59">
         <v>-1.6732009999999999</v>
@@ -13232,7 +13219,7 @@
     <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C89" s="59">
         <v>2.377659</v>
@@ -13364,7 +13351,7 @@
     <row r="90" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C90" s="63">
         <v>2.191074</v>
@@ -13496,7 +13483,7 @@
     <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C91" s="70">
         <v>-1.7011620000000001</v>
@@ -13628,7 +13615,7 @@
     <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C92" s="59">
         <v>2.7891499999999998</v>
@@ -13760,7 +13747,7 @@
     <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C93" s="59">
         <v>4.4585080000000001</v>
@@ -13892,7 +13879,7 @@
     <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C94" s="59">
         <v>2.0558480000000001</v>
@@ -14024,7 +14011,7 @@
     <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C95" s="59">
         <v>0.46568100000000001</v>
@@ -14156,7 +14143,7 @@
     <row r="96" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C96" s="63">
         <v>2.0831249999999999</v>
@@ -14288,7 +14275,7 @@
     <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C97" s="70">
         <v>-1.4906790000000001</v>
@@ -14420,7 +14407,7 @@
     <row r="98" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C98" s="63">
         <v>5.1083420000000004</v>
@@ -14597,7 +14584,7 @@
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C100" s="77"/>
       <c r="D100" s="77"/>
@@ -14644,7 +14631,7 @@
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C101" s="77"/>
       <c r="D101" s="77"/>
@@ -14691,7 +14678,7 @@
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C102" s="77"/>
       <c r="D102" s="77"/>
@@ -14738,7 +14725,7 @@
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C103" s="77"/>
       <c r="D103" s="77"/>
@@ -14785,7 +14772,7 @@
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C104" s="77"/>
       <c r="D104" s="77"/>
@@ -14832,7 +14819,7 @@
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C105" s="77"/>
       <c r="D105" s="77"/>
@@ -14878,6 +14865,9 @@
       <c r="AR105" s="77"/>
     </row>
     <row r="106" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B106" s="78"/>
       <c r="C106" s="77"/>
       <c r="D106" s="77"/>
@@ -14922,10 +14912,8 @@
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B107" s="79" t="s">
-        <v>202</v>
-      </c>
+    <row r="107" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="78"/>
       <c r="C107" s="77"/>
       <c r="D107" s="77"/>
       <c r="E107" s="77"/>
@@ -14970,7 +14958,9 @@
       <c r="AR107" s="77"/>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="83" t="s">
+        <v>198</v>
+      </c>
       <c r="C108" s="77"/>
       <c r="D108" s="77"/>
       <c r="E108" s="77"/>
@@ -15015,9 +15005,7 @@
       <c r="AR108" s="77"/>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B109" s="82" t="s">
-        <v>204</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="77"/>
       <c r="D109" s="77"/>
       <c r="E109" s="77"/>
@@ -15062,8 +15050,8 @@
       <c r="AR109" s="77"/>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B110" s="82" t="s">
-        <v>205</v>
+      <c r="B110" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C110" s="77"/>
       <c r="D110" s="77"/>
@@ -15109,8 +15097,8 @@
       <c r="AR110" s="77"/>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B111" s="82" t="s">
-        <v>206</v>
+      <c r="B111" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C111" s="77"/>
       <c r="D111" s="77"/>
@@ -15156,8 +15144,8 @@
       <c r="AR111" s="77"/>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>203</v>
+      <c r="B112" s="83" t="s">
+        <v>199</v>
       </c>
       <c r="C112" s="77"/>
       <c r="D112" s="77"/>
@@ -15203,7 +15191,9 @@
       <c r="AR112" s="77"/>
     </row>
     <row r="113" spans="2:44" x14ac:dyDescent="0.35">
-      <c r="B113" s="80"/>
+      <c r="B113" s="83" t="s">
+        <v>197</v>
+      </c>
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
       <c r="E113" s="77"/>
@@ -15247,13 +15237,105 @@
       <c r="AQ113" s="77"/>
       <c r="AR113" s="77"/>
     </row>
+    <row r="114" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B114" s="79"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+      <c r="W114" s="77"/>
+      <c r="X114" s="77"/>
+      <c r="Y114" s="77"/>
+      <c r="Z114" s="77"/>
+      <c r="AA114" s="77"/>
+      <c r="AB114" s="77"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="77"/>
+      <c r="AG114" s="77"/>
+      <c r="AH114" s="77"/>
+      <c r="AI114" s="77"/>
+      <c r="AJ114" s="77"/>
+      <c r="AK114" s="77"/>
+      <c r="AL114" s="77"/>
+      <c r="AM114" s="77"/>
+      <c r="AN114" s="77"/>
+      <c r="AO114" s="77"/>
+      <c r="AP114" s="77"/>
+      <c r="AQ114" s="77"/>
+      <c r="AR114" s="77"/>
+    </row>
+    <row r="115" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B115" s="79"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
+      <c r="J115" s="77"/>
+      <c r="K115" s="77"/>
+      <c r="L115" s="77"/>
+      <c r="M115" s="77"/>
+      <c r="N115" s="77"/>
+      <c r="O115" s="77"/>
+      <c r="P115" s="77"/>
+      <c r="Q115" s="77"/>
+      <c r="R115" s="77"/>
+      <c r="S115" s="77"/>
+      <c r="T115" s="77"/>
+      <c r="U115" s="77"/>
+      <c r="V115" s="77"/>
+      <c r="W115" s="77"/>
+      <c r="X115" s="77"/>
+      <c r="Y115" s="77"/>
+      <c r="Z115" s="77"/>
+      <c r="AA115" s="77"/>
+      <c r="AB115" s="77"/>
+      <c r="AC115" s="77"/>
+      <c r="AD115" s="77"/>
+      <c r="AE115" s="77"/>
+      <c r="AF115" s="77"/>
+      <c r="AG115" s="77"/>
+      <c r="AH115" s="77"/>
+      <c r="AI115" s="77"/>
+      <c r="AJ115" s="77"/>
+      <c r="AK115" s="77"/>
+      <c r="AL115" s="77"/>
+      <c r="AM115" s="77"/>
+      <c r="AN115" s="77"/>
+      <c r="AO115" s="77"/>
+      <c r="AP115" s="77"/>
+    </row>
+    <row r="116" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B116" s="80"/>
+      <c r="C116" s="81"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{521897BF-EEA0-401B-8E48-E9CA93B980B6}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{F111BB66-9E1C-4747-8CCE-75A04862D8C0}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{D2E7C8F6-03AB-429F-A744-A5F52ED2E529}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{4681AE95-7201-429C-B520-ACFEE67C2655}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{E8D3CF5E-C60A-4979-9B6C-656838757E07}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E012DC32-63AF-4733-BB31-AEF32227F471}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{143A5008-D040-474B-93D7-CB05F67B171B}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{092BB13A-DEDE-4B61-B80F-60A1FC0504CF}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{AB4324A8-E2D9-427F-AC81-5A2A6FEBE0C3}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{BD544186-68B4-4842-A806-43221DFC62A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>
